--- a/database/industries/darou/delor/product/monthly.xlsx
+++ b/database/industries/darou/delor/product/monthly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\darou\delor\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D4C4A5-D3B2-4C16-A603-40739045CD6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE1FC60-D547-4A90-A009-56B5ACD4D99D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3848" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3924" uniqueCount="94">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 6 منتهی به 1397/06</t>
-  </si>
-  <si>
-    <t>ماه 7 منتهی به 1397/07</t>
   </si>
   <si>
     <t>ماه 8 منتهی به 1397/08</t>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 7 منتهی به 1401/07</t>
+  </si>
+  <si>
+    <t>ماه 8 منتهی به 1401/08</t>
+  </si>
+  <si>
+    <t>ماه 9 منتهی به 1401/09</t>
   </si>
   <si>
     <t>شربت</t>
@@ -1460,25 +1460,25 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>798985</v>
+        <v>980595</v>
       </c>
       <c r="F11" s="11">
-        <v>950175</v>
+        <v>1153289</v>
       </c>
       <c r="G11" s="11">
-        <v>980595</v>
+        <v>916227</v>
       </c>
       <c r="H11" s="11">
-        <v>1153289</v>
+        <v>948886</v>
       </c>
       <c r="I11" s="11">
-        <v>916227</v>
-      </c>
-      <c r="J11" s="11">
-        <v>948886</v>
-      </c>
-      <c r="K11" s="11">
         <v>998327</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="L11" s="11" t="s">
         <v>57</v>
@@ -1619,25 +1619,25 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>2001000</v>
+        <v>1359900</v>
       </c>
       <c r="F12" s="13">
-        <v>1793750</v>
+        <v>1661540</v>
       </c>
       <c r="G12" s="13">
-        <v>1359900</v>
+        <v>1805950</v>
       </c>
       <c r="H12" s="13">
-        <v>1661540</v>
+        <v>1951200</v>
       </c>
       <c r="I12" s="13">
-        <v>1805950</v>
-      </c>
-      <c r="J12" s="13">
-        <v>1951200</v>
-      </c>
-      <c r="K12" s="13">
         <v>1244675</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="L12" s="13" t="s">
         <v>57</v>
@@ -1778,25 +1778,25 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>5946299</v>
+        <v>7157324</v>
       </c>
       <c r="F13" s="11">
-        <v>5682196</v>
+        <v>5875042</v>
       </c>
       <c r="G13" s="11">
-        <v>7157324</v>
+        <v>7295449</v>
       </c>
       <c r="H13" s="11">
-        <v>5875042</v>
+        <v>8076108</v>
       </c>
       <c r="I13" s="11">
-        <v>7295449</v>
-      </c>
-      <c r="J13" s="11">
-        <v>8076108</v>
-      </c>
-      <c r="K13" s="11">
         <v>9463127</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="L13" s="11" t="s">
         <v>57</v>
@@ -1951,140 +1951,140 @@
       <c r="I14" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J14" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="K14" s="13" t="s">
-        <v>57</v>
+      <c r="J14" s="13">
+        <v>640716</v>
+      </c>
+      <c r="K14" s="13">
+        <v>1068634</v>
       </c>
       <c r="L14" s="13">
-        <v>640716</v>
+        <v>1031945</v>
       </c>
       <c r="M14" s="13">
-        <v>1068634</v>
+        <v>772991</v>
       </c>
       <c r="N14" s="13">
-        <v>1031945</v>
+        <v>1853182</v>
       </c>
       <c r="O14" s="13">
-        <v>772991</v>
+        <v>1415579</v>
       </c>
       <c r="P14" s="13">
-        <v>1853182</v>
+        <v>1126567</v>
       </c>
       <c r="Q14" s="13">
-        <v>1415579</v>
+        <v>1306646</v>
       </c>
       <c r="R14" s="13">
-        <v>1126567</v>
+        <v>2793772</v>
       </c>
       <c r="S14" s="13">
-        <v>1306646</v>
+        <v>1477239</v>
       </c>
       <c r="T14" s="13">
-        <v>2793772</v>
+        <v>1685164</v>
       </c>
       <c r="U14" s="13">
-        <v>1477239</v>
+        <v>969197</v>
       </c>
       <c r="V14" s="13">
-        <v>1685164</v>
+        <v>1054950</v>
       </c>
       <c r="W14" s="13">
-        <v>969197</v>
+        <v>1826341</v>
       </c>
       <c r="X14" s="13">
-        <v>1054950</v>
+        <v>1531182</v>
       </c>
       <c r="Y14" s="13">
-        <v>1826341</v>
+        <v>1463070</v>
       </c>
       <c r="Z14" s="13">
-        <v>1531182</v>
+        <v>48349</v>
       </c>
       <c r="AA14" s="13">
-        <v>1463070</v>
+        <v>1255976</v>
       </c>
       <c r="AB14" s="13">
-        <v>48349</v>
+        <v>1213079</v>
       </c>
       <c r="AC14" s="13">
-        <v>1255976</v>
+        <v>1661700</v>
       </c>
       <c r="AD14" s="13">
-        <v>1213079</v>
+        <v>671977</v>
       </c>
       <c r="AE14" s="13">
-        <v>1661700</v>
+        <v>333642</v>
       </c>
       <c r="AF14" s="13">
-        <v>671977</v>
+        <v>201054</v>
       </c>
       <c r="AG14" s="13">
-        <v>333642</v>
+        <v>416515</v>
       </c>
       <c r="AH14" s="13">
-        <v>201054</v>
+        <v>317194</v>
       </c>
       <c r="AI14" s="13">
-        <v>416515</v>
+        <v>539249</v>
       </c>
       <c r="AJ14" s="13">
-        <v>317194</v>
+        <v>342685</v>
       </c>
       <c r="AK14" s="13">
-        <v>539249</v>
+        <v>529488</v>
       </c>
       <c r="AL14" s="13">
-        <v>342685</v>
+        <v>567716</v>
       </c>
       <c r="AM14" s="13">
-        <v>529488</v>
+        <v>578664</v>
       </c>
       <c r="AN14" s="13">
-        <v>567716</v>
+        <v>1455754</v>
       </c>
       <c r="AO14" s="13">
-        <v>578664</v>
+        <v>1382022</v>
       </c>
       <c r="AP14" s="13">
-        <v>1455754</v>
+        <v>1320219</v>
       </c>
       <c r="AQ14" s="13">
-        <v>1382022</v>
+        <v>2008405</v>
       </c>
       <c r="AR14" s="13">
-        <v>1320219</v>
+        <v>1484290</v>
       </c>
       <c r="AS14" s="13">
-        <v>2008405</v>
+        <v>1686481</v>
       </c>
       <c r="AT14" s="13">
-        <v>1484290</v>
+        <v>1214319</v>
       </c>
       <c r="AU14" s="13">
-        <v>1686481</v>
+        <v>1763657</v>
       </c>
       <c r="AV14" s="13">
-        <v>1214319</v>
+        <v>1800271</v>
       </c>
       <c r="AW14" s="13">
-        <v>1763657</v>
+        <v>1195927</v>
       </c>
       <c r="AX14" s="13">
-        <v>1800271</v>
+        <v>976071</v>
       </c>
       <c r="AY14" s="13">
-        <v>1195927</v>
+        <v>670061</v>
       </c>
       <c r="AZ14" s="13">
-        <v>976071</v>
+        <v>509558</v>
       </c>
       <c r="BA14" s="13">
-        <v>670061</v>
+        <v>1110352</v>
       </c>
       <c r="BB14" s="13">
-        <v>509558</v>
+        <v>1305045</v>
       </c>
     </row>
     <row r="15" spans="2:54" x14ac:dyDescent="0.3">
@@ -2116,50 +2116,50 @@
       <c r="K15" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="L15" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="M15" s="11" t="s">
-        <v>57</v>
+      <c r="L15" s="11">
+        <v>344389</v>
+      </c>
+      <c r="M15" s="11">
+        <v>0</v>
       </c>
       <c r="N15" s="11">
-        <v>344389</v>
+        <v>194848</v>
       </c>
       <c r="O15" s="11">
+        <v>588336</v>
+      </c>
+      <c r="P15" s="11">
+        <v>951431</v>
+      </c>
+      <c r="Q15" s="11">
+        <v>175200</v>
+      </c>
+      <c r="R15" s="11">
+        <v>952288</v>
+      </c>
+      <c r="S15" s="11">
+        <v>495047</v>
+      </c>
+      <c r="T15" s="11">
+        <v>332510</v>
+      </c>
+      <c r="U15" s="11">
+        <v>496784</v>
+      </c>
+      <c r="V15" s="11">
+        <v>467424</v>
+      </c>
+      <c r="W15" s="11">
+        <v>733425</v>
+      </c>
+      <c r="X15" s="11">
         <v>0</v>
       </c>
-      <c r="P15" s="11">
-        <v>194848</v>
-      </c>
-      <c r="Q15" s="11">
-        <v>588336</v>
-      </c>
-      <c r="R15" s="11">
-        <v>951431</v>
-      </c>
-      <c r="S15" s="11">
-        <v>175200</v>
-      </c>
-      <c r="T15" s="11">
-        <v>952288</v>
-      </c>
-      <c r="U15" s="11">
-        <v>495047</v>
-      </c>
-      <c r="V15" s="11">
-        <v>332510</v>
-      </c>
-      <c r="W15" s="11">
-        <v>496784</v>
-      </c>
-      <c r="X15" s="11">
-        <v>467424</v>
-      </c>
-      <c r="Y15" s="11">
-        <v>733425</v>
-      </c>
-      <c r="Z15" s="11">
-        <v>0</v>
+      <c r="Y15" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z15" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AA15" s="11" t="s">
         <v>57</v>
@@ -2258,22 +2258,22 @@
         <v>0</v>
       </c>
       <c r="F16" s="13">
-        <v>0</v>
+        <v>159474</v>
       </c>
       <c r="G16" s="13">
         <v>0</v>
       </c>
       <c r="H16" s="13">
-        <v>159474</v>
+        <v>0</v>
       </c>
       <c r="I16" s="13">
-        <v>0</v>
-      </c>
-      <c r="J16" s="13">
-        <v>0</v>
-      </c>
-      <c r="K16" s="13">
         <v>488338</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="L16" s="13" t="s">
         <v>57</v>
@@ -2428,140 +2428,140 @@
       <c r="I17" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="J17" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="K17" s="11" t="s">
-        <v>57</v>
+      <c r="J17" s="11">
+        <v>19938296</v>
+      </c>
+      <c r="K17" s="11">
+        <v>93245376</v>
       </c>
       <c r="L17" s="11">
-        <v>19938296</v>
+        <v>80760637</v>
       </c>
       <c r="M17" s="11">
-        <v>93245376</v>
+        <v>107296940</v>
       </c>
       <c r="N17" s="11">
-        <v>80760637</v>
+        <v>98721110</v>
       </c>
       <c r="O17" s="11">
-        <v>107296940</v>
+        <v>84026985</v>
       </c>
       <c r="P17" s="11">
-        <v>98721110</v>
+        <v>99049313</v>
       </c>
       <c r="Q17" s="11">
-        <v>84026985</v>
+        <v>84372466</v>
       </c>
       <c r="R17" s="11">
-        <v>99049313</v>
+        <v>93802101</v>
       </c>
       <c r="S17" s="11">
-        <v>84372466</v>
+        <v>94406140</v>
       </c>
       <c r="T17" s="11">
-        <v>93802101</v>
+        <v>98420101</v>
       </c>
       <c r="U17" s="11">
-        <v>94406140</v>
+        <v>86731057</v>
       </c>
       <c r="V17" s="11">
-        <v>98420101</v>
+        <v>46782779</v>
       </c>
       <c r="W17" s="11">
-        <v>86731057</v>
+        <v>97972123</v>
       </c>
       <c r="X17" s="11">
-        <v>46782779</v>
+        <v>93038683</v>
       </c>
       <c r="Y17" s="11">
-        <v>97972123</v>
+        <v>104910270</v>
       </c>
       <c r="Z17" s="11">
-        <v>93038683</v>
+        <v>104197689</v>
       </c>
       <c r="AA17" s="11">
-        <v>104910270</v>
+        <v>96051606</v>
       </c>
       <c r="AB17" s="11">
-        <v>104197689</v>
+        <v>102188975</v>
       </c>
       <c r="AC17" s="11">
-        <v>96051606</v>
+        <v>93289912</v>
       </c>
       <c r="AD17" s="11">
-        <v>102188975</v>
+        <v>90557262</v>
       </c>
       <c r="AE17" s="11">
-        <v>93289912</v>
+        <v>83522723</v>
       </c>
       <c r="AF17" s="11">
-        <v>90557262</v>
+        <v>80768024</v>
       </c>
       <c r="AG17" s="11">
-        <v>83522723</v>
+        <v>86164620</v>
       </c>
       <c r="AH17" s="11">
-        <v>80768024</v>
+        <v>46878700</v>
       </c>
       <c r="AI17" s="11">
-        <v>86164620</v>
+        <v>80291245</v>
       </c>
       <c r="AJ17" s="11">
-        <v>46878700</v>
+        <v>67680310</v>
       </c>
       <c r="AK17" s="11">
-        <v>80291245</v>
+        <v>65183323</v>
       </c>
       <c r="AL17" s="11">
-        <v>67680310</v>
+        <v>66068830</v>
       </c>
       <c r="AM17" s="11">
-        <v>65183323</v>
+        <v>80623959</v>
       </c>
       <c r="AN17" s="11">
-        <v>66068830</v>
+        <v>85255556</v>
       </c>
       <c r="AO17" s="11">
-        <v>80623959</v>
+        <v>90999923</v>
       </c>
       <c r="AP17" s="11">
-        <v>85255556</v>
+        <v>77724463</v>
       </c>
       <c r="AQ17" s="11">
-        <v>90999923</v>
+        <v>63564488</v>
       </c>
       <c r="AR17" s="11">
-        <v>77724463</v>
+        <v>71700772</v>
       </c>
       <c r="AS17" s="11">
-        <v>63564488</v>
+        <v>68511046</v>
       </c>
       <c r="AT17" s="11">
-        <v>71700772</v>
+        <v>33023836</v>
       </c>
       <c r="AU17" s="11">
-        <v>68511046</v>
+        <v>75815345</v>
       </c>
       <c r="AV17" s="11">
-        <v>33023836</v>
+        <v>72793455</v>
       </c>
       <c r="AW17" s="11">
-        <v>75815345</v>
+        <v>76651136</v>
       </c>
       <c r="AX17" s="11">
-        <v>72793455</v>
+        <v>79735871</v>
       </c>
       <c r="AY17" s="11">
-        <v>76651136</v>
+        <v>85031644</v>
       </c>
       <c r="AZ17" s="11">
-        <v>79735871</v>
+        <v>84095626</v>
       </c>
       <c r="BA17" s="11">
-        <v>85031644</v>
+        <v>88084412</v>
       </c>
       <c r="BB17" s="11">
-        <v>84095626</v>
+        <v>82860004</v>
       </c>
     </row>
     <row r="18" spans="2:54" x14ac:dyDescent="0.3">
@@ -2587,11 +2587,11 @@
       <c r="I18" s="13">
         <v>0</v>
       </c>
-      <c r="J18" s="13">
-        <v>0</v>
-      </c>
-      <c r="K18" s="13">
-        <v>0</v>
+      <c r="J18" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="L18" s="13" t="s">
         <v>57</v>
@@ -2732,25 +2732,25 @@
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>36105550</v>
+        <v>53393640</v>
       </c>
       <c r="F19" s="11">
-        <v>47220530</v>
+        <v>54033790</v>
       </c>
       <c r="G19" s="11">
-        <v>53393640</v>
+        <v>64980782</v>
       </c>
       <c r="H19" s="11">
-        <v>54033790</v>
+        <v>64431600</v>
       </c>
       <c r="I19" s="11">
-        <v>64980782</v>
-      </c>
-      <c r="J19" s="11">
-        <v>64431600</v>
-      </c>
-      <c r="K19" s="11">
         <v>66137530</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K19" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="L19" s="11" t="s">
         <v>57</v>
@@ -2891,25 +2891,25 @@
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="13">
-        <v>33457</v>
+        <v>76194</v>
       </c>
       <c r="F20" s="13">
-        <v>67487</v>
+        <v>76272</v>
       </c>
       <c r="G20" s="13">
-        <v>76194</v>
+        <v>42302</v>
       </c>
       <c r="H20" s="13">
-        <v>76272</v>
+        <v>84470</v>
       </c>
       <c r="I20" s="13">
-        <v>42302</v>
-      </c>
-      <c r="J20" s="13">
-        <v>84470</v>
-      </c>
-      <c r="K20" s="13">
         <v>76543</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="L20" s="13" t="s">
         <v>57</v>
@@ -3050,25 +3050,25 @@
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11">
-        <v>138082</v>
+        <v>150262</v>
       </c>
       <c r="F21" s="11">
-        <v>190924</v>
+        <v>220829</v>
       </c>
       <c r="G21" s="11">
-        <v>150262</v>
+        <v>201996</v>
       </c>
       <c r="H21" s="11">
-        <v>220829</v>
+        <v>0</v>
       </c>
       <c r="I21" s="11">
-        <v>201996</v>
-      </c>
-      <c r="J21" s="11">
-        <v>0</v>
-      </c>
-      <c r="K21" s="11">
         <v>31330</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K21" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="L21" s="11" t="s">
         <v>57</v>
@@ -3209,25 +3209,25 @@
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="13">
-        <v>1190137</v>
+        <v>1410143</v>
       </c>
       <c r="F22" s="13">
-        <v>1764267</v>
+        <v>1360736</v>
       </c>
       <c r="G22" s="13">
-        <v>1410143</v>
+        <v>1567001</v>
       </c>
       <c r="H22" s="13">
-        <v>1360736</v>
+        <v>1636043</v>
       </c>
       <c r="I22" s="13">
-        <v>1567001</v>
-      </c>
-      <c r="J22" s="13">
-        <v>1636043</v>
-      </c>
-      <c r="K22" s="13">
         <v>1368224</v>
+      </c>
+      <c r="J22" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K22" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="L22" s="13" t="s">
         <v>57</v>
@@ -3368,25 +3368,25 @@
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11">
-        <v>962636</v>
+        <v>1530010</v>
       </c>
       <c r="F23" s="11">
-        <v>501880</v>
+        <v>82550</v>
       </c>
       <c r="G23" s="11">
-        <v>1530010</v>
+        <v>2342792</v>
       </c>
       <c r="H23" s="11">
-        <v>82550</v>
+        <v>896980</v>
       </c>
       <c r="I23" s="11">
-        <v>2342792</v>
-      </c>
-      <c r="J23" s="11">
-        <v>896980</v>
-      </c>
-      <c r="K23" s="11">
         <v>496980</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K23" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="L23" s="11" t="s">
         <v>57</v>
@@ -3527,25 +3527,25 @@
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="13">
-        <v>1131177</v>
+        <v>1649460</v>
       </c>
       <c r="F24" s="13">
-        <v>1205244</v>
+        <v>1881432</v>
       </c>
       <c r="G24" s="13">
-        <v>1649460</v>
+        <v>1783248</v>
       </c>
       <c r="H24" s="13">
-        <v>1881432</v>
+        <v>2015840</v>
       </c>
       <c r="I24" s="13">
-        <v>1783248</v>
-      </c>
-      <c r="J24" s="13">
-        <v>2015840</v>
-      </c>
-      <c r="K24" s="13">
         <v>1493094</v>
+      </c>
+      <c r="J24" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K24" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="L24" s="13" t="s">
         <v>57</v>
@@ -3686,25 +3686,25 @@
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11">
-        <v>8968470</v>
+        <v>4370150</v>
       </c>
       <c r="F25" s="11">
-        <v>8418898</v>
+        <v>7196354</v>
       </c>
       <c r="G25" s="11">
-        <v>4370150</v>
+        <v>1748243</v>
       </c>
       <c r="H25" s="11">
-        <v>7196354</v>
+        <v>10524101</v>
       </c>
       <c r="I25" s="11">
-        <v>1748243</v>
-      </c>
-      <c r="J25" s="11">
-        <v>10524101</v>
-      </c>
-      <c r="K25" s="11">
         <v>19907678</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K25" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="L25" s="11" t="s">
         <v>57</v>
@@ -3845,25 +3845,25 @@
       </c>
       <c r="D26" s="13"/>
       <c r="E26" s="13">
-        <v>352806</v>
+        <v>280967</v>
       </c>
       <c r="F26" s="13">
-        <v>272473</v>
+        <v>292335</v>
       </c>
       <c r="G26" s="13">
-        <v>280967</v>
+        <v>232133</v>
       </c>
       <c r="H26" s="13">
-        <v>292335</v>
+        <v>308236</v>
       </c>
       <c r="I26" s="13">
-        <v>232133</v>
-      </c>
-      <c r="J26" s="13">
-        <v>308236</v>
-      </c>
-      <c r="K26" s="13">
         <v>273857</v>
+      </c>
+      <c r="J26" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K26" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="L26" s="13" t="s">
         <v>57</v>
@@ -4018,11 +4018,11 @@
       <c r="I27" s="11">
         <v>0</v>
       </c>
-      <c r="J27" s="11">
-        <v>0</v>
-      </c>
-      <c r="K27" s="11">
-        <v>0</v>
+      <c r="J27" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K27" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="L27" s="11" t="s">
         <v>57</v>
@@ -4177,11 +4177,11 @@
       <c r="I28" s="13">
         <v>0</v>
       </c>
-      <c r="J28" s="13">
-        <v>0</v>
-      </c>
-      <c r="K28" s="13">
-        <v>0</v>
+      <c r="J28" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K28" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="L28" s="13" t="s">
         <v>57</v>
@@ -4322,25 +4322,25 @@
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11">
-        <v>99072</v>
+        <v>219685</v>
       </c>
       <c r="F29" s="11">
-        <v>221053</v>
+        <v>200071</v>
       </c>
       <c r="G29" s="11">
-        <v>219685</v>
+        <v>220556</v>
       </c>
       <c r="H29" s="11">
-        <v>200071</v>
+        <v>401096</v>
       </c>
       <c r="I29" s="11">
-        <v>220556</v>
-      </c>
-      <c r="J29" s="11">
-        <v>401096</v>
-      </c>
-      <c r="K29" s="11">
         <v>84019</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K29" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="L29" s="11" t="s">
         <v>57</v>
@@ -4495,140 +4495,140 @@
       <c r="I30" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J30" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="K30" s="13" t="s">
-        <v>57</v>
+      <c r="J30" s="13">
+        <v>6317116</v>
+      </c>
+      <c r="K30" s="13">
+        <v>12238384</v>
       </c>
       <c r="L30" s="13">
-        <v>6317116</v>
+        <v>9759419</v>
       </c>
       <c r="M30" s="13">
-        <v>12238384</v>
+        <v>10731310</v>
       </c>
       <c r="N30" s="13">
-        <v>9759419</v>
+        <v>11733550</v>
       </c>
       <c r="O30" s="13">
-        <v>10731310</v>
+        <v>11029457</v>
       </c>
       <c r="P30" s="13">
-        <v>11733550</v>
+        <v>11327600</v>
       </c>
       <c r="Q30" s="13">
-        <v>11029457</v>
+        <v>10557982</v>
       </c>
       <c r="R30" s="13">
-        <v>11327600</v>
+        <v>11038502</v>
       </c>
       <c r="S30" s="13">
-        <v>10557982</v>
+        <v>11195690</v>
       </c>
       <c r="T30" s="13">
-        <v>11038502</v>
+        <v>15815469</v>
       </c>
       <c r="U30" s="13">
-        <v>11195690</v>
+        <v>10907274</v>
       </c>
       <c r="V30" s="13">
-        <v>15815469</v>
+        <v>7694227</v>
       </c>
       <c r="W30" s="13">
-        <v>10907274</v>
+        <v>14313567</v>
       </c>
       <c r="X30" s="13">
-        <v>7694227</v>
+        <v>13336673</v>
       </c>
       <c r="Y30" s="13">
-        <v>14313567</v>
+        <v>13370821</v>
       </c>
       <c r="Z30" s="13">
-        <v>13336673</v>
+        <v>11709648</v>
       </c>
       <c r="AA30" s="13">
-        <v>13370821</v>
+        <v>13639675</v>
       </c>
       <c r="AB30" s="13">
-        <v>11709648</v>
+        <v>12390576</v>
       </c>
       <c r="AC30" s="13">
-        <v>13639675</v>
+        <v>11844518</v>
       </c>
       <c r="AD30" s="13">
-        <v>12390576</v>
+        <v>14322973</v>
       </c>
       <c r="AE30" s="13">
-        <v>11844518</v>
+        <v>12652859</v>
       </c>
       <c r="AF30" s="13">
-        <v>14322973</v>
+        <v>13670884</v>
       </c>
       <c r="AG30" s="13">
-        <v>12652859</v>
+        <v>12347667</v>
       </c>
       <c r="AH30" s="13">
-        <v>13670884</v>
+        <v>7963607</v>
       </c>
       <c r="AI30" s="13">
-        <v>12347667</v>
+        <v>12384325</v>
       </c>
       <c r="AJ30" s="13">
-        <v>7963607</v>
+        <v>13227849</v>
       </c>
       <c r="AK30" s="13">
-        <v>12384325</v>
+        <v>12524508</v>
       </c>
       <c r="AL30" s="13">
-        <v>13227849</v>
+        <v>12514670</v>
       </c>
       <c r="AM30" s="13">
-        <v>12524508</v>
+        <v>13206109</v>
       </c>
       <c r="AN30" s="13">
-        <v>12514670</v>
+        <v>14356210</v>
       </c>
       <c r="AO30" s="13">
-        <v>13206109</v>
+        <v>14996510</v>
       </c>
       <c r="AP30" s="13">
-        <v>14356210</v>
+        <v>14432572</v>
       </c>
       <c r="AQ30" s="13">
-        <v>14996510</v>
+        <v>13841913</v>
       </c>
       <c r="AR30" s="13">
-        <v>14432572</v>
+        <v>12478300</v>
       </c>
       <c r="AS30" s="13">
-        <v>13841913</v>
+        <v>11728916</v>
       </c>
       <c r="AT30" s="13">
-        <v>12478300</v>
+        <v>7848151</v>
       </c>
       <c r="AU30" s="13">
-        <v>11728916</v>
+        <v>11202335</v>
       </c>
       <c r="AV30" s="13">
-        <v>7848151</v>
+        <v>12721308</v>
       </c>
       <c r="AW30" s="13">
-        <v>11202335</v>
+        <v>13954153</v>
       </c>
       <c r="AX30" s="13">
-        <v>12721308</v>
+        <v>17471173</v>
       </c>
       <c r="AY30" s="13">
-        <v>13954153</v>
+        <v>12582761</v>
       </c>
       <c r="AZ30" s="13">
-        <v>17471173</v>
+        <v>13023070</v>
       </c>
       <c r="BA30" s="13">
-        <v>12582761</v>
+        <v>13669989</v>
       </c>
       <c r="BB30" s="13">
-        <v>13023070</v>
+        <v>13365405</v>
       </c>
     </row>
     <row r="31" spans="2:54" x14ac:dyDescent="0.3">
@@ -4654,140 +4654,140 @@
       <c r="I31" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="J31" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="K31" s="11" t="s">
-        <v>57</v>
+      <c r="J31" s="11">
+        <v>2523673</v>
+      </c>
+      <c r="K31" s="11">
+        <v>4501720</v>
       </c>
       <c r="L31" s="11">
-        <v>2523673</v>
+        <v>4253252</v>
       </c>
       <c r="M31" s="11">
-        <v>4501720</v>
+        <v>4308643</v>
       </c>
       <c r="N31" s="11">
-        <v>4253252</v>
+        <v>3083489</v>
       </c>
       <c r="O31" s="11">
-        <v>4308643</v>
+        <v>3465059</v>
       </c>
       <c r="P31" s="11">
-        <v>3083489</v>
+        <v>2145956</v>
       </c>
       <c r="Q31" s="11">
-        <v>3465059</v>
+        <v>5551545</v>
       </c>
       <c r="R31" s="11">
-        <v>2145956</v>
+        <v>5354057</v>
       </c>
       <c r="S31" s="11">
-        <v>5551545</v>
+        <v>3942091</v>
       </c>
       <c r="T31" s="11">
-        <v>5354057</v>
+        <v>2792162</v>
       </c>
       <c r="U31" s="11">
-        <v>3942091</v>
+        <v>4175178</v>
       </c>
       <c r="V31" s="11">
-        <v>2792162</v>
+        <v>602726</v>
       </c>
       <c r="W31" s="11">
-        <v>4175178</v>
+        <v>2732245</v>
       </c>
       <c r="X31" s="11">
-        <v>602726</v>
+        <v>6024365</v>
       </c>
       <c r="Y31" s="11">
-        <v>2732245</v>
+        <v>8333339</v>
       </c>
       <c r="Z31" s="11">
-        <v>6024365</v>
+        <v>8843594</v>
       </c>
       <c r="AA31" s="11">
-        <v>8333339</v>
+        <v>7767387</v>
       </c>
       <c r="AB31" s="11">
-        <v>8843594</v>
+        <v>7781926</v>
       </c>
       <c r="AC31" s="11">
-        <v>7767387</v>
+        <v>8711310</v>
       </c>
       <c r="AD31" s="11">
-        <v>7781926</v>
+        <v>7566414</v>
       </c>
       <c r="AE31" s="11">
-        <v>8711310</v>
+        <v>9022814</v>
       </c>
       <c r="AF31" s="11">
-        <v>7566414</v>
+        <v>7999982</v>
       </c>
       <c r="AG31" s="11">
-        <v>9022814</v>
+        <v>6491212</v>
       </c>
       <c r="AH31" s="11">
-        <v>7999982</v>
+        <v>2045460</v>
       </c>
       <c r="AI31" s="11">
-        <v>6491212</v>
+        <v>3493264</v>
       </c>
       <c r="AJ31" s="11">
-        <v>2045460</v>
+        <v>2965508</v>
       </c>
       <c r="AK31" s="11">
-        <v>3493264</v>
+        <v>2794776</v>
       </c>
       <c r="AL31" s="11">
-        <v>2965508</v>
+        <v>2915364</v>
       </c>
       <c r="AM31" s="11">
-        <v>2794776</v>
+        <v>5594052</v>
       </c>
       <c r="AN31" s="11">
-        <v>2915364</v>
+        <v>7494588</v>
       </c>
       <c r="AO31" s="11">
-        <v>5594052</v>
+        <v>6344326</v>
       </c>
       <c r="AP31" s="11">
-        <v>7494588</v>
+        <v>7042486</v>
       </c>
       <c r="AQ31" s="11">
-        <v>6344326</v>
+        <v>7807766</v>
       </c>
       <c r="AR31" s="11">
-        <v>7042486</v>
+        <v>6800187</v>
       </c>
       <c r="AS31" s="11">
-        <v>7807766</v>
+        <v>5366712</v>
       </c>
       <c r="AT31" s="11">
-        <v>6800187</v>
+        <v>5561848</v>
       </c>
       <c r="AU31" s="11">
-        <v>5366712</v>
+        <v>6511955</v>
       </c>
       <c r="AV31" s="11">
-        <v>5561848</v>
+        <v>7078623</v>
       </c>
       <c r="AW31" s="11">
-        <v>6511955</v>
+        <v>7107963</v>
       </c>
       <c r="AX31" s="11">
-        <v>7078623</v>
+        <v>6400400</v>
       </c>
       <c r="AY31" s="11">
-        <v>7107963</v>
+        <v>6879516</v>
       </c>
       <c r="AZ31" s="11">
-        <v>6400400</v>
+        <v>6425871</v>
       </c>
       <c r="BA31" s="11">
-        <v>6879516</v>
+        <v>7108659</v>
       </c>
       <c r="BB31" s="11">
-        <v>6425871</v>
+        <v>5147786</v>
       </c>
     </row>
     <row r="32" spans="2:54" x14ac:dyDescent="0.3">
@@ -4915,38 +4915,38 @@
       <c r="X33" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y33" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z33" s="11" t="s">
-        <v>57</v>
+      <c r="Y33" s="11">
+        <v>799608</v>
+      </c>
+      <c r="Z33" s="11">
+        <v>1879355</v>
       </c>
       <c r="AA33" s="11">
-        <v>799608</v>
+        <v>539024</v>
       </c>
       <c r="AB33" s="11">
-        <v>1879355</v>
+        <v>551798</v>
       </c>
       <c r="AC33" s="11">
-        <v>539024</v>
+        <v>341418</v>
       </c>
       <c r="AD33" s="11">
-        <v>551798</v>
+        <v>820763</v>
       </c>
       <c r="AE33" s="11">
-        <v>341418</v>
+        <v>707060</v>
       </c>
       <c r="AF33" s="11">
-        <v>820763</v>
+        <v>507103</v>
       </c>
       <c r="AG33" s="11">
-        <v>707060</v>
-      </c>
-      <c r="AH33" s="11">
-        <v>507103</v>
-      </c>
-      <c r="AI33" s="11">
         <v>945971</v>
+      </c>
+      <c r="AH33" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI33" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AJ33" s="11" t="s">
         <v>57</v>
@@ -5101,68 +5101,68 @@
       <c r="AG34" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AH34" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI34" s="13" t="s">
-        <v>57</v>
+      <c r="AH34" s="13">
+        <v>89222</v>
+      </c>
+      <c r="AI34" s="13">
+        <v>254964</v>
       </c>
       <c r="AJ34" s="13">
-        <v>89222</v>
+        <v>666379</v>
       </c>
       <c r="AK34" s="13">
-        <v>254964</v>
+        <v>1232473</v>
       </c>
       <c r="AL34" s="13">
-        <v>666379</v>
+        <v>1897120</v>
       </c>
       <c r="AM34" s="13">
-        <v>1232473</v>
-      </c>
-      <c r="AN34" s="13">
-        <v>1897120</v>
+        <v>849974</v>
+      </c>
+      <c r="AN34" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AO34" s="13">
-        <v>849974</v>
-      </c>
-      <c r="AP34" s="13" t="s">
-        <v>57</v>
+        <v>522027</v>
+      </c>
+      <c r="AP34" s="13">
+        <v>1325855</v>
       </c>
       <c r="AQ34" s="13">
-        <v>522027</v>
+        <v>3175929</v>
       </c>
       <c r="AR34" s="13">
-        <v>1325855</v>
+        <v>1978891</v>
       </c>
       <c r="AS34" s="13">
-        <v>3175929</v>
+        <v>748266</v>
       </c>
       <c r="AT34" s="13">
-        <v>1978891</v>
+        <v>783428</v>
       </c>
       <c r="AU34" s="13">
-        <v>748266</v>
+        <v>854958</v>
       </c>
       <c r="AV34" s="13">
-        <v>783428</v>
+        <v>457734</v>
       </c>
       <c r="AW34" s="13">
-        <v>854958</v>
+        <v>185615</v>
       </c>
       <c r="AX34" s="13">
-        <v>457734</v>
+        <v>2410875</v>
       </c>
       <c r="AY34" s="13">
-        <v>185615</v>
+        <v>847593</v>
       </c>
       <c r="AZ34" s="13">
-        <v>2410875</v>
+        <v>3455788</v>
       </c>
       <c r="BA34" s="13">
-        <v>847593</v>
+        <v>1383392</v>
       </c>
       <c r="BB34" s="13">
-        <v>3455788</v>
+        <v>875164</v>
       </c>
     </row>
     <row r="35" spans="2:54" x14ac:dyDescent="0.3">
@@ -5231,11 +5231,11 @@
       <c r="X35" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="Y35" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z35" s="15" t="s">
-        <v>57</v>
+      <c r="Y35" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="15">
+        <v>0</v>
       </c>
       <c r="AA35" s="15">
         <v>0</v>
@@ -5329,154 +5329,154 @@
       <c r="C36" s="17"/>
       <c r="D36" s="17"/>
       <c r="E36" s="17">
-        <v>57727671</v>
+        <v>72578330</v>
       </c>
       <c r="F36" s="17">
-        <v>68288877</v>
+        <v>74193714</v>
       </c>
       <c r="G36" s="17">
-        <v>72578330</v>
+        <v>83136679</v>
       </c>
       <c r="H36" s="17">
-        <v>74193714</v>
+        <v>91274560</v>
       </c>
       <c r="I36" s="17">
-        <v>83136679</v>
+        <v>102063722</v>
       </c>
       <c r="J36" s="17">
-        <v>91274560</v>
+        <v>29419801</v>
       </c>
       <c r="K36" s="17">
-        <v>102063722</v>
+        <v>111054114</v>
       </c>
       <c r="L36" s="17">
-        <v>29419801</v>
+        <v>96149642</v>
       </c>
       <c r="M36" s="17">
-        <v>111054114</v>
+        <v>123109884</v>
       </c>
       <c r="N36" s="17">
-        <v>96149642</v>
+        <v>115586179</v>
       </c>
       <c r="O36" s="17">
-        <v>123109884</v>
+        <v>100525416</v>
       </c>
       <c r="P36" s="17">
-        <v>115586179</v>
+        <v>114600867</v>
       </c>
       <c r="Q36" s="17">
-        <v>100525416</v>
+        <v>101963839</v>
       </c>
       <c r="R36" s="17">
-        <v>114600867</v>
+        <v>113940720</v>
       </c>
       <c r="S36" s="17">
-        <v>101963839</v>
+        <v>111516207</v>
       </c>
       <c r="T36" s="17">
-        <v>113940720</v>
+        <v>119045406</v>
       </c>
       <c r="U36" s="17">
-        <v>111516207</v>
+        <v>103279490</v>
       </c>
       <c r="V36" s="17">
-        <v>119045406</v>
+        <v>56602106</v>
       </c>
       <c r="W36" s="17">
-        <v>103279490</v>
+        <v>117577701</v>
       </c>
       <c r="X36" s="17">
-        <v>56602106</v>
+        <v>113930903</v>
       </c>
       <c r="Y36" s="17">
-        <v>117577701</v>
+        <v>128877108</v>
       </c>
       <c r="Z36" s="17">
-        <v>113930903</v>
+        <v>126678635</v>
       </c>
       <c r="AA36" s="17">
-        <v>128877108</v>
+        <v>119253668</v>
       </c>
       <c r="AB36" s="17">
-        <v>126678635</v>
+        <v>124126354</v>
       </c>
       <c r="AC36" s="17">
-        <v>119253668</v>
+        <v>115848858</v>
       </c>
       <c r="AD36" s="17">
-        <v>124126354</v>
+        <v>113939389</v>
       </c>
       <c r="AE36" s="17">
-        <v>115848858</v>
+        <v>106239098</v>
       </c>
       <c r="AF36" s="17">
-        <v>113939389</v>
+        <v>103147047</v>
       </c>
       <c r="AG36" s="17">
-        <v>106239098</v>
+        <v>106365985</v>
       </c>
       <c r="AH36" s="17">
-        <v>103147047</v>
+        <v>57294183</v>
       </c>
       <c r="AI36" s="17">
-        <v>106365985</v>
+        <v>96963047</v>
       </c>
       <c r="AJ36" s="17">
-        <v>57294183</v>
+        <v>84882731</v>
       </c>
       <c r="AK36" s="17">
-        <v>96963047</v>
+        <v>82264568</v>
       </c>
       <c r="AL36" s="17">
-        <v>84882731</v>
+        <v>83963700</v>
       </c>
       <c r="AM36" s="17">
-        <v>82264568</v>
+        <v>100852758</v>
       </c>
       <c r="AN36" s="17">
-        <v>83963700</v>
+        <v>108562108</v>
       </c>
       <c r="AO36" s="17">
-        <v>100852758</v>
+        <v>114244808</v>
       </c>
       <c r="AP36" s="17">
-        <v>108562108</v>
+        <v>101845595</v>
       </c>
       <c r="AQ36" s="17">
-        <v>114244808</v>
+        <v>90398501</v>
       </c>
       <c r="AR36" s="17">
-        <v>101845595</v>
+        <v>94442440</v>
       </c>
       <c r="AS36" s="17">
-        <v>90398501</v>
+        <v>88041421</v>
       </c>
       <c r="AT36" s="17">
-        <v>94442440</v>
+        <v>48431582</v>
       </c>
       <c r="AU36" s="17">
-        <v>88041421</v>
+        <v>96148250</v>
       </c>
       <c r="AV36" s="17">
-        <v>48431582</v>
+        <v>94851391</v>
       </c>
       <c r="AW36" s="17">
-        <v>96148250</v>
+        <v>99094794</v>
       </c>
       <c r="AX36" s="17">
-        <v>94851391</v>
+        <v>106994390</v>
       </c>
       <c r="AY36" s="17">
-        <v>99094794</v>
+        <v>106011575</v>
       </c>
       <c r="AZ36" s="17">
-        <v>106994390</v>
+        <v>107509913</v>
       </c>
       <c r="BA36" s="17">
-        <v>106011575</v>
+        <v>111356804</v>
       </c>
       <c r="BB36" s="17">
-        <v>107509913</v>
+        <v>103553404</v>
       </c>
     </row>
     <row r="37" spans="2:54" x14ac:dyDescent="0.3">
@@ -5922,25 +5922,25 @@
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11">
-        <v>1320207</v>
+        <v>796799</v>
       </c>
       <c r="F43" s="11">
-        <v>1099101</v>
+        <v>1033094</v>
       </c>
       <c r="G43" s="11">
-        <v>796799</v>
+        <v>931292</v>
       </c>
       <c r="H43" s="11">
-        <v>1033094</v>
+        <v>638759</v>
       </c>
       <c r="I43" s="11">
-        <v>931292</v>
-      </c>
-      <c r="J43" s="11">
-        <v>638759</v>
-      </c>
-      <c r="K43" s="11">
         <v>141349</v>
+      </c>
+      <c r="J43" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K43" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="L43" s="11" t="s">
         <v>57</v>
@@ -6081,25 +6081,25 @@
       </c>
       <c r="D44" s="13"/>
       <c r="E44" s="13">
-        <v>1644150</v>
+        <v>1432700</v>
       </c>
       <c r="F44" s="13">
-        <v>1290900</v>
+        <v>1364300</v>
       </c>
       <c r="G44" s="13">
-        <v>1432700</v>
+        <v>1154540</v>
       </c>
       <c r="H44" s="13">
-        <v>1364300</v>
+        <v>2023100</v>
       </c>
       <c r="I44" s="13">
-        <v>1154540</v>
-      </c>
-      <c r="J44" s="13">
-        <v>2023100</v>
-      </c>
-      <c r="K44" s="13">
         <v>1662150</v>
+      </c>
+      <c r="J44" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K44" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="L44" s="13" t="s">
         <v>57</v>
@@ -6240,25 +6240,25 @@
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11">
-        <v>5893375</v>
+        <v>5390606</v>
       </c>
       <c r="F45" s="11">
-        <v>5987927</v>
+        <v>6212096</v>
       </c>
       <c r="G45" s="11">
-        <v>5390606</v>
+        <v>4646422</v>
       </c>
       <c r="H45" s="11">
-        <v>6212096</v>
+        <v>4623673</v>
       </c>
       <c r="I45" s="11">
-        <v>4646422</v>
-      </c>
-      <c r="J45" s="11">
-        <v>4623673</v>
-      </c>
-      <c r="K45" s="11">
         <v>1356561</v>
+      </c>
+      <c r="J45" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K45" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="L45" s="11" t="s">
         <v>57</v>
@@ -6413,140 +6413,140 @@
       <c r="I46" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J46" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="K46" s="13" t="s">
-        <v>57</v>
+      <c r="J46" s="13">
+        <v>1135705</v>
+      </c>
+      <c r="K46" s="13">
+        <v>1106105</v>
       </c>
       <c r="L46" s="13">
-        <v>1135705</v>
+        <v>1211956</v>
       </c>
       <c r="M46" s="13">
-        <v>1106105</v>
+        <v>725235</v>
       </c>
       <c r="N46" s="13">
-        <v>1211956</v>
+        <v>1325629</v>
       </c>
       <c r="O46" s="13">
-        <v>725235</v>
+        <v>1258690</v>
       </c>
       <c r="P46" s="13">
-        <v>1325629</v>
+        <v>340200</v>
       </c>
       <c r="Q46" s="13">
-        <v>1258690</v>
+        <v>3248112</v>
       </c>
       <c r="R46" s="13">
-        <v>340200</v>
+        <v>1807329</v>
       </c>
       <c r="S46" s="13">
-        <v>3248112</v>
+        <v>1822094</v>
       </c>
       <c r="T46" s="13">
-        <v>1807329</v>
+        <v>1228145</v>
       </c>
       <c r="U46" s="13">
-        <v>1822094</v>
+        <v>789009</v>
       </c>
       <c r="V46" s="13">
-        <v>1228145</v>
+        <v>1577765</v>
       </c>
       <c r="W46" s="13">
-        <v>789009</v>
+        <v>1593689</v>
       </c>
       <c r="X46" s="13">
-        <v>1577765</v>
+        <v>1607020</v>
       </c>
       <c r="Y46" s="13">
-        <v>1593689</v>
+        <v>1149850</v>
       </c>
       <c r="Z46" s="13">
-        <v>1607020</v>
+        <v>995772</v>
       </c>
       <c r="AA46" s="13">
-        <v>1149850</v>
+        <v>1449389</v>
       </c>
       <c r="AB46" s="13">
-        <v>995772</v>
+        <v>1547251</v>
       </c>
       <c r="AC46" s="13">
-        <v>1449389</v>
+        <v>1714266</v>
       </c>
       <c r="AD46" s="13">
-        <v>1547251</v>
+        <v>1058662</v>
       </c>
       <c r="AE46" s="13">
-        <v>1714266</v>
+        <v>872460</v>
       </c>
       <c r="AF46" s="13">
-        <v>1058662</v>
+        <v>548094</v>
       </c>
       <c r="AG46" s="13">
-        <v>872460</v>
+        <v>321354</v>
       </c>
       <c r="AH46" s="13">
-        <v>548094</v>
+        <v>833159</v>
       </c>
       <c r="AI46" s="13">
-        <v>321354</v>
+        <v>1135427</v>
       </c>
       <c r="AJ46" s="13">
-        <v>833159</v>
+        <v>923578</v>
       </c>
       <c r="AK46" s="13">
-        <v>1135427</v>
+        <v>1092812</v>
       </c>
       <c r="AL46" s="13">
-        <v>923578</v>
+        <v>967241</v>
       </c>
       <c r="AM46" s="13">
-        <v>1092812</v>
+        <v>1726604</v>
       </c>
       <c r="AN46" s="13">
-        <v>967241</v>
+        <v>1243067</v>
       </c>
       <c r="AO46" s="13">
-        <v>1726604</v>
+        <v>1808156</v>
       </c>
       <c r="AP46" s="13">
-        <v>1243067</v>
+        <v>1991344</v>
       </c>
       <c r="AQ46" s="13">
-        <v>1808156</v>
+        <v>1560966</v>
       </c>
       <c r="AR46" s="13">
-        <v>1991344</v>
+        <v>1884139</v>
       </c>
       <c r="AS46" s="13">
-        <v>1560966</v>
+        <v>525095</v>
       </c>
       <c r="AT46" s="13">
-        <v>1884139</v>
+        <v>2021660</v>
       </c>
       <c r="AU46" s="13">
-        <v>525095</v>
+        <v>2939623</v>
       </c>
       <c r="AV46" s="13">
-        <v>2021660</v>
+        <v>2225525</v>
       </c>
       <c r="AW46" s="13">
-        <v>2939623</v>
+        <v>1867326</v>
       </c>
       <c r="AX46" s="13">
-        <v>2225525</v>
+        <v>1189093</v>
       </c>
       <c r="AY46" s="13">
-        <v>1867326</v>
+        <v>855110</v>
       </c>
       <c r="AZ46" s="13">
-        <v>1189093</v>
+        <v>559049</v>
       </c>
       <c r="BA46" s="13">
-        <v>855110</v>
+        <v>1012406</v>
       </c>
       <c r="BB46" s="13">
-        <v>559049</v>
+        <v>1073057</v>
       </c>
     </row>
     <row r="47" spans="2:54" x14ac:dyDescent="0.3">
@@ -6578,50 +6578,50 @@
       <c r="K47" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="L47" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="M47" s="11" t="s">
-        <v>57</v>
+      <c r="L47" s="11">
+        <v>344389</v>
+      </c>
+      <c r="M47" s="11">
+        <v>0</v>
       </c>
       <c r="N47" s="11">
-        <v>344389</v>
+        <v>194848</v>
       </c>
       <c r="O47" s="11">
-        <v>0</v>
+        <v>588336</v>
       </c>
       <c r="P47" s="11">
-        <v>194848</v>
+        <v>951431</v>
       </c>
       <c r="Q47" s="11">
-        <v>588336</v>
+        <v>175200</v>
       </c>
       <c r="R47" s="11">
-        <v>951431</v>
+        <v>952288</v>
       </c>
       <c r="S47" s="11">
-        <v>175200</v>
+        <v>495047</v>
       </c>
       <c r="T47" s="11">
-        <v>952288</v>
+        <v>332510</v>
       </c>
       <c r="U47" s="11">
-        <v>495047</v>
+        <v>496784</v>
       </c>
       <c r="V47" s="11">
-        <v>332510</v>
+        <v>467424</v>
       </c>
       <c r="W47" s="11">
-        <v>496784</v>
+        <v>733425</v>
       </c>
       <c r="X47" s="11">
-        <v>467424</v>
-      </c>
-      <c r="Y47" s="11">
-        <v>733425</v>
-      </c>
-      <c r="Z47" s="11">
         <v>253956</v>
+      </c>
+      <c r="Y47" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z47" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AA47" s="11" t="s">
         <v>57</v>
@@ -6720,22 +6720,22 @@
         <v>0</v>
       </c>
       <c r="F48" s="13">
-        <v>0</v>
+        <v>159474</v>
       </c>
       <c r="G48" s="13">
         <v>0</v>
       </c>
       <c r="H48" s="13">
-        <v>159474</v>
+        <v>0</v>
       </c>
       <c r="I48" s="13">
-        <v>0</v>
-      </c>
-      <c r="J48" s="13">
-        <v>0</v>
-      </c>
-      <c r="K48" s="13">
         <v>488338</v>
+      </c>
+      <c r="J48" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K48" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="L48" s="13" t="s">
         <v>57</v>
@@ -6890,140 +6890,140 @@
       <c r="I49" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="J49" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="K49" s="11" t="s">
-        <v>57</v>
+      <c r="J49" s="11">
+        <v>88628338</v>
+      </c>
+      <c r="K49" s="11">
+        <v>88223616</v>
       </c>
       <c r="L49" s="11">
-        <v>88628338</v>
+        <v>91584261</v>
       </c>
       <c r="M49" s="11">
-        <v>88223616</v>
+        <v>77487993</v>
       </c>
       <c r="N49" s="11">
-        <v>91584261</v>
+        <v>88359485</v>
       </c>
       <c r="O49" s="11">
-        <v>77487993</v>
+        <v>91070051</v>
       </c>
       <c r="P49" s="11">
-        <v>88359485</v>
+        <v>94484339</v>
       </c>
       <c r="Q49" s="11">
-        <v>91070051</v>
+        <v>116907540</v>
       </c>
       <c r="R49" s="11">
-        <v>94484339</v>
+        <v>72352429</v>
       </c>
       <c r="S49" s="11">
-        <v>116907540</v>
+        <v>96630907</v>
       </c>
       <c r="T49" s="11">
-        <v>72352429</v>
+        <v>84476275</v>
       </c>
       <c r="U49" s="11">
-        <v>96630907</v>
+        <v>28724589</v>
       </c>
       <c r="V49" s="11">
-        <v>84476275</v>
+        <v>101872756</v>
       </c>
       <c r="W49" s="11">
-        <v>28724589</v>
+        <v>120424057</v>
       </c>
       <c r="X49" s="11">
-        <v>101872756</v>
+        <v>106285603</v>
       </c>
       <c r="Y49" s="11">
-        <v>120424057</v>
+        <v>105702500</v>
       </c>
       <c r="Z49" s="11">
-        <v>106285603</v>
+        <v>110022225</v>
       </c>
       <c r="AA49" s="11">
-        <v>105702500</v>
+        <v>89632100</v>
       </c>
       <c r="AB49" s="11">
-        <v>110022225</v>
+        <v>91255663</v>
       </c>
       <c r="AC49" s="11">
-        <v>89632100</v>
+        <v>91106475</v>
       </c>
       <c r="AD49" s="11">
-        <v>91255663</v>
+        <v>72434090</v>
       </c>
       <c r="AE49" s="11">
-        <v>91106475</v>
+        <v>69621569</v>
       </c>
       <c r="AF49" s="11">
-        <v>72434090</v>
+        <v>69521338</v>
       </c>
       <c r="AG49" s="11">
-        <v>69621569</v>
+        <v>15646612</v>
       </c>
       <c r="AH49" s="11">
-        <v>69521338</v>
+        <v>74710418</v>
       </c>
       <c r="AI49" s="11">
-        <v>15646612</v>
+        <v>66939112</v>
       </c>
       <c r="AJ49" s="11">
-        <v>74710418</v>
+        <v>47213754</v>
       </c>
       <c r="AK49" s="11">
-        <v>66939112</v>
+        <v>65735626</v>
       </c>
       <c r="AL49" s="11">
-        <v>47213754</v>
+        <v>79313020</v>
       </c>
       <c r="AM49" s="11">
-        <v>65735626</v>
+        <v>91134372</v>
       </c>
       <c r="AN49" s="11">
-        <v>79313020</v>
+        <v>115369648</v>
       </c>
       <c r="AO49" s="11">
-        <v>91134372</v>
+        <v>106308184</v>
       </c>
       <c r="AP49" s="11">
-        <v>115369648</v>
+        <v>131847277</v>
       </c>
       <c r="AQ49" s="11">
-        <v>106308184</v>
+        <v>90698024</v>
       </c>
       <c r="AR49" s="11">
-        <v>131847277</v>
+        <v>48754995</v>
       </c>
       <c r="AS49" s="11">
-        <v>90698024</v>
+        <v>16285301</v>
       </c>
       <c r="AT49" s="11">
-        <v>48754995</v>
+        <v>76954001</v>
       </c>
       <c r="AU49" s="11">
-        <v>16285301</v>
+        <v>104714257</v>
       </c>
       <c r="AV49" s="11">
-        <v>76954001</v>
+        <v>74573196</v>
       </c>
       <c r="AW49" s="11">
-        <v>104714257</v>
+        <v>91958141</v>
       </c>
       <c r="AX49" s="11">
-        <v>74573196</v>
+        <v>65965253</v>
       </c>
       <c r="AY49" s="11">
-        <v>91958141</v>
+        <v>85172184</v>
       </c>
       <c r="AZ49" s="11">
-        <v>65965253</v>
+        <v>76924175</v>
       </c>
       <c r="BA49" s="11">
-        <v>85172184</v>
+        <v>99076094</v>
       </c>
       <c r="BB49" s="11">
-        <v>76924175</v>
+        <v>89451700</v>
       </c>
     </row>
     <row r="50" spans="2:54" x14ac:dyDescent="0.3">
@@ -7035,25 +7035,25 @@
       </c>
       <c r="D50" s="13"/>
       <c r="E50" s="13">
-        <v>461580</v>
+        <v>249120</v>
       </c>
       <c r="F50" s="13">
         <v>0</v>
       </c>
       <c r="G50" s="13">
-        <v>249120</v>
+        <v>19700</v>
       </c>
       <c r="H50" s="13">
+        <v>340920</v>
+      </c>
+      <c r="I50" s="13">
         <v>0</v>
       </c>
-      <c r="I50" s="13">
-        <v>19700</v>
-      </c>
-      <c r="J50" s="13">
-        <v>340920</v>
-      </c>
-      <c r="K50" s="13">
-        <v>0</v>
+      <c r="J50" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K50" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="L50" s="13" t="s">
         <v>57</v>
@@ -7194,25 +7194,25 @@
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11">
-        <v>28533285</v>
+        <v>44147260</v>
       </c>
       <c r="F51" s="11">
-        <v>48602080</v>
+        <v>52372990</v>
       </c>
       <c r="G51" s="11">
-        <v>44147260</v>
+        <v>49653257</v>
       </c>
       <c r="H51" s="11">
-        <v>52372990</v>
+        <v>45155898</v>
       </c>
       <c r="I51" s="11">
-        <v>49653257</v>
-      </c>
-      <c r="J51" s="11">
-        <v>45155898</v>
-      </c>
-      <c r="K51" s="11">
         <v>17137122</v>
+      </c>
+      <c r="J51" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K51" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="L51" s="11" t="s">
         <v>57</v>
@@ -7353,25 +7353,25 @@
       </c>
       <c r="D52" s="13"/>
       <c r="E52" s="13">
-        <v>59203</v>
+        <v>0</v>
       </c>
       <c r="F52" s="13">
-        <v>92476</v>
+        <v>9868</v>
       </c>
       <c r="G52" s="13">
-        <v>0</v>
+        <v>56808</v>
       </c>
       <c r="H52" s="13">
-        <v>9868</v>
+        <v>49699</v>
       </c>
       <c r="I52" s="13">
-        <v>56808</v>
-      </c>
-      <c r="J52" s="13">
-        <v>49699</v>
-      </c>
-      <c r="K52" s="13">
         <v>19995</v>
+      </c>
+      <c r="J52" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K52" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="L52" s="13" t="s">
         <v>57</v>
@@ -7512,25 +7512,25 @@
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="11">
-        <v>33555</v>
+        <v>286075</v>
       </c>
       <c r="F53" s="11">
-        <v>86961</v>
+        <v>233095</v>
       </c>
       <c r="G53" s="11">
-        <v>286075</v>
+        <v>126347</v>
       </c>
       <c r="H53" s="11">
-        <v>233095</v>
+        <v>28278</v>
       </c>
       <c r="I53" s="11">
-        <v>126347</v>
-      </c>
-      <c r="J53" s="11">
-        <v>28278</v>
-      </c>
-      <c r="K53" s="11">
         <v>0</v>
+      </c>
+      <c r="J53" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K53" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="L53" s="11" t="s">
         <v>57</v>
@@ -7671,25 +7671,25 @@
       </c>
       <c r="D54" s="13"/>
       <c r="E54" s="13">
-        <v>811755</v>
+        <v>1175299</v>
       </c>
       <c r="F54" s="13">
-        <v>1575294</v>
+        <v>1401395</v>
       </c>
       <c r="G54" s="13">
-        <v>1175299</v>
+        <v>1004486</v>
       </c>
       <c r="H54" s="13">
-        <v>1401395</v>
+        <v>1098511</v>
       </c>
       <c r="I54" s="13">
-        <v>1004486</v>
-      </c>
-      <c r="J54" s="13">
-        <v>1098511</v>
-      </c>
-      <c r="K54" s="13">
         <v>336438</v>
+      </c>
+      <c r="J54" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K54" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="L54" s="13" t="s">
         <v>57</v>
@@ -7830,25 +7830,25 @@
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11">
-        <v>470010</v>
+        <v>1475556</v>
       </c>
       <c r="F55" s="11">
-        <v>737820</v>
+        <v>917000</v>
       </c>
       <c r="G55" s="11">
-        <v>1475556</v>
+        <v>523712</v>
       </c>
       <c r="H55" s="11">
-        <v>917000</v>
+        <v>1846910</v>
       </c>
       <c r="I55" s="11">
-        <v>523712</v>
-      </c>
-      <c r="J55" s="11">
-        <v>1846910</v>
-      </c>
-      <c r="K55" s="11">
         <v>199620</v>
+      </c>
+      <c r="J55" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K55" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="L55" s="11" t="s">
         <v>57</v>
@@ -7989,25 +7989,25 @@
       </c>
       <c r="D56" s="13"/>
       <c r="E56" s="13">
-        <v>907908</v>
+        <v>1479086</v>
       </c>
       <c r="F56" s="13">
-        <v>952362</v>
+        <v>1377752</v>
       </c>
       <c r="G56" s="13">
-        <v>1479086</v>
+        <v>1733730</v>
       </c>
       <c r="H56" s="13">
-        <v>1377752</v>
+        <v>1431378</v>
       </c>
       <c r="I56" s="13">
-        <v>1733730</v>
-      </c>
-      <c r="J56" s="13">
-        <v>1431378</v>
-      </c>
-      <c r="K56" s="13">
         <v>1218214</v>
+      </c>
+      <c r="J56" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K56" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="L56" s="13" t="s">
         <v>57</v>
@@ -8148,25 +8148,25 @@
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11">
-        <v>7346796</v>
+        <v>4807628</v>
       </c>
       <c r="F57" s="11">
-        <v>8940342</v>
+        <v>5474352</v>
       </c>
       <c r="G57" s="11">
-        <v>4807628</v>
+        <v>9012273</v>
       </c>
       <c r="H57" s="11">
-        <v>5474352</v>
+        <v>3834145</v>
       </c>
       <c r="I57" s="11">
-        <v>9012273</v>
-      </c>
-      <c r="J57" s="11">
-        <v>3834145</v>
-      </c>
-      <c r="K57" s="11">
         <v>4435755</v>
+      </c>
+      <c r="J57" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K57" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="L57" s="11" t="s">
         <v>57</v>
@@ -8307,25 +8307,25 @@
       </c>
       <c r="D58" s="13"/>
       <c r="E58" s="13">
-        <v>237530</v>
+        <v>272962</v>
       </c>
       <c r="F58" s="13">
-        <v>352284</v>
+        <v>187684</v>
       </c>
       <c r="G58" s="13">
-        <v>272962</v>
+        <v>155770</v>
       </c>
       <c r="H58" s="13">
-        <v>187684</v>
+        <v>74910</v>
       </c>
       <c r="I58" s="13">
-        <v>155770</v>
-      </c>
-      <c r="J58" s="13">
-        <v>74910</v>
-      </c>
-      <c r="K58" s="13">
         <v>0</v>
+      </c>
+      <c r="J58" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K58" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="L58" s="13" t="s">
         <v>57</v>
@@ -8466,25 +8466,25 @@
       </c>
       <c r="D59" s="11"/>
       <c r="E59" s="11">
-        <v>10160</v>
+        <v>3220</v>
       </c>
       <c r="F59" s="11">
         <v>0</v>
       </c>
       <c r="G59" s="11">
-        <v>3220</v>
+        <v>60180</v>
       </c>
       <c r="H59" s="11">
         <v>0</v>
       </c>
       <c r="I59" s="11">
-        <v>60180</v>
-      </c>
-      <c r="J59" s="11">
-        <v>0</v>
-      </c>
-      <c r="K59" s="11">
         <v>5100</v>
+      </c>
+      <c r="J59" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K59" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="L59" s="11" t="s">
         <v>57</v>
@@ -8625,7 +8625,7 @@
       </c>
       <c r="D60" s="13"/>
       <c r="E60" s="13">
-        <v>24988</v>
+        <v>0</v>
       </c>
       <c r="F60" s="13">
         <v>0</v>
@@ -8639,11 +8639,11 @@
       <c r="I60" s="13">
         <v>0</v>
       </c>
-      <c r="J60" s="13">
-        <v>0</v>
-      </c>
-      <c r="K60" s="13">
-        <v>0</v>
+      <c r="J60" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K60" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="L60" s="13" t="s">
         <v>57</v>
@@ -8784,25 +8784,25 @@
       </c>
       <c r="D61" s="11"/>
       <c r="E61" s="11">
-        <v>59732</v>
+        <v>192190</v>
       </c>
       <c r="F61" s="11">
-        <v>226404</v>
+        <v>201696</v>
       </c>
       <c r="G61" s="11">
-        <v>192190</v>
+        <v>114145</v>
       </c>
       <c r="H61" s="11">
-        <v>201696</v>
+        <v>139840</v>
       </c>
       <c r="I61" s="11">
-        <v>114145</v>
-      </c>
-      <c r="J61" s="11">
-        <v>139840</v>
-      </c>
-      <c r="K61" s="11">
         <v>31958</v>
+      </c>
+      <c r="J61" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K61" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="L61" s="11" t="s">
         <v>57</v>
@@ -8957,140 +8957,140 @@
       <c r="I62" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J62" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="K62" s="13" t="s">
-        <v>57</v>
+      <c r="J62" s="13">
+        <v>11740338</v>
+      </c>
+      <c r="K62" s="13">
+        <v>11295978</v>
       </c>
       <c r="L62" s="13">
-        <v>11740338</v>
+        <v>10795850</v>
       </c>
       <c r="M62" s="13">
-        <v>11295978</v>
+        <v>12501784</v>
       </c>
       <c r="N62" s="13">
-        <v>10795850</v>
+        <v>13080024</v>
       </c>
       <c r="O62" s="13">
-        <v>12501784</v>
+        <v>9696293</v>
       </c>
       <c r="P62" s="13">
-        <v>13080024</v>
+        <v>13390179</v>
       </c>
       <c r="Q62" s="13">
-        <v>9696293</v>
+        <v>10632582</v>
       </c>
       <c r="R62" s="13">
-        <v>13390179</v>
+        <v>12178328</v>
       </c>
       <c r="S62" s="13">
-        <v>10632582</v>
+        <v>12502663</v>
       </c>
       <c r="T62" s="13">
-        <v>12178328</v>
+        <v>14035566</v>
       </c>
       <c r="U62" s="13">
-        <v>12502663</v>
+        <v>8428291</v>
       </c>
       <c r="V62" s="13">
-        <v>14035566</v>
+        <v>12042223</v>
       </c>
       <c r="W62" s="13">
-        <v>8428291</v>
+        <v>11707954</v>
       </c>
       <c r="X62" s="13">
-        <v>12042223</v>
+        <v>12069916</v>
       </c>
       <c r="Y62" s="13">
-        <v>11707954</v>
+        <v>12343704</v>
       </c>
       <c r="Z62" s="13">
-        <v>12069916</v>
+        <v>13641453</v>
       </c>
       <c r="AA62" s="13">
-        <v>12343704</v>
+        <v>8922630</v>
       </c>
       <c r="AB62" s="13">
-        <v>13641453</v>
+        <v>13269692</v>
       </c>
       <c r="AC62" s="13">
-        <v>8922630</v>
+        <v>12249185</v>
       </c>
       <c r="AD62" s="13">
-        <v>13269692</v>
+        <v>11523303</v>
       </c>
       <c r="AE62" s="13">
-        <v>12249185</v>
+        <v>8429445</v>
       </c>
       <c r="AF62" s="13">
-        <v>11523303</v>
+        <v>13218104</v>
       </c>
       <c r="AG62" s="13">
-        <v>8429445</v>
+        <v>4908388</v>
       </c>
       <c r="AH62" s="13">
-        <v>13218104</v>
+        <v>10284501</v>
       </c>
       <c r="AI62" s="13">
-        <v>4908388</v>
+        <v>15919855</v>
       </c>
       <c r="AJ62" s="13">
-        <v>10284501</v>
+        <v>13965169</v>
       </c>
       <c r="AK62" s="13">
-        <v>15919855</v>
+        <v>16134297</v>
       </c>
       <c r="AL62" s="13">
-        <v>13965169</v>
+        <v>17228757</v>
       </c>
       <c r="AM62" s="13">
-        <v>16134297</v>
+        <v>12894538</v>
       </c>
       <c r="AN62" s="13">
-        <v>17228757</v>
+        <v>17081837</v>
       </c>
       <c r="AO62" s="13">
-        <v>12894538</v>
+        <v>17267469</v>
       </c>
       <c r="AP62" s="13">
-        <v>17081837</v>
+        <v>16094830</v>
       </c>
       <c r="AQ62" s="13">
-        <v>17267469</v>
+        <v>14425240</v>
       </c>
       <c r="AR62" s="13">
-        <v>16094830</v>
+        <v>14281929</v>
       </c>
       <c r="AS62" s="13">
-        <v>14425240</v>
+        <v>5011451</v>
       </c>
       <c r="AT62" s="13">
-        <v>14281929</v>
+        <v>10885341</v>
       </c>
       <c r="AU62" s="13">
-        <v>5011451</v>
+        <v>16565908</v>
       </c>
       <c r="AV62" s="13">
-        <v>10885341</v>
+        <v>13118429</v>
       </c>
       <c r="AW62" s="13">
-        <v>16565908</v>
+        <v>12501207</v>
       </c>
       <c r="AX62" s="13">
-        <v>13118429</v>
+        <v>12947494</v>
       </c>
       <c r="AY62" s="13">
-        <v>12501207</v>
+        <v>10889677</v>
       </c>
       <c r="AZ62" s="13">
-        <v>12947494</v>
+        <v>19307595</v>
       </c>
       <c r="BA62" s="13">
-        <v>10889677</v>
+        <v>16608828</v>
       </c>
       <c r="BB62" s="13">
-        <v>19307595</v>
+        <v>11920603</v>
       </c>
     </row>
     <row r="63" spans="2:54" x14ac:dyDescent="0.3">
@@ -9116,140 +9116,140 @@
       <c r="I63" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="J63" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="K63" s="11" t="s">
-        <v>57</v>
+      <c r="J63" s="11">
+        <v>2899911</v>
+      </c>
+      <c r="K63" s="11">
+        <v>4544149</v>
       </c>
       <c r="L63" s="11">
-        <v>2899911</v>
+        <v>3812094</v>
       </c>
       <c r="M63" s="11">
-        <v>4544149</v>
+        <v>4713372</v>
       </c>
       <c r="N63" s="11">
-        <v>3812094</v>
+        <v>3916723</v>
       </c>
       <c r="O63" s="11">
-        <v>4713372</v>
+        <v>4485020</v>
       </c>
       <c r="P63" s="11">
-        <v>3916723</v>
+        <v>2792719</v>
       </c>
       <c r="Q63" s="11">
-        <v>4485020</v>
+        <v>1836885</v>
       </c>
       <c r="R63" s="11">
-        <v>2792719</v>
+        <v>3807452</v>
       </c>
       <c r="S63" s="11">
-        <v>1836885</v>
+        <v>5121624</v>
       </c>
       <c r="T63" s="11">
-        <v>3807452</v>
+        <v>4112945</v>
       </c>
       <c r="U63" s="11">
-        <v>5121624</v>
+        <v>1588490</v>
       </c>
       <c r="V63" s="11">
-        <v>4112945</v>
+        <v>5359259</v>
       </c>
       <c r="W63" s="11">
-        <v>1588490</v>
+        <v>1397038</v>
       </c>
       <c r="X63" s="11">
-        <v>5359259</v>
+        <v>3909372</v>
       </c>
       <c r="Y63" s="11">
-        <v>1397038</v>
+        <v>6121454</v>
       </c>
       <c r="Z63" s="11">
-        <v>3909372</v>
+        <v>7565337</v>
       </c>
       <c r="AA63" s="11">
-        <v>6121454</v>
+        <v>6985499</v>
       </c>
       <c r="AB63" s="11">
-        <v>7565337</v>
+        <v>7600674</v>
       </c>
       <c r="AC63" s="11">
-        <v>6985499</v>
+        <v>8552918</v>
       </c>
       <c r="AD63" s="11">
-        <v>7600674</v>
+        <v>6414569</v>
       </c>
       <c r="AE63" s="11">
-        <v>8552918</v>
+        <v>5833481</v>
       </c>
       <c r="AF63" s="11">
-        <v>6414569</v>
+        <v>7534059</v>
       </c>
       <c r="AG63" s="11">
-        <v>5833481</v>
+        <v>2054804</v>
       </c>
       <c r="AH63" s="11">
-        <v>7534059</v>
+        <v>3318248</v>
       </c>
       <c r="AI63" s="11">
-        <v>2054804</v>
+        <v>4072564</v>
       </c>
       <c r="AJ63" s="11">
-        <v>3318248</v>
+        <v>4010244</v>
       </c>
       <c r="AK63" s="11">
-        <v>4072564</v>
+        <v>5985340</v>
       </c>
       <c r="AL63" s="11">
-        <v>4010244</v>
+        <v>3973041</v>
       </c>
       <c r="AM63" s="11">
-        <v>5985340</v>
+        <v>7661587</v>
       </c>
       <c r="AN63" s="11">
-        <v>3973041</v>
+        <v>9436434</v>
       </c>
       <c r="AO63" s="11">
-        <v>7661587</v>
+        <v>10620610</v>
       </c>
       <c r="AP63" s="11">
-        <v>9436434</v>
+        <v>4869715</v>
       </c>
       <c r="AQ63" s="11">
-        <v>10620610</v>
+        <v>7038284</v>
       </c>
       <c r="AR63" s="11">
-        <v>4869715</v>
+        <v>8724002</v>
       </c>
       <c r="AS63" s="11">
-        <v>7038284</v>
+        <v>3379147</v>
       </c>
       <c r="AT63" s="11">
-        <v>8724002</v>
+        <v>5238658</v>
       </c>
       <c r="AU63" s="11">
-        <v>3379147</v>
+        <v>7513926</v>
       </c>
       <c r="AV63" s="11">
-        <v>5238658</v>
+        <v>10468801</v>
       </c>
       <c r="AW63" s="11">
-        <v>7513926</v>
+        <v>7816110</v>
       </c>
       <c r="AX63" s="11">
-        <v>10468801</v>
+        <v>3954361</v>
       </c>
       <c r="AY63" s="11">
-        <v>7816110</v>
+        <v>7369879</v>
       </c>
       <c r="AZ63" s="11">
-        <v>3954361</v>
+        <v>7609561</v>
       </c>
       <c r="BA63" s="11">
-        <v>7369879</v>
+        <v>4994872</v>
       </c>
       <c r="BB63" s="11">
-        <v>7609561</v>
+        <v>5683212</v>
       </c>
     </row>
     <row r="64" spans="2:54" x14ac:dyDescent="0.3">
@@ -9377,38 +9377,38 @@
       <c r="X65" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y65" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z65" s="11" t="s">
-        <v>57</v>
+      <c r="Y65" s="11">
+        <v>1679201</v>
+      </c>
+      <c r="Z65" s="11">
+        <v>315431</v>
       </c>
       <c r="AA65" s="11">
-        <v>1679201</v>
+        <v>986143</v>
       </c>
       <c r="AB65" s="11">
-        <v>315431</v>
+        <v>368723</v>
       </c>
       <c r="AC65" s="11">
-        <v>986143</v>
+        <v>514656</v>
       </c>
       <c r="AD65" s="11">
-        <v>368723</v>
+        <v>619470</v>
       </c>
       <c r="AE65" s="11">
-        <v>514656</v>
+        <v>822088</v>
       </c>
       <c r="AF65" s="11">
-        <v>619470</v>
+        <v>234739</v>
       </c>
       <c r="AG65" s="11">
-        <v>822088</v>
-      </c>
-      <c r="AH65" s="11">
-        <v>234739</v>
-      </c>
-      <c r="AI65" s="11">
         <v>584756</v>
+      </c>
+      <c r="AH65" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI65" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AJ65" s="11" t="s">
         <v>57</v>
@@ -9563,68 +9563,68 @@
       <c r="AG66" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AH66" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI66" s="13" t="s">
-        <v>57</v>
+      <c r="AH66" s="13">
+        <v>374101</v>
+      </c>
+      <c r="AI66" s="13">
+        <v>584737</v>
       </c>
       <c r="AJ66" s="13">
-        <v>374101</v>
+        <v>644586</v>
       </c>
       <c r="AK66" s="13">
-        <v>584737</v>
+        <v>568972</v>
       </c>
       <c r="AL66" s="13">
-        <v>644586</v>
+        <v>1405274</v>
       </c>
       <c r="AM66" s="13">
-        <v>568972</v>
+        <v>728740</v>
       </c>
       <c r="AN66" s="13">
-        <v>1405274</v>
+        <v>1242397</v>
       </c>
       <c r="AO66" s="13">
-        <v>728740</v>
+        <v>569647</v>
       </c>
       <c r="AP66" s="13">
-        <v>1242397</v>
+        <v>519360</v>
       </c>
       <c r="AQ66" s="13">
-        <v>569647</v>
+        <v>2462251</v>
       </c>
       <c r="AR66" s="13">
-        <v>519360</v>
+        <v>2608103</v>
       </c>
       <c r="AS66" s="13">
-        <v>2462251</v>
+        <v>98684</v>
       </c>
       <c r="AT66" s="13">
-        <v>2608103</v>
+        <v>148058</v>
       </c>
       <c r="AU66" s="13">
-        <v>98684</v>
+        <v>1929941</v>
       </c>
       <c r="AV66" s="13">
-        <v>148058</v>
+        <v>1199060</v>
       </c>
       <c r="AW66" s="13">
-        <v>1929941</v>
+        <v>509673</v>
       </c>
       <c r="AX66" s="13">
-        <v>1199060</v>
+        <v>626548</v>
       </c>
       <c r="AY66" s="13">
-        <v>509673</v>
+        <v>2191321</v>
       </c>
       <c r="AZ66" s="13">
-        <v>626548</v>
+        <v>2124537</v>
       </c>
       <c r="BA66" s="13">
-        <v>2191321</v>
+        <v>433844</v>
       </c>
       <c r="BB66" s="13">
-        <v>2124537</v>
+        <v>2275483</v>
       </c>
     </row>
     <row r="67" spans="2:54" x14ac:dyDescent="0.3">
@@ -9693,95 +9693,95 @@
       <c r="X67" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="Y67" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z67" s="15" t="s">
-        <v>57</v>
+      <c r="Y67" s="15">
+        <v>1679201</v>
+      </c>
+      <c r="Z67" s="15">
+        <v>315431</v>
       </c>
       <c r="AA67" s="15">
-        <v>1679201</v>
+        <v>986143</v>
       </c>
       <c r="AB67" s="15">
-        <v>315431</v>
+        <v>368723</v>
       </c>
       <c r="AC67" s="15">
-        <v>986143</v>
+        <v>514656</v>
       </c>
       <c r="AD67" s="15">
-        <v>368723</v>
+        <v>619470</v>
       </c>
       <c r="AE67" s="15">
-        <v>514656</v>
+        <v>822088</v>
       </c>
       <c r="AF67" s="15">
-        <v>619470</v>
+        <v>234739</v>
       </c>
       <c r="AG67" s="15">
-        <v>822088</v>
+        <v>584756</v>
       </c>
       <c r="AH67" s="15">
-        <v>234739</v>
+        <v>374101</v>
       </c>
       <c r="AI67" s="15">
-        <v>584756</v>
+        <v>584737</v>
       </c>
       <c r="AJ67" s="15">
-        <v>374101</v>
+        <v>644586</v>
       </c>
       <c r="AK67" s="15">
-        <v>584737</v>
+        <v>568972</v>
       </c>
       <c r="AL67" s="15">
-        <v>644586</v>
+        <v>1405274</v>
       </c>
       <c r="AM67" s="15">
-        <v>568972</v>
+        <v>728740</v>
       </c>
       <c r="AN67" s="15">
-        <v>1405274</v>
+        <v>1242397</v>
       </c>
       <c r="AO67" s="15">
-        <v>728740</v>
+        <v>569647</v>
       </c>
       <c r="AP67" s="15">
-        <v>1242397</v>
+        <v>519360</v>
       </c>
       <c r="AQ67" s="15">
-        <v>569647</v>
+        <v>2462251</v>
       </c>
       <c r="AR67" s="15">
-        <v>519360</v>
+        <v>2608103</v>
       </c>
       <c r="AS67" s="15">
-        <v>2462251</v>
+        <v>98684</v>
       </c>
       <c r="AT67" s="15">
-        <v>2608103</v>
+        <v>148058</v>
       </c>
       <c r="AU67" s="15">
-        <v>98684</v>
+        <v>1929941</v>
       </c>
       <c r="AV67" s="15">
-        <v>148058</v>
+        <v>1199060</v>
       </c>
       <c r="AW67" s="15">
-        <v>1929941</v>
+        <v>509673</v>
       </c>
       <c r="AX67" s="15">
-        <v>1199060</v>
+        <v>626548</v>
       </c>
       <c r="AY67" s="15">
-        <v>509673</v>
+        <v>2191321</v>
       </c>
       <c r="AZ67" s="15">
-        <v>626548</v>
+        <v>2124537</v>
       </c>
       <c r="BA67" s="15">
-        <v>2191321</v>
+        <v>433844</v>
       </c>
       <c r="BB67" s="15">
-        <v>2124537</v>
+        <v>2275483</v>
       </c>
     </row>
     <row r="68" spans="2:54" x14ac:dyDescent="0.3">
@@ -9907,11 +9907,11 @@
       <c r="X69" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="Y69" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z69" s="15" t="s">
-        <v>57</v>
+      <c r="Y69" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="15">
+        <v>0</v>
       </c>
       <c r="AA69" s="15">
         <v>0</v>
@@ -10005,154 +10005,154 @@
       <c r="C70" s="17"/>
       <c r="D70" s="17"/>
       <c r="E70" s="17">
-        <v>47814234</v>
+        <v>61708501</v>
       </c>
       <c r="F70" s="17">
-        <v>69943951</v>
+        <v>70944796</v>
       </c>
       <c r="G70" s="17">
-        <v>61708501</v>
+        <v>69192662</v>
       </c>
       <c r="H70" s="17">
-        <v>70944796</v>
+        <v>61286021</v>
       </c>
       <c r="I70" s="17">
-        <v>69192662</v>
+        <v>27032600</v>
       </c>
       <c r="J70" s="17">
-        <v>61286021</v>
+        <v>104404292</v>
       </c>
       <c r="K70" s="17">
-        <v>27032600</v>
+        <v>105169848</v>
       </c>
       <c r="L70" s="17">
-        <v>104404292</v>
+        <v>107748550</v>
       </c>
       <c r="M70" s="17">
-        <v>105169848</v>
+        <v>95428384</v>
       </c>
       <c r="N70" s="17">
-        <v>107748550</v>
+        <v>106876709</v>
       </c>
       <c r="O70" s="17">
-        <v>95428384</v>
+        <v>107098390</v>
       </c>
       <c r="P70" s="17">
-        <v>106876709</v>
+        <v>111958868</v>
       </c>
       <c r="Q70" s="17">
-        <v>107098390</v>
+        <v>132800319</v>
       </c>
       <c r="R70" s="17">
-        <v>111958868</v>
+        <v>91097826</v>
       </c>
       <c r="S70" s="17">
-        <v>132800319</v>
+        <v>116572335</v>
       </c>
       <c r="T70" s="17">
-        <v>91097826</v>
+        <v>104185441</v>
       </c>
       <c r="U70" s="17">
-        <v>116572335</v>
+        <v>40027163</v>
       </c>
       <c r="V70" s="17">
-        <v>104185441</v>
+        <v>121319427</v>
       </c>
       <c r="W70" s="17">
-        <v>40027163</v>
+        <v>135856163</v>
       </c>
       <c r="X70" s="17">
-        <v>121319427</v>
+        <v>124125867</v>
       </c>
       <c r="Y70" s="17">
-        <v>135856163</v>
+        <v>126996709</v>
       </c>
       <c r="Z70" s="17">
-        <v>124125867</v>
+        <v>132540218</v>
       </c>
       <c r="AA70" s="17">
-        <v>126996709</v>
+        <v>107975761</v>
       </c>
       <c r="AB70" s="17">
-        <v>132540218</v>
+        <v>114042003</v>
       </c>
       <c r="AC70" s="17">
-        <v>107975761</v>
+        <v>114137500</v>
       </c>
       <c r="AD70" s="17">
-        <v>114042003</v>
+        <v>92050094</v>
       </c>
       <c r="AE70" s="17">
-        <v>114137500</v>
+        <v>85579043</v>
       </c>
       <c r="AF70" s="17">
-        <v>92050094</v>
+        <v>91056334</v>
       </c>
       <c r="AG70" s="17">
-        <v>85579043</v>
+        <v>23515914</v>
       </c>
       <c r="AH70" s="17">
-        <v>91056334</v>
+        <v>89520427</v>
       </c>
       <c r="AI70" s="17">
-        <v>23515914</v>
+        <v>88651695</v>
       </c>
       <c r="AJ70" s="17">
-        <v>89520427</v>
+        <v>66757331</v>
       </c>
       <c r="AK70" s="17">
-        <v>88651695</v>
+        <v>89517047</v>
       </c>
       <c r="AL70" s="17">
-        <v>66757331</v>
+        <v>102887333</v>
       </c>
       <c r="AM70" s="17">
-        <v>89517047</v>
+        <v>114145841</v>
       </c>
       <c r="AN70" s="17">
-        <v>102887333</v>
+        <v>144373383</v>
       </c>
       <c r="AO70" s="17">
-        <v>114145841</v>
+        <v>136574066</v>
       </c>
       <c r="AP70" s="17">
-        <v>144373383</v>
+        <v>155322526</v>
       </c>
       <c r="AQ70" s="17">
-        <v>136574066</v>
+        <v>116184765</v>
       </c>
       <c r="AR70" s="17">
-        <v>155322526</v>
+        <v>76253168</v>
       </c>
       <c r="AS70" s="17">
-        <v>116184765</v>
+        <v>25299678</v>
       </c>
       <c r="AT70" s="17">
-        <v>76253168</v>
+        <v>95247718</v>
       </c>
       <c r="AU70" s="17">
-        <v>25299678</v>
+        <v>133663655</v>
       </c>
       <c r="AV70" s="17">
-        <v>95247718</v>
+        <v>101585011</v>
       </c>
       <c r="AW70" s="17">
-        <v>133663655</v>
+        <v>114652457</v>
       </c>
       <c r="AX70" s="17">
-        <v>101585011</v>
+        <v>84682749</v>
       </c>
       <c r="AY70" s="17">
-        <v>114652457</v>
+        <v>106478171</v>
       </c>
       <c r="AZ70" s="17">
-        <v>84682749</v>
+        <v>106524917</v>
       </c>
       <c r="BA70" s="17">
-        <v>106478171</v>
+        <v>122126044</v>
       </c>
       <c r="BB70" s="17">
-        <v>106524917</v>
+        <v>110404055</v>
       </c>
     </row>
     <row r="71" spans="2:54" x14ac:dyDescent="0.3">
@@ -10598,25 +10598,25 @@
       </c>
       <c r="D77" s="11"/>
       <c r="E77" s="11">
-        <v>53316</v>
+        <v>25768</v>
       </c>
       <c r="F77" s="11">
-        <v>49468</v>
+        <v>29423</v>
       </c>
       <c r="G77" s="11">
-        <v>25768</v>
+        <v>34958</v>
       </c>
       <c r="H77" s="11">
-        <v>29423</v>
+        <v>29510</v>
       </c>
       <c r="I77" s="11">
-        <v>34958</v>
-      </c>
-      <c r="J77" s="11">
-        <v>29510</v>
-      </c>
-      <c r="K77" s="11">
         <v>11625</v>
+      </c>
+      <c r="J77" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K77" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="L77" s="11" t="s">
         <v>57</v>
@@ -10757,25 +10757,25 @@
       </c>
       <c r="D78" s="13"/>
       <c r="E78" s="13">
-        <v>13828</v>
+        <v>16335</v>
       </c>
       <c r="F78" s="13">
-        <v>10852</v>
+        <v>9600</v>
       </c>
       <c r="G78" s="13">
-        <v>16335</v>
+        <v>10337</v>
       </c>
       <c r="H78" s="13">
-        <v>9600</v>
+        <v>22526</v>
       </c>
       <c r="I78" s="13">
-        <v>10337</v>
-      </c>
-      <c r="J78" s="13">
-        <v>22526</v>
-      </c>
-      <c r="K78" s="13">
         <v>20212</v>
+      </c>
+      <c r="J78" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K78" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="L78" s="13" t="s">
         <v>57</v>
@@ -10916,25 +10916,25 @@
       </c>
       <c r="D79" s="11"/>
       <c r="E79" s="11">
-        <v>91325</v>
+        <v>94056</v>
       </c>
       <c r="F79" s="11">
-        <v>88304</v>
+        <v>100553</v>
       </c>
       <c r="G79" s="11">
-        <v>94056</v>
+        <v>92992</v>
       </c>
       <c r="H79" s="11">
-        <v>100553</v>
+        <v>87212</v>
       </c>
       <c r="I79" s="11">
-        <v>92992</v>
-      </c>
-      <c r="J79" s="11">
-        <v>87212</v>
-      </c>
-      <c r="K79" s="11">
         <v>38524</v>
+      </c>
+      <c r="J79" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K79" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="L79" s="11" t="s">
         <v>57</v>
@@ -11089,140 +11089,140 @@
       <c r="I80" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J80" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="K80" s="13" t="s">
-        <v>57</v>
+      <c r="J80" s="13">
+        <v>51649</v>
+      </c>
+      <c r="K80" s="13">
+        <v>51956</v>
       </c>
       <c r="L80" s="13">
-        <v>51649</v>
+        <v>70781</v>
       </c>
       <c r="M80" s="13">
-        <v>51956</v>
+        <v>52790</v>
       </c>
       <c r="N80" s="13">
-        <v>70781</v>
+        <v>57833</v>
       </c>
       <c r="O80" s="13">
-        <v>52790</v>
+        <v>88232</v>
       </c>
       <c r="P80" s="13">
-        <v>57833</v>
+        <v>100166</v>
       </c>
       <c r="Q80" s="13">
-        <v>88232</v>
+        <v>158197</v>
       </c>
       <c r="R80" s="13">
-        <v>100166</v>
+        <v>113436</v>
       </c>
       <c r="S80" s="13">
-        <v>158197</v>
+        <v>124878</v>
       </c>
       <c r="T80" s="13">
-        <v>113436</v>
+        <v>87185</v>
       </c>
       <c r="U80" s="13">
-        <v>124878</v>
+        <v>55905</v>
       </c>
       <c r="V80" s="13">
-        <v>87185</v>
+        <v>115012</v>
       </c>
       <c r="W80" s="13">
-        <v>55905</v>
+        <v>128324</v>
       </c>
       <c r="X80" s="13">
-        <v>115012</v>
+        <v>96742</v>
       </c>
       <c r="Y80" s="13">
-        <v>128324</v>
+        <v>89417</v>
       </c>
       <c r="Z80" s="13">
-        <v>96742</v>
+        <v>77603</v>
       </c>
       <c r="AA80" s="13">
-        <v>89417</v>
+        <v>114180</v>
       </c>
       <c r="AB80" s="13">
-        <v>77603</v>
+        <v>141849</v>
       </c>
       <c r="AC80" s="13">
-        <v>114180</v>
+        <v>160116</v>
       </c>
       <c r="AD80" s="13">
-        <v>141849</v>
+        <v>113437</v>
       </c>
       <c r="AE80" s="13">
-        <v>160116</v>
+        <v>148716</v>
       </c>
       <c r="AF80" s="13">
-        <v>113437</v>
+        <v>73461</v>
       </c>
       <c r="AG80" s="13">
-        <v>148716</v>
+        <v>1519</v>
       </c>
       <c r="AH80" s="13">
-        <v>73461</v>
+        <v>91554</v>
       </c>
       <c r="AI80" s="13">
-        <v>1519</v>
+        <v>113105</v>
       </c>
       <c r="AJ80" s="13">
-        <v>91554</v>
+        <v>125879</v>
       </c>
       <c r="AK80" s="13">
-        <v>113105</v>
+        <v>129749</v>
       </c>
       <c r="AL80" s="13">
-        <v>125879</v>
+        <v>110606</v>
       </c>
       <c r="AM80" s="13">
-        <v>129749</v>
+        <v>208562</v>
       </c>
       <c r="AN80" s="13">
-        <v>110606</v>
+        <v>120356</v>
       </c>
       <c r="AO80" s="13">
-        <v>208562</v>
+        <v>169647</v>
       </c>
       <c r="AP80" s="13">
-        <v>120356</v>
+        <v>187696</v>
       </c>
       <c r="AQ80" s="13">
-        <v>169647</v>
+        <v>161783</v>
       </c>
       <c r="AR80" s="13">
-        <v>187696</v>
+        <v>168046</v>
       </c>
       <c r="AS80" s="13">
-        <v>161783</v>
+        <v>80720</v>
       </c>
       <c r="AT80" s="13">
-        <v>168046</v>
+        <v>196582</v>
       </c>
       <c r="AU80" s="13">
-        <v>80720</v>
+        <v>330206</v>
       </c>
       <c r="AV80" s="13">
-        <v>196582</v>
+        <v>235238</v>
       </c>
       <c r="AW80" s="13">
-        <v>330206</v>
+        <v>394822</v>
       </c>
       <c r="AX80" s="13">
-        <v>235238</v>
+        <v>200261</v>
       </c>
       <c r="AY80" s="13">
-        <v>227255</v>
+        <v>153220</v>
       </c>
       <c r="AZ80" s="13">
-        <v>200261</v>
+        <v>107415</v>
       </c>
       <c r="BA80" s="13">
-        <v>153220</v>
+        <v>209790</v>
       </c>
       <c r="BB80" s="13">
-        <v>107415</v>
+        <v>198022</v>
       </c>
     </row>
     <row r="81" spans="2:54" x14ac:dyDescent="0.3">
@@ -11254,50 +11254,50 @@
       <c r="K81" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="L81" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="M81" s="11" t="s">
-        <v>57</v>
+      <c r="L81" s="11">
+        <v>6543</v>
+      </c>
+      <c r="M81" s="11">
+        <v>0</v>
       </c>
       <c r="N81" s="11">
-        <v>6543</v>
+        <v>3702</v>
       </c>
       <c r="O81" s="11">
-        <v>0</v>
+        <v>9478</v>
       </c>
       <c r="P81" s="11">
-        <v>3702</v>
+        <v>15623</v>
       </c>
       <c r="Q81" s="11">
-        <v>9478</v>
+        <v>4818</v>
       </c>
       <c r="R81" s="11">
-        <v>15623</v>
+        <v>22969</v>
       </c>
       <c r="S81" s="11">
-        <v>4818</v>
+        <v>9823</v>
       </c>
       <c r="T81" s="11">
-        <v>22969</v>
+        <v>12046</v>
       </c>
       <c r="U81" s="11">
-        <v>9823</v>
+        <v>12082</v>
       </c>
       <c r="V81" s="11">
-        <v>12046</v>
+        <v>15979</v>
       </c>
       <c r="W81" s="11">
-        <v>12082</v>
+        <v>19301</v>
       </c>
       <c r="X81" s="11">
-        <v>15979</v>
-      </c>
-      <c r="Y81" s="11">
-        <v>19301</v>
-      </c>
-      <c r="Z81" s="11">
         <v>6857</v>
+      </c>
+      <c r="Y81" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z81" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AA81" s="11" t="s">
         <v>57</v>
@@ -11396,22 +11396,22 @@
         <v>0</v>
       </c>
       <c r="F82" s="13">
-        <v>0</v>
+        <v>3030</v>
       </c>
       <c r="G82" s="13">
         <v>0</v>
       </c>
       <c r="H82" s="13">
-        <v>3030</v>
+        <v>0</v>
       </c>
       <c r="I82" s="13">
-        <v>0</v>
-      </c>
-      <c r="J82" s="13">
-        <v>0</v>
-      </c>
-      <c r="K82" s="13">
         <v>12257</v>
+      </c>
+      <c r="J82" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K82" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="L82" s="13" t="s">
         <v>57</v>
@@ -11566,140 +11566,140 @@
       <c r="I83" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="J83" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="K83" s="11" t="s">
-        <v>57</v>
+      <c r="J83" s="11">
+        <v>130741</v>
+      </c>
+      <c r="K83" s="11">
+        <v>133074</v>
       </c>
       <c r="L83" s="11">
-        <v>130741</v>
+        <v>135886</v>
       </c>
       <c r="M83" s="11">
-        <v>133074</v>
+        <v>141726</v>
       </c>
       <c r="N83" s="11">
-        <v>135886</v>
+        <v>141215</v>
       </c>
       <c r="O83" s="11">
-        <v>141726</v>
+        <v>194268</v>
       </c>
       <c r="P83" s="11">
-        <v>141215</v>
+        <v>176355</v>
       </c>
       <c r="Q83" s="11">
-        <v>194268</v>
+        <v>210017</v>
       </c>
       <c r="R83" s="11">
-        <v>176355</v>
+        <v>155506</v>
       </c>
       <c r="S83" s="11">
-        <v>210017</v>
+        <v>163635</v>
       </c>
       <c r="T83" s="11">
-        <v>155506</v>
+        <v>172738</v>
       </c>
       <c r="U83" s="11">
-        <v>163635</v>
+        <v>53198</v>
       </c>
       <c r="V83" s="11">
-        <v>172738</v>
+        <v>190763</v>
       </c>
       <c r="W83" s="11">
-        <v>53198</v>
+        <v>227519</v>
       </c>
       <c r="X83" s="11">
-        <v>190763</v>
+        <v>230978</v>
       </c>
       <c r="Y83" s="11">
-        <v>227519</v>
+        <v>190023</v>
       </c>
       <c r="Z83" s="11">
-        <v>230978</v>
+        <v>176990</v>
       </c>
       <c r="AA83" s="11">
-        <v>190023</v>
+        <v>193908</v>
       </c>
       <c r="AB83" s="11">
-        <v>176990</v>
+        <v>238425</v>
       </c>
       <c r="AC83" s="11">
-        <v>193908</v>
+        <v>240334</v>
       </c>
       <c r="AD83" s="11">
-        <v>238425</v>
+        <v>232410</v>
       </c>
       <c r="AE83" s="11">
-        <v>240334</v>
+        <v>206651</v>
       </c>
       <c r="AF83" s="11">
-        <v>232410</v>
+        <v>214765</v>
       </c>
       <c r="AG83" s="11">
-        <v>206651</v>
+        <v>13081</v>
       </c>
       <c r="AH83" s="11">
-        <v>214765</v>
+        <v>216354</v>
       </c>
       <c r="AI83" s="11">
-        <v>13081</v>
+        <v>206864</v>
       </c>
       <c r="AJ83" s="11">
-        <v>216354</v>
+        <v>160548</v>
       </c>
       <c r="AK83" s="11">
-        <v>206864</v>
+        <v>191395</v>
       </c>
       <c r="AL83" s="11">
-        <v>160548</v>
+        <v>263204</v>
       </c>
       <c r="AM83" s="11">
-        <v>191395</v>
+        <v>261459</v>
       </c>
       <c r="AN83" s="11">
-        <v>263204</v>
+        <v>425732</v>
       </c>
       <c r="AO83" s="11">
-        <v>261459</v>
+        <v>348516</v>
       </c>
       <c r="AP83" s="11">
-        <v>425732</v>
+        <v>512385</v>
       </c>
       <c r="AQ83" s="11">
-        <v>348516</v>
+        <v>314728</v>
       </c>
       <c r="AR83" s="11">
-        <v>512385</v>
+        <v>178973</v>
       </c>
       <c r="AS83" s="11">
-        <v>314728</v>
+        <v>-24848</v>
       </c>
       <c r="AT83" s="11">
-        <v>178973</v>
+        <v>337881</v>
       </c>
       <c r="AU83" s="11">
-        <v>-24848</v>
+        <v>378831</v>
       </c>
       <c r="AV83" s="11">
-        <v>337881</v>
+        <v>261115</v>
       </c>
       <c r="AW83" s="11">
-        <v>378831</v>
+        <v>707344</v>
       </c>
       <c r="AX83" s="11">
-        <v>261115</v>
+        <v>494380</v>
       </c>
       <c r="AY83" s="11">
-        <v>329432</v>
+        <v>550101</v>
       </c>
       <c r="AZ83" s="11">
-        <v>494380</v>
+        <v>496347</v>
       </c>
       <c r="BA83" s="11">
-        <v>550101</v>
+        <v>605543</v>
       </c>
       <c r="BB83" s="11">
-        <v>496347</v>
+        <v>663465</v>
       </c>
     </row>
     <row r="84" spans="2:54" x14ac:dyDescent="0.3">
@@ -11711,25 +11711,25 @@
       </c>
       <c r="D84" s="13"/>
       <c r="E84" s="13">
-        <v>2645</v>
+        <v>1116</v>
       </c>
       <c r="F84" s="13">
         <v>0</v>
       </c>
       <c r="G84" s="13">
-        <v>1116</v>
+        <v>111</v>
       </c>
       <c r="H84" s="13">
+        <v>1996</v>
+      </c>
+      <c r="I84" s="13">
         <v>0</v>
       </c>
-      <c r="I84" s="13">
-        <v>111</v>
-      </c>
-      <c r="J84" s="13">
-        <v>1996</v>
-      </c>
-      <c r="K84" s="13">
-        <v>0</v>
+      <c r="J84" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K84" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="L84" s="13" t="s">
         <v>57</v>
@@ -11870,25 +11870,25 @@
       </c>
       <c r="D85" s="11"/>
       <c r="E85" s="11">
-        <v>27672</v>
+        <v>50792</v>
       </c>
       <c r="F85" s="11">
-        <v>51416</v>
+        <v>60411</v>
       </c>
       <c r="G85" s="11">
-        <v>50792</v>
+        <v>48430</v>
       </c>
       <c r="H85" s="11">
-        <v>60411</v>
+        <v>55115</v>
       </c>
       <c r="I85" s="11">
-        <v>48430</v>
-      </c>
-      <c r="J85" s="11">
-        <v>55115</v>
-      </c>
-      <c r="K85" s="11">
         <v>41265</v>
+      </c>
+      <c r="J85" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K85" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="L85" s="11" t="s">
         <v>57</v>
@@ -12029,25 +12029,25 @@
       </c>
       <c r="D86" s="13"/>
       <c r="E86" s="13">
-        <v>20157</v>
+        <v>0</v>
       </c>
       <c r="F86" s="13">
-        <v>27516</v>
+        <v>3302</v>
       </c>
       <c r="G86" s="13">
-        <v>0</v>
+        <v>19411</v>
       </c>
       <c r="H86" s="13">
-        <v>3302</v>
+        <v>16982</v>
       </c>
       <c r="I86" s="13">
-        <v>19411</v>
-      </c>
-      <c r="J86" s="13">
-        <v>16982</v>
-      </c>
-      <c r="K86" s="13">
         <v>6310</v>
+      </c>
+      <c r="J86" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K86" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="L86" s="13" t="s">
         <v>57</v>
@@ -12188,25 +12188,25 @@
       </c>
       <c r="D87" s="11"/>
       <c r="E87" s="11">
-        <v>1153</v>
+        <v>11780</v>
       </c>
       <c r="F87" s="11">
-        <v>3342</v>
+        <v>10088</v>
       </c>
       <c r="G87" s="11">
-        <v>11780</v>
+        <v>8894</v>
       </c>
       <c r="H87" s="11">
-        <v>10088</v>
+        <v>2740</v>
       </c>
       <c r="I87" s="11">
-        <v>8894</v>
-      </c>
-      <c r="J87" s="11">
-        <v>2740</v>
-      </c>
-      <c r="K87" s="11">
         <v>0</v>
+      </c>
+      <c r="J87" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K87" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="L87" s="11" t="s">
         <v>57</v>
@@ -12347,25 +12347,25 @@
       </c>
       <c r="D88" s="13"/>
       <c r="E88" s="13">
-        <v>20137</v>
+        <v>62658</v>
       </c>
       <c r="F88" s="13">
-        <v>52790</v>
+        <v>53925</v>
       </c>
       <c r="G88" s="13">
-        <v>62658</v>
+        <v>39152</v>
       </c>
       <c r="H88" s="13">
-        <v>53925</v>
+        <v>42331</v>
       </c>
       <c r="I88" s="13">
-        <v>39152</v>
-      </c>
-      <c r="J88" s="13">
-        <v>42331</v>
-      </c>
-      <c r="K88" s="13">
         <v>16289</v>
+      </c>
+      <c r="J88" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K88" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="L88" s="13" t="s">
         <v>57</v>
@@ -12506,25 +12506,25 @@
       </c>
       <c r="D89" s="11"/>
       <c r="E89" s="11">
-        <v>2995</v>
+        <v>10217</v>
       </c>
       <c r="F89" s="11">
-        <v>4774</v>
+        <v>2740</v>
       </c>
       <c r="G89" s="11">
-        <v>10217</v>
+        <v>12327</v>
       </c>
       <c r="H89" s="11">
-        <v>2740</v>
+        <v>8449</v>
       </c>
       <c r="I89" s="11">
-        <v>12327</v>
-      </c>
-      <c r="J89" s="11">
-        <v>8449</v>
-      </c>
-      <c r="K89" s="11">
         <v>1322</v>
+      </c>
+      <c r="J89" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K89" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="L89" s="11" t="s">
         <v>57</v>
@@ -12665,25 +12665,25 @@
       </c>
       <c r="D90" s="13"/>
       <c r="E90" s="13">
-        <v>23971</v>
+        <v>63310</v>
       </c>
       <c r="F90" s="13">
-        <v>42320</v>
+        <v>49614</v>
       </c>
       <c r="G90" s="13">
-        <v>63310</v>
+        <v>78103</v>
       </c>
       <c r="H90" s="13">
-        <v>49614</v>
+        <v>65714</v>
       </c>
       <c r="I90" s="13">
-        <v>78103</v>
-      </c>
-      <c r="J90" s="13">
-        <v>65714</v>
-      </c>
-      <c r="K90" s="13">
         <v>56124</v>
+      </c>
+      <c r="J90" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K90" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="L90" s="13" t="s">
         <v>57</v>
@@ -12824,25 +12824,25 @@
       </c>
       <c r="D91" s="11"/>
       <c r="E91" s="11">
-        <v>22343</v>
+        <v>12294</v>
       </c>
       <c r="F91" s="11">
-        <v>20948</v>
+        <v>15426</v>
       </c>
       <c r="G91" s="11">
-        <v>12294</v>
+        <v>23251</v>
       </c>
       <c r="H91" s="11">
-        <v>15426</v>
+        <v>9847</v>
       </c>
       <c r="I91" s="11">
-        <v>23251</v>
-      </c>
-      <c r="J91" s="11">
-        <v>9847</v>
-      </c>
-      <c r="K91" s="11">
         <v>29160</v>
+      </c>
+      <c r="J91" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K91" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="L91" s="11" t="s">
         <v>57</v>
@@ -12983,25 +12983,25 @@
       </c>
       <c r="D92" s="13"/>
       <c r="E92" s="13">
-        <v>33870</v>
+        <v>42288</v>
       </c>
       <c r="F92" s="13">
-        <v>46826</v>
+        <v>25223</v>
       </c>
       <c r="G92" s="13">
-        <v>42288</v>
+        <v>22211</v>
       </c>
       <c r="H92" s="13">
-        <v>25223</v>
+        <v>10894</v>
       </c>
       <c r="I92" s="13">
-        <v>22211</v>
-      </c>
-      <c r="J92" s="13">
-        <v>10894</v>
-      </c>
-      <c r="K92" s="13">
         <v>0</v>
+      </c>
+      <c r="J92" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K92" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="L92" s="13" t="s">
         <v>57</v>
@@ -13142,25 +13142,25 @@
       </c>
       <c r="D93" s="11"/>
       <c r="E93" s="11">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="F93" s="11">
         <v>0</v>
       </c>
       <c r="G93" s="11">
-        <v>15</v>
+        <v>415</v>
       </c>
       <c r="H93" s="11">
         <v>0</v>
       </c>
       <c r="I93" s="11">
-        <v>415</v>
-      </c>
-      <c r="J93" s="11">
-        <v>0</v>
-      </c>
-      <c r="K93" s="11">
         <v>222</v>
+      </c>
+      <c r="J93" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K93" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="L93" s="11" t="s">
         <v>57</v>
@@ -13301,13 +13301,13 @@
       </c>
       <c r="D94" s="13"/>
       <c r="E94" s="13">
-        <v>58220</v>
+        <v>30</v>
       </c>
       <c r="F94" s="13">
         <v>0</v>
       </c>
       <c r="G94" s="13">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="H94" s="13">
         <v>0</v>
@@ -13315,11 +13315,11 @@
       <c r="I94" s="13">
         <v>0</v>
       </c>
-      <c r="J94" s="13">
-        <v>0</v>
-      </c>
-      <c r="K94" s="13">
-        <v>0</v>
+      <c r="J94" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K94" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="L94" s="13" t="s">
         <v>57</v>
@@ -13460,25 +13460,25 @@
       </c>
       <c r="D95" s="11"/>
       <c r="E95" s="11">
-        <v>2393</v>
+        <v>7861</v>
       </c>
       <c r="F95" s="11">
-        <v>8553</v>
+        <v>6694</v>
       </c>
       <c r="G95" s="11">
-        <v>7861</v>
+        <v>4206</v>
       </c>
       <c r="H95" s="11">
-        <v>6694</v>
+        <v>5033</v>
       </c>
       <c r="I95" s="11">
-        <v>4206</v>
-      </c>
-      <c r="J95" s="11">
-        <v>5033</v>
-      </c>
-      <c r="K95" s="11">
         <v>2626</v>
+      </c>
+      <c r="J95" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K95" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="L95" s="11" t="s">
         <v>57</v>
@@ -13633,140 +13633,140 @@
       <c r="I96" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J96" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="K96" s="13" t="s">
-        <v>57</v>
+      <c r="J96" s="13">
+        <v>347579</v>
+      </c>
+      <c r="K96" s="13">
+        <v>285401</v>
       </c>
       <c r="L96" s="13">
-        <v>347579</v>
+        <v>294192</v>
       </c>
       <c r="M96" s="13">
-        <v>285401</v>
+        <v>325347</v>
       </c>
       <c r="N96" s="13">
-        <v>294192</v>
+        <v>373636</v>
       </c>
       <c r="O96" s="13">
-        <v>325347</v>
+        <v>266910</v>
       </c>
       <c r="P96" s="13">
-        <v>373636</v>
+        <v>354918</v>
       </c>
       <c r="Q96" s="13">
-        <v>266910</v>
+        <v>279757</v>
       </c>
       <c r="R96" s="13">
-        <v>354918</v>
+        <v>342383</v>
       </c>
       <c r="S96" s="13">
-        <v>279757</v>
+        <v>325512</v>
       </c>
       <c r="T96" s="13">
-        <v>342383</v>
+        <v>331244</v>
       </c>
       <c r="U96" s="13">
-        <v>325512</v>
+        <v>186845</v>
       </c>
       <c r="V96" s="13">
-        <v>331244</v>
+        <v>340525</v>
       </c>
       <c r="W96" s="13">
-        <v>186845</v>
+        <v>313496</v>
       </c>
       <c r="X96" s="13">
-        <v>340525</v>
+        <v>405139</v>
       </c>
       <c r="Y96" s="13">
-        <v>313496</v>
+        <v>427638</v>
       </c>
       <c r="Z96" s="13">
-        <v>405139</v>
+        <v>450268</v>
       </c>
       <c r="AA96" s="13">
-        <v>427638</v>
+        <v>350718</v>
       </c>
       <c r="AB96" s="13">
-        <v>450268</v>
+        <v>414798</v>
       </c>
       <c r="AC96" s="13">
-        <v>350718</v>
+        <v>413467</v>
       </c>
       <c r="AD96" s="13">
-        <v>414798</v>
+        <v>476446</v>
       </c>
       <c r="AE96" s="13">
-        <v>413467</v>
+        <v>369697</v>
       </c>
       <c r="AF96" s="13">
-        <v>476446</v>
+        <v>496081</v>
       </c>
       <c r="AG96" s="13">
-        <v>369697</v>
+        <v>293611</v>
       </c>
       <c r="AH96" s="13">
-        <v>496081</v>
+        <v>533303</v>
       </c>
       <c r="AI96" s="13">
-        <v>293611</v>
+        <v>547005</v>
       </c>
       <c r="AJ96" s="13">
-        <v>533303</v>
+        <v>624517</v>
       </c>
       <c r="AK96" s="13">
-        <v>547005</v>
+        <v>1495359</v>
       </c>
       <c r="AL96" s="13">
-        <v>624517</v>
+        <v>2800037</v>
       </c>
       <c r="AM96" s="13">
-        <v>1495359</v>
+        <v>2088288</v>
       </c>
       <c r="AN96" s="13">
-        <v>2800037</v>
+        <v>1344582</v>
       </c>
       <c r="AO96" s="13">
-        <v>2088288</v>
+        <v>1426342</v>
       </c>
       <c r="AP96" s="13">
-        <v>1344582</v>
+        <v>798935</v>
       </c>
       <c r="AQ96" s="13">
-        <v>1426342</v>
+        <v>735967</v>
       </c>
       <c r="AR96" s="13">
-        <v>798935</v>
+        <v>689438</v>
       </c>
       <c r="AS96" s="13">
-        <v>735967</v>
+        <v>310155</v>
       </c>
       <c r="AT96" s="13">
-        <v>689438</v>
+        <v>827959</v>
       </c>
       <c r="AU96" s="13">
-        <v>310155</v>
+        <v>1063585</v>
       </c>
       <c r="AV96" s="13">
-        <v>827959</v>
+        <v>988425</v>
       </c>
       <c r="AW96" s="13">
-        <v>1063585</v>
+        <v>801431</v>
       </c>
       <c r="AX96" s="13">
-        <v>988425</v>
+        <v>1348861</v>
       </c>
       <c r="AY96" s="13">
-        <v>753497</v>
+        <v>1161887</v>
       </c>
       <c r="AZ96" s="13">
-        <v>1348861</v>
+        <v>1208729</v>
       </c>
       <c r="BA96" s="13">
-        <v>1161887</v>
+        <v>1259071</v>
       </c>
       <c r="BB96" s="13">
-        <v>1208729</v>
+        <v>1167539</v>
       </c>
     </row>
     <row r="97" spans="2:54" x14ac:dyDescent="0.3">
@@ -13792,140 +13792,140 @@
       <c r="I97" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="J97" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="K97" s="11" t="s">
-        <v>57</v>
+      <c r="J97" s="11">
+        <v>83787</v>
+      </c>
+      <c r="K97" s="11">
+        <v>99153</v>
       </c>
       <c r="L97" s="11">
-        <v>83787</v>
+        <v>128476</v>
       </c>
       <c r="M97" s="11">
-        <v>99153</v>
+        <v>122654</v>
       </c>
       <c r="N97" s="11">
-        <v>128476</v>
+        <v>106965</v>
       </c>
       <c r="O97" s="11">
-        <v>122654</v>
+        <v>138835</v>
       </c>
       <c r="P97" s="11">
-        <v>106965</v>
+        <v>89328</v>
       </c>
       <c r="Q97" s="11">
-        <v>138835</v>
+        <v>76523</v>
       </c>
       <c r="R97" s="11">
-        <v>89328</v>
+        <v>99239</v>
       </c>
       <c r="S97" s="11">
-        <v>76523</v>
+        <v>105327</v>
       </c>
       <c r="T97" s="11">
-        <v>99239</v>
+        <v>121071</v>
       </c>
       <c r="U97" s="11">
-        <v>105327</v>
+        <v>56733</v>
       </c>
       <c r="V97" s="11">
-        <v>121071</v>
+        <v>137902</v>
       </c>
       <c r="W97" s="11">
-        <v>56733</v>
+        <v>82483</v>
       </c>
       <c r="X97" s="11">
-        <v>137902</v>
+        <v>61113</v>
       </c>
       <c r="Y97" s="11">
-        <v>82483</v>
+        <v>118843</v>
       </c>
       <c r="Z97" s="11">
-        <v>61113</v>
+        <v>248477</v>
       </c>
       <c r="AA97" s="11">
-        <v>118843</v>
+        <v>237570</v>
       </c>
       <c r="AB97" s="11">
-        <v>248477</v>
+        <v>111157</v>
       </c>
       <c r="AC97" s="11">
-        <v>237570</v>
+        <v>175137</v>
       </c>
       <c r="AD97" s="11">
-        <v>111157</v>
+        <v>123440</v>
       </c>
       <c r="AE97" s="11">
-        <v>175137</v>
+        <v>189892</v>
       </c>
       <c r="AF97" s="11">
-        <v>123440</v>
+        <v>168463</v>
       </c>
       <c r="AG97" s="11">
-        <v>189892</v>
+        <v>104334</v>
       </c>
       <c r="AH97" s="11">
-        <v>168463</v>
+        <v>105777</v>
       </c>
       <c r="AI97" s="11">
-        <v>104334</v>
+        <v>137709</v>
       </c>
       <c r="AJ97" s="11">
-        <v>105777</v>
+        <v>266323</v>
       </c>
       <c r="AK97" s="11">
-        <v>137709</v>
+        <v>397272</v>
       </c>
       <c r="AL97" s="11">
-        <v>266323</v>
+        <v>187619</v>
       </c>
       <c r="AM97" s="11">
-        <v>397272</v>
+        <v>217358</v>
       </c>
       <c r="AN97" s="11">
-        <v>187619</v>
+        <v>338686</v>
       </c>
       <c r="AO97" s="11">
-        <v>217358</v>
+        <v>246719</v>
       </c>
       <c r="AP97" s="11">
-        <v>338686</v>
+        <v>179218</v>
       </c>
       <c r="AQ97" s="11">
-        <v>246719</v>
+        <v>210097</v>
       </c>
       <c r="AR97" s="11">
-        <v>179218</v>
+        <v>339082</v>
       </c>
       <c r="AS97" s="11">
-        <v>210097</v>
+        <v>113660</v>
       </c>
       <c r="AT97" s="11">
-        <v>339082</v>
+        <v>161820</v>
       </c>
       <c r="AU97" s="11">
-        <v>113660</v>
+        <v>298304</v>
       </c>
       <c r="AV97" s="11">
-        <v>161820</v>
+        <v>466111</v>
       </c>
       <c r="AW97" s="11">
-        <v>298304</v>
+        <v>376545</v>
       </c>
       <c r="AX97" s="11">
-        <v>466111</v>
+        <v>390981</v>
       </c>
       <c r="AY97" s="11">
-        <v>376545</v>
+        <v>387480</v>
       </c>
       <c r="AZ97" s="11">
-        <v>390981</v>
+        <v>409426</v>
       </c>
       <c r="BA97" s="11">
-        <v>387480</v>
+        <v>406862</v>
       </c>
       <c r="BB97" s="11">
-        <v>409426</v>
+        <v>421988</v>
       </c>
     </row>
     <row r="98" spans="2:54" x14ac:dyDescent="0.3">
@@ -14053,38 +14053,38 @@
       <c r="X99" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y99" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z99" s="11" t="s">
-        <v>57</v>
+      <c r="Y99" s="11">
+        <v>37563</v>
+      </c>
+      <c r="Z99" s="11">
+        <v>15636</v>
       </c>
       <c r="AA99" s="11">
-        <v>37563</v>
+        <v>36184</v>
       </c>
       <c r="AB99" s="11">
-        <v>15636</v>
+        <v>14349</v>
       </c>
       <c r="AC99" s="11">
-        <v>36184</v>
+        <v>20172</v>
       </c>
       <c r="AD99" s="11">
-        <v>14349</v>
+        <v>27892</v>
       </c>
       <c r="AE99" s="11">
-        <v>20172</v>
+        <v>35487</v>
       </c>
       <c r="AF99" s="11">
-        <v>27892</v>
+        <v>13113</v>
       </c>
       <c r="AG99" s="11">
-        <v>35487</v>
-      </c>
-      <c r="AH99" s="11">
-        <v>13113</v>
-      </c>
-      <c r="AI99" s="11">
         <v>26133</v>
+      </c>
+      <c r="AH99" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI99" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AJ99" s="11" t="s">
         <v>57</v>
@@ -14239,68 +14239,68 @@
       <c r="AG100" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AH100" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI100" s="13" t="s">
-        <v>57</v>
+      <c r="AH100" s="13">
+        <v>16835</v>
+      </c>
+      <c r="AI100" s="13">
+        <v>25555</v>
       </c>
       <c r="AJ100" s="13">
-        <v>16835</v>
+        <v>23118</v>
       </c>
       <c r="AK100" s="13">
-        <v>25555</v>
+        <v>27026</v>
       </c>
       <c r="AL100" s="13">
-        <v>23118</v>
+        <v>42487</v>
       </c>
       <c r="AM100" s="13">
-        <v>27026</v>
+        <v>34406</v>
       </c>
       <c r="AN100" s="13">
-        <v>42487</v>
+        <v>20814</v>
       </c>
       <c r="AO100" s="13">
-        <v>34406</v>
+        <v>30599</v>
       </c>
       <c r="AP100" s="13">
-        <v>20814</v>
+        <v>22294</v>
       </c>
       <c r="AQ100" s="13">
-        <v>30599</v>
+        <v>31228</v>
       </c>
       <c r="AR100" s="13">
-        <v>22294</v>
+        <v>26866</v>
       </c>
       <c r="AS100" s="13">
-        <v>31228</v>
+        <v>14049</v>
       </c>
       <c r="AT100" s="13">
-        <v>26866</v>
+        <v>6434</v>
       </c>
       <c r="AU100" s="13">
-        <v>14049</v>
+        <v>27838</v>
       </c>
       <c r="AV100" s="13">
-        <v>6434</v>
+        <v>49216</v>
       </c>
       <c r="AW100" s="13">
-        <v>27838</v>
+        <v>29314</v>
       </c>
       <c r="AX100" s="13">
-        <v>49216</v>
+        <v>30759</v>
       </c>
       <c r="AY100" s="13">
-        <v>29314</v>
+        <v>20870</v>
       </c>
       <c r="AZ100" s="13">
-        <v>30759</v>
+        <v>30697</v>
       </c>
       <c r="BA100" s="13">
-        <v>20870</v>
+        <v>31248</v>
       </c>
       <c r="BB100" s="13">
-        <v>30697</v>
+        <v>37941</v>
       </c>
     </row>
     <row r="101" spans="2:54" x14ac:dyDescent="0.3">
@@ -14371,95 +14371,95 @@
       <c r="X101" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="Y101" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z101" s="15" t="s">
-        <v>57</v>
+      <c r="Y101" s="15">
+        <v>37563</v>
+      </c>
+      <c r="Z101" s="15">
+        <v>15636</v>
       </c>
       <c r="AA101" s="15">
-        <v>37563</v>
+        <v>36184</v>
       </c>
       <c r="AB101" s="15">
-        <v>15636</v>
+        <v>14349</v>
       </c>
       <c r="AC101" s="15">
-        <v>36184</v>
+        <v>20172</v>
       </c>
       <c r="AD101" s="15">
-        <v>14349</v>
+        <v>27892</v>
       </c>
       <c r="AE101" s="15">
-        <v>20172</v>
+        <v>35487</v>
       </c>
       <c r="AF101" s="15">
-        <v>27892</v>
+        <v>13113</v>
       </c>
       <c r="AG101" s="15">
-        <v>35487</v>
+        <v>26133</v>
       </c>
       <c r="AH101" s="15">
-        <v>13113</v>
+        <v>16835</v>
       </c>
       <c r="AI101" s="15">
-        <v>26133</v>
+        <v>25555</v>
       </c>
       <c r="AJ101" s="15">
-        <v>16835</v>
+        <v>23118</v>
       </c>
       <c r="AK101" s="15">
-        <v>25555</v>
+        <v>27026</v>
       </c>
       <c r="AL101" s="15">
-        <v>23118</v>
+        <v>42487</v>
       </c>
       <c r="AM101" s="15">
-        <v>27026</v>
+        <v>34406</v>
       </c>
       <c r="AN101" s="15">
-        <v>42487</v>
+        <v>20814</v>
       </c>
       <c r="AO101" s="15">
-        <v>34406</v>
+        <v>30599</v>
       </c>
       <c r="AP101" s="15">
-        <v>20814</v>
+        <v>22294</v>
       </c>
       <c r="AQ101" s="15">
-        <v>30599</v>
+        <v>31228</v>
       </c>
       <c r="AR101" s="15">
-        <v>22294</v>
+        <v>26866</v>
       </c>
       <c r="AS101" s="15">
-        <v>31228</v>
+        <v>14049</v>
       </c>
       <c r="AT101" s="15">
-        <v>26866</v>
+        <v>6434</v>
       </c>
       <c r="AU101" s="15">
-        <v>14049</v>
+        <v>27838</v>
       </c>
       <c r="AV101" s="15">
-        <v>6434</v>
+        <v>49216</v>
       </c>
       <c r="AW101" s="15">
-        <v>27838</v>
+        <v>29314</v>
       </c>
       <c r="AX101" s="15">
-        <v>49216</v>
+        <v>30759</v>
       </c>
       <c r="AY101" s="15">
-        <v>29314</v>
+        <v>20870</v>
       </c>
       <c r="AZ101" s="15">
-        <v>30759</v>
+        <v>30697</v>
       </c>
       <c r="BA101" s="15">
-        <v>20870</v>
+        <v>31248</v>
       </c>
       <c r="BB101" s="15">
-        <v>30697</v>
+        <v>37941</v>
       </c>
     </row>
     <row r="102" spans="2:54" x14ac:dyDescent="0.3">
@@ -14587,11 +14587,11 @@
       <c r="X103" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="Y103" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z103" s="15" t="s">
-        <v>57</v>
+      <c r="Y103" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z103" s="15">
+        <v>0</v>
       </c>
       <c r="AA103" s="15">
         <v>0</v>
@@ -14803,11 +14803,11 @@
       <c r="X105" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y105" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z105" s="11" t="s">
-        <v>57</v>
+      <c r="Y105" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z105" s="11">
+        <v>0</v>
       </c>
       <c r="AA105" s="11">
         <v>0</v>
@@ -14876,22 +14876,22 @@
         <v>0</v>
       </c>
       <c r="AW105" s="11">
-        <v>0</v>
+        <v>-593413</v>
       </c>
       <c r="AX105" s="11">
-        <v>0</v>
+        <v>-127418</v>
       </c>
       <c r="AY105" s="11">
-        <v>0</v>
+        <v>-103821</v>
       </c>
       <c r="AZ105" s="11">
-        <v>-127418</v>
+        <v>-65604</v>
       </c>
       <c r="BA105" s="11">
-        <v>-103821</v>
+        <v>-79645</v>
       </c>
       <c r="BB105" s="11">
-        <v>-65604</v>
+        <v>-81593</v>
       </c>
     </row>
     <row r="106" spans="2:54" x14ac:dyDescent="0.3">
@@ -14901,154 +14901,154 @@
       <c r="C106" s="17"/>
       <c r="D106" s="17"/>
       <c r="E106" s="17">
-        <v>374111</v>
+        <v>398520</v>
       </c>
       <c r="F106" s="17">
-        <v>407109</v>
+        <v>370029</v>
       </c>
       <c r="G106" s="17">
-        <v>398520</v>
+        <v>394798</v>
       </c>
       <c r="H106" s="17">
-        <v>370029</v>
+        <v>358349</v>
       </c>
       <c r="I106" s="17">
-        <v>394798</v>
+        <v>235936</v>
       </c>
       <c r="J106" s="17">
-        <v>358349</v>
+        <v>613756</v>
       </c>
       <c r="K106" s="17">
-        <v>235936</v>
+        <v>569584</v>
       </c>
       <c r="L106" s="17">
-        <v>613756</v>
+        <v>635878</v>
       </c>
       <c r="M106" s="17">
-        <v>569584</v>
+        <v>642517</v>
       </c>
       <c r="N106" s="17">
-        <v>635878</v>
+        <v>683351</v>
       </c>
       <c r="O106" s="17">
-        <v>642517</v>
+        <v>697723</v>
       </c>
       <c r="P106" s="17">
-        <v>683351</v>
+        <v>736390</v>
       </c>
       <c r="Q106" s="17">
-        <v>697723</v>
+        <v>729312</v>
       </c>
       <c r="R106" s="17">
-        <v>736390</v>
+        <v>733533</v>
       </c>
       <c r="S106" s="17">
-        <v>729312</v>
+        <v>729175</v>
       </c>
       <c r="T106" s="17">
-        <v>733533</v>
+        <v>724284</v>
       </c>
       <c r="U106" s="17">
-        <v>729175</v>
+        <v>364763</v>
       </c>
       <c r="V106" s="17">
-        <v>724284</v>
+        <v>800181</v>
       </c>
       <c r="W106" s="17">
-        <v>364763</v>
+        <v>771123</v>
       </c>
       <c r="X106" s="17">
-        <v>800181</v>
+        <v>800829</v>
       </c>
       <c r="Y106" s="17">
-        <v>771123</v>
+        <v>863484</v>
       </c>
       <c r="Z106" s="17">
-        <v>800829</v>
+        <v>968974</v>
       </c>
       <c r="AA106" s="17">
-        <v>863484</v>
+        <v>932560</v>
       </c>
       <c r="AB106" s="17">
-        <v>968974</v>
+        <v>920578</v>
       </c>
       <c r="AC106" s="17">
-        <v>932560</v>
+        <v>1009226</v>
       </c>
       <c r="AD106" s="17">
-        <v>920578</v>
+        <v>973625</v>
       </c>
       <c r="AE106" s="17">
-        <v>1009226</v>
+        <v>950443</v>
       </c>
       <c r="AF106" s="17">
-        <v>973625</v>
+        <v>965883</v>
       </c>
       <c r="AG106" s="17">
-        <v>950443</v>
+        <v>438678</v>
       </c>
       <c r="AH106" s="17">
-        <v>965883</v>
+        <v>963823</v>
       </c>
       <c r="AI106" s="17">
-        <v>438678</v>
+        <v>1030238</v>
       </c>
       <c r="AJ106" s="17">
-        <v>963823</v>
+        <v>1200385</v>
       </c>
       <c r="AK106" s="17">
-        <v>1030238</v>
+        <v>2240801</v>
       </c>
       <c r="AL106" s="17">
-        <v>1200385</v>
+        <v>3403953</v>
       </c>
       <c r="AM106" s="17">
-        <v>2240801</v>
+        <v>2810073</v>
       </c>
       <c r="AN106" s="17">
-        <v>3403953</v>
+        <v>2250170</v>
       </c>
       <c r="AO106" s="17">
-        <v>2810073</v>
+        <v>2221823</v>
       </c>
       <c r="AP106" s="17">
-        <v>2250170</v>
+        <v>1700528</v>
       </c>
       <c r="AQ106" s="17">
-        <v>2221823</v>
+        <v>1453803</v>
       </c>
       <c r="AR106" s="17">
-        <v>1700528</v>
+        <v>1402405</v>
       </c>
       <c r="AS106" s="17">
-        <v>1453803</v>
+        <v>493736</v>
       </c>
       <c r="AT106" s="17">
-        <v>1402405</v>
+        <v>1530676</v>
       </c>
       <c r="AU106" s="17">
-        <v>493736</v>
+        <v>2098764</v>
       </c>
       <c r="AV106" s="17">
-        <v>1530676</v>
+        <v>2000105</v>
       </c>
       <c r="AW106" s="17">
-        <v>2098764</v>
+        <v>1716043</v>
       </c>
       <c r="AX106" s="17">
-        <v>2000105</v>
+        <v>2337824</v>
       </c>
       <c r="AY106" s="17">
-        <v>1716043</v>
+        <v>2169737</v>
       </c>
       <c r="AZ106" s="17">
-        <v>2337824</v>
+        <v>2187010</v>
       </c>
       <c r="BA106" s="17">
-        <v>2169737</v>
+        <v>2432869</v>
       </c>
       <c r="BB106" s="17">
-        <v>2187010</v>
+        <v>2407362</v>
       </c>
     </row>
     <row r="107" spans="2:54" x14ac:dyDescent="0.3">
@@ -15494,25 +15494,25 @@
       </c>
       <c r="D113" s="11"/>
       <c r="E113" s="11">
-        <v>40385</v>
+        <v>32339</v>
       </c>
       <c r="F113" s="11">
-        <v>45008</v>
+        <v>28480</v>
       </c>
       <c r="G113" s="11">
-        <v>32339</v>
+        <v>37537</v>
       </c>
       <c r="H113" s="11">
-        <v>28480</v>
+        <v>46199</v>
       </c>
       <c r="I113" s="11">
-        <v>37537</v>
-      </c>
-      <c r="J113" s="11">
-        <v>46199</v>
-      </c>
-      <c r="K113" s="11">
         <v>82243</v>
+      </c>
+      <c r="J113" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K113" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="L113" s="11" t="s">
         <v>57</v>
@@ -15653,25 +15653,25 @@
       </c>
       <c r="D114" s="13"/>
       <c r="E114" s="13">
-        <v>8410</v>
+        <v>11402</v>
       </c>
       <c r="F114" s="13">
-        <v>8407</v>
+        <v>7037</v>
       </c>
       <c r="G114" s="13">
-        <v>11402</v>
+        <v>8953</v>
       </c>
       <c r="H114" s="13">
-        <v>7037</v>
+        <v>11134</v>
       </c>
       <c r="I114" s="13">
-        <v>8953</v>
-      </c>
-      <c r="J114" s="13">
-        <v>11134</v>
-      </c>
-      <c r="K114" s="13">
         <v>12160</v>
+      </c>
+      <c r="J114" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K114" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="L114" s="13" t="s">
         <v>57</v>
@@ -15812,25 +15812,25 @@
       </c>
       <c r="D115" s="11"/>
       <c r="E115" s="11">
-        <v>15496</v>
+        <v>17448</v>
       </c>
       <c r="F115" s="11">
-        <v>14747</v>
+        <v>16187</v>
       </c>
       <c r="G115" s="11">
-        <v>17448</v>
+        <v>20014</v>
       </c>
       <c r="H115" s="11">
-        <v>16187</v>
+        <v>18862</v>
       </c>
       <c r="I115" s="11">
-        <v>20014</v>
-      </c>
-      <c r="J115" s="11">
-        <v>18862</v>
-      </c>
-      <c r="K115" s="11">
         <v>28398</v>
+      </c>
+      <c r="J115" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K115" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="L115" s="11" t="s">
         <v>57</v>
@@ -15985,140 +15985,140 @@
       <c r="I116" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J116" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="K116" s="13" t="s">
-        <v>57</v>
+      <c r="J116" s="13">
+        <v>45477</v>
+      </c>
+      <c r="K116" s="13">
+        <v>46972</v>
       </c>
       <c r="L116" s="13">
-        <v>45477</v>
+        <v>58402</v>
       </c>
       <c r="M116" s="13">
-        <v>46972</v>
+        <v>72790</v>
       </c>
       <c r="N116" s="13">
-        <v>58402</v>
+        <v>43627</v>
       </c>
       <c r="O116" s="13">
-        <v>72790</v>
+        <v>70098</v>
       </c>
       <c r="P116" s="13">
-        <v>43627</v>
+        <v>294433</v>
       </c>
       <c r="Q116" s="13">
-        <v>70098</v>
+        <v>48704</v>
       </c>
       <c r="R116" s="13">
-        <v>294433</v>
+        <v>62764</v>
       </c>
       <c r="S116" s="13">
-        <v>48704</v>
+        <v>68535</v>
       </c>
       <c r="T116" s="13">
-        <v>62764</v>
+        <v>70989</v>
       </c>
       <c r="U116" s="13">
-        <v>68535</v>
+        <v>70855</v>
       </c>
       <c r="V116" s="13">
-        <v>70989</v>
+        <v>72896</v>
       </c>
       <c r="W116" s="13">
-        <v>70855</v>
+        <v>80520</v>
       </c>
       <c r="X116" s="13">
-        <v>72896</v>
+        <v>60200</v>
       </c>
       <c r="Y116" s="13">
-        <v>80520</v>
+        <v>77764</v>
       </c>
       <c r="Z116" s="13">
-        <v>60200</v>
+        <v>77933</v>
       </c>
       <c r="AA116" s="13">
-        <v>77764</v>
+        <v>78778</v>
       </c>
       <c r="AB116" s="13">
-        <v>77933</v>
+        <v>91678</v>
       </c>
       <c r="AC116" s="13">
-        <v>78778</v>
+        <v>93402</v>
       </c>
       <c r="AD116" s="13">
-        <v>91678</v>
+        <v>107151</v>
       </c>
       <c r="AE116" s="13">
-        <v>93402</v>
+        <v>170456</v>
       </c>
       <c r="AF116" s="13">
-        <v>107151</v>
+        <v>134030</v>
       </c>
       <c r="AG116" s="13">
-        <v>170456</v>
+        <v>4727</v>
       </c>
       <c r="AH116" s="13">
-        <v>134030</v>
+        <v>109888</v>
       </c>
       <c r="AI116" s="13">
-        <v>4727</v>
+        <v>99615</v>
       </c>
       <c r="AJ116" s="13">
-        <v>109888</v>
+        <v>136295</v>
       </c>
       <c r="AK116" s="13">
-        <v>99615</v>
+        <v>118729</v>
       </c>
       <c r="AL116" s="13">
-        <v>136295</v>
+        <v>114352</v>
       </c>
       <c r="AM116" s="13">
-        <v>118729</v>
+        <v>120793</v>
       </c>
       <c r="AN116" s="13">
-        <v>114352</v>
+        <v>96822</v>
       </c>
       <c r="AO116" s="13">
-        <v>120793</v>
+        <v>93823</v>
       </c>
       <c r="AP116" s="13">
-        <v>96822</v>
+        <v>94256</v>
       </c>
       <c r="AQ116" s="13">
-        <v>93823</v>
+        <v>103643</v>
       </c>
       <c r="AR116" s="13">
-        <v>94256</v>
+        <v>89190</v>
       </c>
       <c r="AS116" s="13">
-        <v>103643</v>
+        <v>153725</v>
       </c>
       <c r="AT116" s="13">
-        <v>89190</v>
+        <v>97238</v>
       </c>
       <c r="AU116" s="13">
-        <v>153725</v>
+        <v>112329</v>
       </c>
       <c r="AV116" s="13">
-        <v>97238</v>
+        <v>105700</v>
       </c>
       <c r="AW116" s="13">
-        <v>112329</v>
+        <v>140208</v>
       </c>
       <c r="AX116" s="13">
-        <v>105700</v>
+        <v>168415</v>
       </c>
       <c r="AY116" s="13">
-        <v>121701</v>
+        <v>179182</v>
       </c>
       <c r="AZ116" s="13">
-        <v>168415</v>
+        <v>192139</v>
       </c>
       <c r="BA116" s="13">
-        <v>179182</v>
+        <v>207219</v>
       </c>
       <c r="BB116" s="13">
-        <v>192139</v>
+        <v>184540</v>
       </c>
     </row>
     <row r="117" spans="2:54" x14ac:dyDescent="0.3">
@@ -16150,50 +16150,50 @@
       <c r="K117" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="L117" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="M117" s="11" t="s">
-        <v>57</v>
+      <c r="L117" s="11">
+        <v>18999</v>
+      </c>
+      <c r="M117" s="11">
+        <v>0</v>
       </c>
       <c r="N117" s="11">
         <v>18999</v>
       </c>
       <c r="O117" s="11">
-        <v>0</v>
+        <v>16110</v>
       </c>
       <c r="P117" s="11">
-        <v>18999</v>
+        <v>16421</v>
       </c>
       <c r="Q117" s="11">
-        <v>16110</v>
+        <v>27500</v>
       </c>
       <c r="R117" s="11">
-        <v>16421</v>
+        <v>24120</v>
       </c>
       <c r="S117" s="11">
-        <v>27500</v>
+        <v>19843</v>
       </c>
       <c r="T117" s="11">
-        <v>24120</v>
+        <v>36227</v>
       </c>
       <c r="U117" s="11">
-        <v>19843</v>
+        <v>24320</v>
       </c>
       <c r="V117" s="11">
-        <v>36227</v>
+        <v>34185</v>
       </c>
       <c r="W117" s="11">
-        <v>24320</v>
+        <v>26316</v>
       </c>
       <c r="X117" s="11">
-        <v>34185</v>
-      </c>
-      <c r="Y117" s="11">
-        <v>26316</v>
-      </c>
-      <c r="Z117" s="11">
         <v>27001</v>
+      </c>
+      <c r="Y117" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z117" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AA117" s="11" t="s">
         <v>57</v>
@@ -16292,22 +16292,22 @@
         <v>0</v>
       </c>
       <c r="F118" s="13">
-        <v>0</v>
+        <v>19000</v>
       </c>
       <c r="G118" s="13">
         <v>0</v>
       </c>
       <c r="H118" s="13">
-        <v>19000</v>
+        <v>0</v>
       </c>
       <c r="I118" s="13">
-        <v>0</v>
-      </c>
-      <c r="J118" s="13">
-        <v>0</v>
-      </c>
-      <c r="K118" s="13">
         <v>25099</v>
+      </c>
+      <c r="J118" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K118" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="L118" s="13" t="s">
         <v>57</v>
@@ -16462,140 +16462,140 @@
       <c r="I119" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="J119" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="K119" s="11" t="s">
-        <v>57</v>
+      <c r="J119" s="11">
+        <v>1475</v>
+      </c>
+      <c r="K119" s="11">
+        <v>1508</v>
       </c>
       <c r="L119" s="11">
-        <v>1475</v>
+        <v>1484</v>
       </c>
       <c r="M119" s="11">
-        <v>1508</v>
+        <v>1829</v>
       </c>
       <c r="N119" s="11">
-        <v>1484</v>
+        <v>1598</v>
       </c>
       <c r="O119" s="11">
-        <v>1829</v>
+        <v>2133</v>
       </c>
       <c r="P119" s="11">
-        <v>1598</v>
+        <v>1866</v>
       </c>
       <c r="Q119" s="11">
-        <v>2133</v>
+        <v>1796</v>
       </c>
       <c r="R119" s="11">
-        <v>1866</v>
+        <v>2149</v>
       </c>
       <c r="S119" s="11">
-        <v>1796</v>
+        <v>1693</v>
       </c>
       <c r="T119" s="11">
-        <v>2149</v>
+        <v>2045</v>
       </c>
       <c r="U119" s="11">
-        <v>1693</v>
+        <v>1852</v>
       </c>
       <c r="V119" s="11">
-        <v>2045</v>
+        <v>1873</v>
       </c>
       <c r="W119" s="11">
-        <v>1852</v>
+        <v>1889</v>
       </c>
       <c r="X119" s="11">
-        <v>1873</v>
+        <v>2173</v>
       </c>
       <c r="Y119" s="11">
-        <v>1889</v>
+        <v>1798</v>
       </c>
       <c r="Z119" s="11">
-        <v>2173</v>
+        <v>1609</v>
       </c>
       <c r="AA119" s="11">
-        <v>1798</v>
+        <v>2163</v>
       </c>
       <c r="AB119" s="11">
-        <v>1609</v>
+        <v>2613</v>
       </c>
       <c r="AC119" s="11">
-        <v>2163</v>
+        <v>2638</v>
       </c>
       <c r="AD119" s="11">
-        <v>2613</v>
+        <v>3209</v>
       </c>
       <c r="AE119" s="11">
-        <v>2638</v>
+        <v>2968</v>
       </c>
       <c r="AF119" s="11">
-        <v>3209</v>
+        <v>3089</v>
       </c>
       <c r="AG119" s="11">
-        <v>2968</v>
+        <v>836</v>
       </c>
       <c r="AH119" s="11">
-        <v>3089</v>
+        <v>2896</v>
       </c>
       <c r="AI119" s="11">
-        <v>836</v>
+        <v>3090</v>
       </c>
       <c r="AJ119" s="11">
-        <v>2896</v>
+        <v>3400</v>
       </c>
       <c r="AK119" s="11">
-        <v>3090</v>
+        <v>2912</v>
       </c>
       <c r="AL119" s="11">
-        <v>3400</v>
+        <v>3319</v>
       </c>
       <c r="AM119" s="11">
-        <v>2912</v>
+        <v>2869</v>
       </c>
       <c r="AN119" s="11">
-        <v>3319</v>
+        <v>3690</v>
       </c>
       <c r="AO119" s="11">
-        <v>2869</v>
+        <v>3278</v>
       </c>
       <c r="AP119" s="11">
-        <v>3690</v>
+        <v>3886</v>
       </c>
       <c r="AQ119" s="11">
-        <v>3278</v>
+        <v>3470</v>
       </c>
       <c r="AR119" s="11">
-        <v>3886</v>
+        <v>3671</v>
       </c>
       <c r="AS119" s="11">
-        <v>3470</v>
+        <v>-1526</v>
       </c>
       <c r="AT119" s="11">
-        <v>3671</v>
+        <v>4391</v>
       </c>
       <c r="AU119" s="11">
-        <v>-1526</v>
+        <v>3618</v>
       </c>
       <c r="AV119" s="11">
-        <v>4391</v>
+        <v>3501</v>
       </c>
       <c r="AW119" s="11">
-        <v>3618</v>
+        <v>4668</v>
       </c>
       <c r="AX119" s="11">
-        <v>3501</v>
+        <v>7495</v>
       </c>
       <c r="AY119" s="11">
-        <v>3582</v>
+        <v>6459</v>
       </c>
       <c r="AZ119" s="11">
-        <v>7495</v>
+        <v>6452</v>
       </c>
       <c r="BA119" s="11">
-        <v>6459</v>
+        <v>6112</v>
       </c>
       <c r="BB119" s="11">
-        <v>6452</v>
+        <v>7417</v>
       </c>
     </row>
     <row r="120" spans="2:54" x14ac:dyDescent="0.3">
@@ -16607,25 +16607,25 @@
       </c>
       <c r="D120" s="13"/>
       <c r="E120" s="13">
-        <v>5730</v>
+        <v>4480</v>
       </c>
       <c r="F120" s="13">
         <v>0</v>
       </c>
       <c r="G120" s="13">
-        <v>4480</v>
+        <v>5635</v>
       </c>
       <c r="H120" s="13">
+        <v>5855</v>
+      </c>
+      <c r="I120" s="13">
         <v>0</v>
       </c>
-      <c r="I120" s="13">
-        <v>5635</v>
-      </c>
-      <c r="J120" s="13">
-        <v>5855</v>
-      </c>
-      <c r="K120" s="13">
-        <v>0</v>
+      <c r="J120" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K120" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="L120" s="13" t="s">
         <v>57</v>
@@ -16766,25 +16766,25 @@
       </c>
       <c r="D121" s="11"/>
       <c r="E121" s="11">
-        <v>970</v>
+        <v>1151</v>
       </c>
       <c r="F121" s="11">
-        <v>1058</v>
+        <v>1153</v>
       </c>
       <c r="G121" s="11">
-        <v>1151</v>
+        <v>975</v>
       </c>
       <c r="H121" s="11">
-        <v>1153</v>
+        <v>1221</v>
       </c>
       <c r="I121" s="11">
-        <v>975</v>
-      </c>
-      <c r="J121" s="11">
-        <v>1221</v>
-      </c>
-      <c r="K121" s="11">
         <v>2408</v>
+      </c>
+      <c r="J121" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K121" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="L121" s="11" t="s">
         <v>57</v>
@@ -16925,25 +16925,25 @@
       </c>
       <c r="D122" s="13"/>
       <c r="E122" s="13">
-        <v>340473</v>
+        <v>0</v>
       </c>
       <c r="F122" s="13">
-        <v>297547</v>
+        <v>334617</v>
       </c>
       <c r="G122" s="13">
-        <v>0</v>
+        <v>341695</v>
       </c>
       <c r="H122" s="13">
-        <v>334617</v>
+        <v>341697</v>
       </c>
       <c r="I122" s="13">
-        <v>341695</v>
-      </c>
-      <c r="J122" s="13">
-        <v>341697</v>
-      </c>
-      <c r="K122" s="13">
         <v>315579</v>
+      </c>
+      <c r="J122" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K122" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="L122" s="13" t="s">
         <v>57</v>
@@ -17084,25 +17084,25 @@
       </c>
       <c r="D123" s="11"/>
       <c r="E123" s="11">
-        <v>34361</v>
+        <v>41178</v>
       </c>
       <c r="F123" s="11">
-        <v>38431</v>
+        <v>43278</v>
       </c>
       <c r="G123" s="11">
-        <v>41178</v>
+        <v>70393</v>
       </c>
       <c r="H123" s="11">
-        <v>43278</v>
+        <v>96895</v>
       </c>
       <c r="I123" s="11">
-        <v>70393</v>
-      </c>
-      <c r="J123" s="11">
-        <v>96895</v>
-      </c>
-      <c r="K123" s="11">
         <v>0</v>
+      </c>
+      <c r="J123" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K123" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="L123" s="11" t="s">
         <v>57</v>
@@ -17243,25 +17243,25 @@
       </c>
       <c r="D124" s="13"/>
       <c r="E124" s="13">
-        <v>24807</v>
+        <v>53312</v>
       </c>
       <c r="F124" s="13">
-        <v>33511</v>
+        <v>38480</v>
       </c>
       <c r="G124" s="13">
-        <v>53312</v>
+        <v>38977</v>
       </c>
       <c r="H124" s="13">
-        <v>38480</v>
+        <v>38535</v>
       </c>
       <c r="I124" s="13">
-        <v>38977</v>
-      </c>
-      <c r="J124" s="13">
-        <v>38535</v>
-      </c>
-      <c r="K124" s="13">
         <v>48416</v>
+      </c>
+      <c r="J124" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K124" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="L124" s="13" t="s">
         <v>57</v>
@@ -17402,25 +17402,25 @@
       </c>
       <c r="D125" s="11"/>
       <c r="E125" s="11">
-        <v>6372</v>
+        <v>6924</v>
       </c>
       <c r="F125" s="11">
-        <v>6470</v>
+        <v>2988</v>
       </c>
       <c r="G125" s="11">
-        <v>6924</v>
+        <v>23538</v>
       </c>
       <c r="H125" s="11">
-        <v>2988</v>
+        <v>4575</v>
       </c>
       <c r="I125" s="11">
-        <v>23538</v>
-      </c>
-      <c r="J125" s="11">
-        <v>4575</v>
-      </c>
-      <c r="K125" s="11">
         <v>6623</v>
+      </c>
+      <c r="J125" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K125" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="L125" s="11" t="s">
         <v>57</v>
@@ -17561,25 +17561,25 @@
       </c>
       <c r="D126" s="13"/>
       <c r="E126" s="13">
-        <v>26402</v>
+        <v>42803</v>
       </c>
       <c r="F126" s="13">
-        <v>44437</v>
+        <v>36011</v>
       </c>
       <c r="G126" s="13">
-        <v>42803</v>
+        <v>45049</v>
       </c>
       <c r="H126" s="13">
-        <v>36011</v>
+        <v>45910</v>
       </c>
       <c r="I126" s="13">
-        <v>45049</v>
-      </c>
-      <c r="J126" s="13">
-        <v>45910</v>
-      </c>
-      <c r="K126" s="13">
         <v>46071</v>
+      </c>
+      <c r="J126" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K126" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="L126" s="13" t="s">
         <v>57</v>
@@ -17720,25 +17720,25 @@
       </c>
       <c r="D127" s="11"/>
       <c r="E127" s="11">
-        <v>3041</v>
+        <v>2557</v>
       </c>
       <c r="F127" s="11">
-        <v>2343</v>
+        <v>2818</v>
       </c>
       <c r="G127" s="11">
-        <v>2557</v>
+        <v>2580</v>
       </c>
       <c r="H127" s="11">
-        <v>2818</v>
+        <v>2568</v>
       </c>
       <c r="I127" s="11">
-        <v>2580</v>
-      </c>
-      <c r="J127" s="11">
-        <v>2568</v>
-      </c>
-      <c r="K127" s="11">
         <v>6574</v>
+      </c>
+      <c r="J127" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K127" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="L127" s="11" t="s">
         <v>57</v>
@@ -17879,25 +17879,25 @@
       </c>
       <c r="D128" s="13"/>
       <c r="E128" s="13">
-        <v>142593</v>
+        <v>154923</v>
       </c>
       <c r="F128" s="13">
-        <v>132921</v>
+        <v>134391</v>
       </c>
       <c r="G128" s="13">
-        <v>154923</v>
+        <v>142588</v>
       </c>
       <c r="H128" s="13">
-        <v>134391</v>
+        <v>145428</v>
       </c>
       <c r="I128" s="13">
-        <v>142588</v>
-      </c>
-      <c r="J128" s="13">
-        <v>145428</v>
-      </c>
-      <c r="K128" s="13">
         <v>0</v>
+      </c>
+      <c r="J128" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K128" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="L128" s="13" t="s">
         <v>57</v>
@@ -18038,25 +18038,25 @@
       </c>
       <c r="D129" s="11"/>
       <c r="E129" s="11">
-        <v>8465</v>
+        <v>4658</v>
       </c>
       <c r="F129" s="11">
         <v>0</v>
       </c>
       <c r="G129" s="11">
-        <v>4658</v>
+        <v>6896</v>
       </c>
       <c r="H129" s="11">
         <v>0</v>
       </c>
       <c r="I129" s="11">
-        <v>6896</v>
-      </c>
-      <c r="J129" s="11">
-        <v>0</v>
-      </c>
-      <c r="K129" s="11">
         <v>43529</v>
+      </c>
+      <c r="J129" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K129" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="L129" s="11" t="s">
         <v>57</v>
@@ -18197,7 +18197,7 @@
       </c>
       <c r="D130" s="13"/>
       <c r="E130" s="13">
-        <v>2329918</v>
+        <v>0</v>
       </c>
       <c r="F130" s="13">
         <v>0</v>
@@ -18211,11 +18211,11 @@
       <c r="I130" s="13">
         <v>0</v>
       </c>
-      <c r="J130" s="13">
-        <v>0</v>
-      </c>
-      <c r="K130" s="13">
-        <v>0</v>
+      <c r="J130" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K130" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="L130" s="13" t="s">
         <v>57</v>
@@ -18356,25 +18356,25 @@
       </c>
       <c r="D131" s="11"/>
       <c r="E131" s="11">
-        <v>40062</v>
+        <v>40902</v>
       </c>
       <c r="F131" s="11">
-        <v>37778</v>
+        <v>33189</v>
       </c>
       <c r="G131" s="11">
-        <v>40902</v>
+        <v>36848</v>
       </c>
       <c r="H131" s="11">
-        <v>33189</v>
+        <v>35991</v>
       </c>
       <c r="I131" s="11">
-        <v>36848</v>
-      </c>
-      <c r="J131" s="11">
-        <v>35991</v>
-      </c>
-      <c r="K131" s="11">
         <v>82170</v>
+      </c>
+      <c r="J131" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K131" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="L131" s="11" t="s">
         <v>57</v>
@@ -18529,140 +18529,140 @@
       <c r="I132" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J132" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="K132" s="13" t="s">
-        <v>57</v>
+      <c r="J132" s="13">
+        <v>29606</v>
+      </c>
+      <c r="K132" s="13">
+        <v>25266</v>
       </c>
       <c r="L132" s="13">
-        <v>29606</v>
+        <v>27250</v>
       </c>
       <c r="M132" s="13">
-        <v>25266</v>
+        <v>26024</v>
       </c>
       <c r="N132" s="13">
-        <v>27250</v>
+        <v>28565</v>
       </c>
       <c r="O132" s="13">
-        <v>26024</v>
+        <v>27527</v>
       </c>
       <c r="P132" s="13">
-        <v>28565</v>
+        <v>26506</v>
       </c>
       <c r="Q132" s="13">
-        <v>27527</v>
+        <v>26311</v>
       </c>
       <c r="R132" s="13">
-        <v>26506</v>
+        <v>28114</v>
       </c>
       <c r="S132" s="13">
-        <v>26311</v>
+        <v>26035</v>
       </c>
       <c r="T132" s="13">
-        <v>28114</v>
+        <v>23600</v>
       </c>
       <c r="U132" s="13">
-        <v>26035</v>
+        <v>22169</v>
       </c>
       <c r="V132" s="13">
-        <v>23600</v>
+        <v>28278</v>
       </c>
       <c r="W132" s="13">
-        <v>22169</v>
+        <v>26776</v>
       </c>
       <c r="X132" s="13">
-        <v>28278</v>
+        <v>33566</v>
       </c>
       <c r="Y132" s="13">
-        <v>26776</v>
+        <v>34644</v>
       </c>
       <c r="Z132" s="13">
-        <v>33566</v>
+        <v>33007</v>
       </c>
       <c r="AA132" s="13">
-        <v>34644</v>
+        <v>39307</v>
       </c>
       <c r="AB132" s="13">
-        <v>33007</v>
+        <v>31259</v>
       </c>
       <c r="AC132" s="13">
-        <v>39307</v>
+        <v>33755</v>
       </c>
       <c r="AD132" s="13">
-        <v>31259</v>
+        <v>41346</v>
       </c>
       <c r="AE132" s="13">
-        <v>33755</v>
+        <v>43858</v>
       </c>
       <c r="AF132" s="13">
-        <v>41346</v>
+        <v>37530</v>
       </c>
       <c r="AG132" s="13">
-        <v>43858</v>
+        <v>59818</v>
       </c>
       <c r="AH132" s="13">
-        <v>37530</v>
+        <v>51855</v>
       </c>
       <c r="AI132" s="13">
-        <v>59818</v>
+        <v>34360</v>
       </c>
       <c r="AJ132" s="13">
-        <v>51855</v>
+        <v>44720</v>
       </c>
       <c r="AK132" s="13">
-        <v>34360</v>
+        <v>92682</v>
       </c>
       <c r="AL132" s="13">
-        <v>44720</v>
+        <v>162521</v>
       </c>
       <c r="AM132" s="13">
-        <v>92682</v>
+        <v>161951</v>
       </c>
       <c r="AN132" s="13">
-        <v>162521</v>
+        <v>78714</v>
       </c>
       <c r="AO132" s="13">
-        <v>161951</v>
+        <v>82603</v>
       </c>
       <c r="AP132" s="13">
-        <v>78714</v>
+        <v>49639</v>
       </c>
       <c r="AQ132" s="13">
-        <v>82603</v>
+        <v>51019</v>
       </c>
       <c r="AR132" s="13">
-        <v>49639</v>
+        <v>48273</v>
       </c>
       <c r="AS132" s="13">
-        <v>51019</v>
+        <v>61889</v>
       </c>
       <c r="AT132" s="13">
-        <v>48273</v>
+        <v>76062</v>
       </c>
       <c r="AU132" s="13">
-        <v>61889</v>
+        <v>64203</v>
       </c>
       <c r="AV132" s="13">
-        <v>76062</v>
+        <v>75346</v>
       </c>
       <c r="AW132" s="13">
-        <v>64203</v>
+        <v>61177</v>
       </c>
       <c r="AX132" s="13">
-        <v>75346</v>
+        <v>104179</v>
       </c>
       <c r="AY132" s="13">
-        <v>60274</v>
+        <v>106696</v>
       </c>
       <c r="AZ132" s="13">
-        <v>104179</v>
+        <v>62604</v>
       </c>
       <c r="BA132" s="13">
-        <v>106696</v>
+        <v>75807</v>
       </c>
       <c r="BB132" s="13">
-        <v>62604</v>
+        <v>97943</v>
       </c>
     </row>
     <row r="133" spans="2:54" x14ac:dyDescent="0.3">
@@ -18688,140 +18688,140 @@
       <c r="I133" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="J133" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="K133" s="11" t="s">
-        <v>57</v>
+      <c r="J133" s="11">
+        <v>28893</v>
+      </c>
+      <c r="K133" s="11">
+        <v>21820</v>
       </c>
       <c r="L133" s="11">
-        <v>28893</v>
+        <v>33702</v>
       </c>
       <c r="M133" s="11">
-        <v>21820</v>
+        <v>26023</v>
       </c>
       <c r="N133" s="11">
-        <v>33702</v>
+        <v>27310</v>
       </c>
       <c r="O133" s="11">
-        <v>26023</v>
+        <v>30955</v>
       </c>
       <c r="P133" s="11">
-        <v>27310</v>
+        <v>31986</v>
       </c>
       <c r="Q133" s="11">
-        <v>30955</v>
+        <v>41659</v>
       </c>
       <c r="R133" s="11">
-        <v>31986</v>
+        <v>26064</v>
       </c>
       <c r="S133" s="11">
-        <v>41659</v>
+        <v>20565</v>
       </c>
       <c r="T133" s="11">
-        <v>26064</v>
+        <v>29437</v>
       </c>
       <c r="U133" s="11">
-        <v>20565</v>
+        <v>35715</v>
       </c>
       <c r="V133" s="11">
-        <v>29437</v>
+        <v>25732</v>
       </c>
       <c r="W133" s="11">
-        <v>35715</v>
+        <v>59041</v>
       </c>
       <c r="X133" s="11">
-        <v>25732</v>
+        <v>15632</v>
       </c>
       <c r="Y133" s="11">
-        <v>59041</v>
+        <v>19414</v>
       </c>
       <c r="Z133" s="11">
-        <v>15632</v>
+        <v>32844</v>
       </c>
       <c r="AA133" s="11">
-        <v>19414</v>
+        <v>34009</v>
       </c>
       <c r="AB133" s="11">
-        <v>32844</v>
+        <v>14625</v>
       </c>
       <c r="AC133" s="11">
-        <v>34009</v>
+        <v>20477</v>
       </c>
       <c r="AD133" s="11">
-        <v>14625</v>
+        <v>19244</v>
       </c>
       <c r="AE133" s="11">
-        <v>20477</v>
+        <v>32552</v>
       </c>
       <c r="AF133" s="11">
-        <v>19244</v>
+        <v>22360</v>
       </c>
       <c r="AG133" s="11">
-        <v>32552</v>
+        <v>50776</v>
       </c>
       <c r="AH133" s="11">
-        <v>22360</v>
+        <v>31877</v>
       </c>
       <c r="AI133" s="11">
-        <v>50776</v>
+        <v>33814</v>
       </c>
       <c r="AJ133" s="11">
-        <v>31877</v>
+        <v>66411</v>
       </c>
       <c r="AK133" s="11">
-        <v>33814</v>
+        <v>66374</v>
       </c>
       <c r="AL133" s="11">
-        <v>66411</v>
+        <v>47223</v>
       </c>
       <c r="AM133" s="11">
-        <v>66374</v>
+        <v>28370</v>
       </c>
       <c r="AN133" s="11">
-        <v>47223</v>
+        <v>35891</v>
       </c>
       <c r="AO133" s="11">
-        <v>28370</v>
+        <v>23230</v>
       </c>
       <c r="AP133" s="11">
-        <v>35891</v>
+        <v>36803</v>
       </c>
       <c r="AQ133" s="11">
-        <v>23230</v>
+        <v>29851</v>
       </c>
       <c r="AR133" s="11">
-        <v>36803</v>
+        <v>38868</v>
       </c>
       <c r="AS133" s="11">
-        <v>29851</v>
+        <v>33636</v>
       </c>
       <c r="AT133" s="11">
-        <v>38868</v>
+        <v>30890</v>
       </c>
       <c r="AU133" s="11">
-        <v>33636</v>
+        <v>39700</v>
       </c>
       <c r="AV133" s="11">
-        <v>30890</v>
+        <v>44524</v>
       </c>
       <c r="AW133" s="11">
-        <v>39700</v>
+        <v>48176</v>
       </c>
       <c r="AX133" s="11">
-        <v>44524</v>
+        <v>98873</v>
       </c>
       <c r="AY133" s="11">
-        <v>48176</v>
+        <v>52576</v>
       </c>
       <c r="AZ133" s="11">
-        <v>98873</v>
+        <v>53804</v>
       </c>
       <c r="BA133" s="11">
-        <v>52576</v>
+        <v>81456</v>
       </c>
       <c r="BB133" s="11">
-        <v>53804</v>
+        <v>74252</v>
       </c>
     </row>
     <row r="134" spans="2:54" x14ac:dyDescent="0.3">
@@ -18949,38 +18949,38 @@
       <c r="X135" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y135" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z135" s="11" t="s">
-        <v>57</v>
+      <c r="Y135" s="11">
+        <v>22370</v>
+      </c>
+      <c r="Z135" s="11">
+        <v>49570</v>
       </c>
       <c r="AA135" s="11">
-        <v>22370</v>
+        <v>36692</v>
       </c>
       <c r="AB135" s="11">
-        <v>49570</v>
+        <v>38915</v>
       </c>
       <c r="AC135" s="11">
-        <v>36692</v>
+        <v>39195</v>
       </c>
       <c r="AD135" s="11">
-        <v>38915</v>
+        <v>45026</v>
       </c>
       <c r="AE135" s="11">
-        <v>39195</v>
+        <v>43167</v>
       </c>
       <c r="AF135" s="11">
-        <v>45026</v>
+        <v>55862</v>
       </c>
       <c r="AG135" s="11">
-        <v>43167</v>
-      </c>
-      <c r="AH135" s="11">
-        <v>55862</v>
-      </c>
-      <c r="AI135" s="11">
         <v>44690</v>
+      </c>
+      <c r="AH135" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI135" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AJ135" s="11" t="s">
         <v>57</v>
@@ -19135,68 +19135,68 @@
       <c r="AG136" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AH136" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI136" s="13" t="s">
-        <v>57</v>
+      <c r="AH136" s="13">
+        <v>45001</v>
+      </c>
+      <c r="AI136" s="13">
+        <v>43703</v>
       </c>
       <c r="AJ136" s="13">
-        <v>45001</v>
+        <v>35865</v>
       </c>
       <c r="AK136" s="13">
-        <v>43703</v>
+        <v>47500</v>
       </c>
       <c r="AL136" s="13">
-        <v>35865</v>
+        <v>30234</v>
       </c>
       <c r="AM136" s="13">
-        <v>47500</v>
+        <v>47213</v>
       </c>
       <c r="AN136" s="13">
-        <v>30234</v>
+        <v>16753</v>
       </c>
       <c r="AO136" s="13">
-        <v>47213</v>
+        <v>53716</v>
       </c>
       <c r="AP136" s="13">
-        <v>16753</v>
+        <v>42926</v>
       </c>
       <c r="AQ136" s="13">
-        <v>53716</v>
+        <v>12683</v>
       </c>
       <c r="AR136" s="13">
-        <v>42926</v>
+        <v>10301</v>
       </c>
       <c r="AS136" s="13">
-        <v>12683</v>
+        <v>142364</v>
       </c>
       <c r="AT136" s="13">
-        <v>10301</v>
+        <v>43456</v>
       </c>
       <c r="AU136" s="13">
-        <v>142364</v>
+        <v>14424</v>
       </c>
       <c r="AV136" s="13">
-        <v>43456</v>
+        <v>41045</v>
       </c>
       <c r="AW136" s="13">
-        <v>14424</v>
+        <v>57515</v>
       </c>
       <c r="AX136" s="13">
-        <v>41045</v>
+        <v>49093</v>
       </c>
       <c r="AY136" s="13">
-        <v>57515</v>
+        <v>9524</v>
       </c>
       <c r="AZ136" s="13">
-        <v>49093</v>
+        <v>14449</v>
       </c>
       <c r="BA136" s="13">
-        <v>9524</v>
+        <v>72026</v>
       </c>
       <c r="BB136" s="13">
-        <v>14449</v>
+        <v>16674</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/darou/delor/product/monthly.xlsx
+++ b/database/industries/darou/delor/product/monthly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\darou\delor\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\delor\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE1FC60-D547-4A90-A009-56B5ACD4D99D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{652E6373-3A72-4DB2-A341-012EDD3582D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3924" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4000" uniqueCount="94">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>دلر-داروسازی‌ اکسیر</t>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 8 منتهی به 1397/08</t>
-  </si>
-  <si>
-    <t>ماه 9 منتهی به 1397/09</t>
   </si>
   <si>
     <t>ماه 10 منتهی به 1397/10</t>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 9 منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>ماه 10 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 11 منتهی به 1401/11</t>
   </si>
   <si>
     <t>شربت</t>
@@ -784,12 +784,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -844,7 +844,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -901,7 +901,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -958,7 +958,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1013,7 +1013,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1070,7 +1070,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1127,7 +1127,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1182,7 +1182,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1339,7 +1339,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1394,7 +1394,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
@@ -1451,7 +1451,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>55</v>
       </c>
@@ -1460,20 +1460,20 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>980595</v>
+        <v>916227</v>
       </c>
       <c r="F11" s="11">
-        <v>1153289</v>
+        <v>948886</v>
       </c>
       <c r="G11" s="11">
-        <v>916227</v>
-      </c>
-      <c r="H11" s="11">
-        <v>948886</v>
-      </c>
-      <c r="I11" s="11">
         <v>998327</v>
       </c>
+      <c r="H11" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="J11" s="11" t="s">
         <v>57</v>
       </c>
@@ -1610,7 +1610,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>58</v>
       </c>
@@ -1619,20 +1619,20 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>1359900</v>
+        <v>1805950</v>
       </c>
       <c r="F12" s="13">
-        <v>1661540</v>
+        <v>1951200</v>
       </c>
       <c r="G12" s="13">
-        <v>1805950</v>
-      </c>
-      <c r="H12" s="13">
-        <v>1951200</v>
-      </c>
-      <c r="I12" s="13">
         <v>1244675</v>
       </c>
+      <c r="H12" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="J12" s="13" t="s">
         <v>57</v>
       </c>
@@ -1769,7 +1769,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>59</v>
       </c>
@@ -1778,20 +1778,20 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>7157324</v>
+        <v>7295449</v>
       </c>
       <c r="F13" s="11">
-        <v>5875042</v>
+        <v>8076108</v>
       </c>
       <c r="G13" s="11">
-        <v>7295449</v>
-      </c>
-      <c r="H13" s="11">
-        <v>8076108</v>
-      </c>
-      <c r="I13" s="11">
         <v>9463127</v>
       </c>
+      <c r="H13" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="J13" s="11" t="s">
         <v>57</v>
       </c>
@@ -1928,7 +1928,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>60</v>
       </c>
@@ -1945,149 +1945,149 @@
       <c r="G14" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="H14" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>57</v>
+      <c r="H14" s="13">
+        <v>640716</v>
+      </c>
+      <c r="I14" s="13">
+        <v>1068634</v>
       </c>
       <c r="J14" s="13">
-        <v>640716</v>
+        <v>1031945</v>
       </c>
       <c r="K14" s="13">
-        <v>1068634</v>
+        <v>772991</v>
       </c>
       <c r="L14" s="13">
-        <v>1031945</v>
+        <v>1853182</v>
       </c>
       <c r="M14" s="13">
-        <v>772991</v>
+        <v>1415579</v>
       </c>
       <c r="N14" s="13">
-        <v>1853182</v>
+        <v>1126567</v>
       </c>
       <c r="O14" s="13">
-        <v>1415579</v>
+        <v>1306646</v>
       </c>
       <c r="P14" s="13">
-        <v>1126567</v>
+        <v>2793772</v>
       </c>
       <c r="Q14" s="13">
-        <v>1306646</v>
+        <v>1477239</v>
       </c>
       <c r="R14" s="13">
-        <v>2793772</v>
+        <v>1685164</v>
       </c>
       <c r="S14" s="13">
-        <v>1477239</v>
+        <v>969197</v>
       </c>
       <c r="T14" s="13">
-        <v>1685164</v>
+        <v>1054950</v>
       </c>
       <c r="U14" s="13">
-        <v>969197</v>
+        <v>1826341</v>
       </c>
       <c r="V14" s="13">
-        <v>1054950</v>
+        <v>1531182</v>
       </c>
       <c r="W14" s="13">
-        <v>1826341</v>
+        <v>1463070</v>
       </c>
       <c r="X14" s="13">
-        <v>1531182</v>
+        <v>48349</v>
       </c>
       <c r="Y14" s="13">
-        <v>1463070</v>
+        <v>1255976</v>
       </c>
       <c r="Z14" s="13">
-        <v>48349</v>
+        <v>1213079</v>
       </c>
       <c r="AA14" s="13">
-        <v>1255976</v>
+        <v>1661700</v>
       </c>
       <c r="AB14" s="13">
-        <v>1213079</v>
+        <v>671977</v>
       </c>
       <c r="AC14" s="13">
-        <v>1661700</v>
+        <v>333642</v>
       </c>
       <c r="AD14" s="13">
-        <v>671977</v>
+        <v>201054</v>
       </c>
       <c r="AE14" s="13">
-        <v>333642</v>
+        <v>416515</v>
       </c>
       <c r="AF14" s="13">
-        <v>201054</v>
+        <v>317194</v>
       </c>
       <c r="AG14" s="13">
-        <v>416515</v>
+        <v>539249</v>
       </c>
       <c r="AH14" s="13">
-        <v>317194</v>
+        <v>342685</v>
       </c>
       <c r="AI14" s="13">
-        <v>539249</v>
+        <v>529488</v>
       </c>
       <c r="AJ14" s="13">
-        <v>342685</v>
+        <v>567716</v>
       </c>
       <c r="AK14" s="13">
-        <v>529488</v>
+        <v>578664</v>
       </c>
       <c r="AL14" s="13">
-        <v>567716</v>
+        <v>1455754</v>
       </c>
       <c r="AM14" s="13">
-        <v>578664</v>
+        <v>1382022</v>
       </c>
       <c r="AN14" s="13">
-        <v>1455754</v>
+        <v>1320219</v>
       </c>
       <c r="AO14" s="13">
-        <v>1382022</v>
+        <v>2008405</v>
       </c>
       <c r="AP14" s="13">
-        <v>1320219</v>
+        <v>1484290</v>
       </c>
       <c r="AQ14" s="13">
-        <v>2008405</v>
+        <v>1686481</v>
       </c>
       <c r="AR14" s="13">
-        <v>1484290</v>
+        <v>1214319</v>
       </c>
       <c r="AS14" s="13">
-        <v>1686481</v>
+        <v>1763657</v>
       </c>
       <c r="AT14" s="13">
-        <v>1214319</v>
+        <v>1800271</v>
       </c>
       <c r="AU14" s="13">
-        <v>1763657</v>
+        <v>1195927</v>
       </c>
       <c r="AV14" s="13">
-        <v>1800271</v>
+        <v>976071</v>
       </c>
       <c r="AW14" s="13">
-        <v>1195927</v>
+        <v>670061</v>
       </c>
       <c r="AX14" s="13">
-        <v>976071</v>
+        <v>509558</v>
       </c>
       <c r="AY14" s="13">
-        <v>670061</v>
+        <v>1110352</v>
       </c>
       <c r="AZ14" s="13">
-        <v>509558</v>
+        <v>1305045</v>
       </c>
       <c r="BA14" s="13">
-        <v>1110352</v>
+        <v>860945</v>
       </c>
       <c r="BB14" s="13">
-        <v>1305045</v>
+        <v>1365178</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>61</v>
       </c>
@@ -2110,50 +2110,50 @@
       <c r="I15" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="J15" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="K15" s="11" t="s">
-        <v>57</v>
+      <c r="J15" s="11">
+        <v>344389</v>
+      </c>
+      <c r="K15" s="11">
+        <v>0</v>
       </c>
       <c r="L15" s="11">
-        <v>344389</v>
+        <v>194848</v>
       </c>
       <c r="M15" s="11">
+        <v>588336</v>
+      </c>
+      <c r="N15" s="11">
+        <v>951431</v>
+      </c>
+      <c r="O15" s="11">
+        <v>175200</v>
+      </c>
+      <c r="P15" s="11">
+        <v>952288</v>
+      </c>
+      <c r="Q15" s="11">
+        <v>495047</v>
+      </c>
+      <c r="R15" s="11">
+        <v>332510</v>
+      </c>
+      <c r="S15" s="11">
+        <v>496784</v>
+      </c>
+      <c r="T15" s="11">
+        <v>467424</v>
+      </c>
+      <c r="U15" s="11">
+        <v>733425</v>
+      </c>
+      <c r="V15" s="11">
         <v>0</v>
       </c>
-      <c r="N15" s="11">
-        <v>194848</v>
-      </c>
-      <c r="O15" s="11">
-        <v>588336</v>
-      </c>
-      <c r="P15" s="11">
-        <v>951431</v>
-      </c>
-      <c r="Q15" s="11">
-        <v>175200</v>
-      </c>
-      <c r="R15" s="11">
-        <v>952288</v>
-      </c>
-      <c r="S15" s="11">
-        <v>495047</v>
-      </c>
-      <c r="T15" s="11">
-        <v>332510</v>
-      </c>
-      <c r="U15" s="11">
-        <v>496784</v>
-      </c>
-      <c r="V15" s="11">
-        <v>467424</v>
-      </c>
-      <c r="W15" s="11">
-        <v>733425</v>
-      </c>
-      <c r="X15" s="11">
-        <v>0</v>
+      <c r="W15" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="X15" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="Y15" s="11" t="s">
         <v>57</v>
@@ -2246,7 +2246,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
         <v>62</v>
       </c>
@@ -2258,17 +2258,17 @@
         <v>0</v>
       </c>
       <c r="F16" s="13">
-        <v>159474</v>
+        <v>0</v>
       </c>
       <c r="G16" s="13">
-        <v>0</v>
-      </c>
-      <c r="H16" s="13">
-        <v>0</v>
-      </c>
-      <c r="I16" s="13">
         <v>488338</v>
       </c>
+      <c r="H16" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="J16" s="13" t="s">
         <v>57</v>
       </c>
@@ -2405,7 +2405,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>63</v>
       </c>
@@ -2422,149 +2422,149 @@
       <c r="G17" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="H17" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>57</v>
+      <c r="H17" s="11">
+        <v>19938296</v>
+      </c>
+      <c r="I17" s="11">
+        <v>93245376</v>
       </c>
       <c r="J17" s="11">
-        <v>19938296</v>
+        <v>80760637</v>
       </c>
       <c r="K17" s="11">
-        <v>93245376</v>
+        <v>107296940</v>
       </c>
       <c r="L17" s="11">
-        <v>80760637</v>
+        <v>98721110</v>
       </c>
       <c r="M17" s="11">
-        <v>107296940</v>
+        <v>84026985</v>
       </c>
       <c r="N17" s="11">
-        <v>98721110</v>
+        <v>99049313</v>
       </c>
       <c r="O17" s="11">
-        <v>84026985</v>
+        <v>84372466</v>
       </c>
       <c r="P17" s="11">
-        <v>99049313</v>
+        <v>93802101</v>
       </c>
       <c r="Q17" s="11">
-        <v>84372466</v>
+        <v>94406140</v>
       </c>
       <c r="R17" s="11">
-        <v>93802101</v>
+        <v>98420101</v>
       </c>
       <c r="S17" s="11">
-        <v>94406140</v>
+        <v>86731057</v>
       </c>
       <c r="T17" s="11">
-        <v>98420101</v>
+        <v>46782779</v>
       </c>
       <c r="U17" s="11">
-        <v>86731057</v>
+        <v>97972123</v>
       </c>
       <c r="V17" s="11">
-        <v>46782779</v>
+        <v>93038683</v>
       </c>
       <c r="W17" s="11">
-        <v>97972123</v>
+        <v>104910270</v>
       </c>
       <c r="X17" s="11">
-        <v>93038683</v>
+        <v>104197689</v>
       </c>
       <c r="Y17" s="11">
-        <v>104910270</v>
+        <v>96051606</v>
       </c>
       <c r="Z17" s="11">
-        <v>104197689</v>
+        <v>102188975</v>
       </c>
       <c r="AA17" s="11">
-        <v>96051606</v>
+        <v>93289912</v>
       </c>
       <c r="AB17" s="11">
-        <v>102188975</v>
+        <v>90557262</v>
       </c>
       <c r="AC17" s="11">
-        <v>93289912</v>
+        <v>83522723</v>
       </c>
       <c r="AD17" s="11">
-        <v>90557262</v>
+        <v>80768024</v>
       </c>
       <c r="AE17" s="11">
-        <v>83522723</v>
+        <v>86164620</v>
       </c>
       <c r="AF17" s="11">
-        <v>80768024</v>
+        <v>46878700</v>
       </c>
       <c r="AG17" s="11">
-        <v>86164620</v>
+        <v>80291245</v>
       </c>
       <c r="AH17" s="11">
-        <v>46878700</v>
+        <v>67680310</v>
       </c>
       <c r="AI17" s="11">
-        <v>80291245</v>
+        <v>65183323</v>
       </c>
       <c r="AJ17" s="11">
-        <v>67680310</v>
+        <v>66068830</v>
       </c>
       <c r="AK17" s="11">
-        <v>65183323</v>
+        <v>80623959</v>
       </c>
       <c r="AL17" s="11">
-        <v>66068830</v>
+        <v>85255556</v>
       </c>
       <c r="AM17" s="11">
-        <v>80623959</v>
+        <v>90999923</v>
       </c>
       <c r="AN17" s="11">
-        <v>85255556</v>
+        <v>77724463</v>
       </c>
       <c r="AO17" s="11">
-        <v>90999923</v>
+        <v>63564488</v>
       </c>
       <c r="AP17" s="11">
-        <v>77724463</v>
+        <v>71700772</v>
       </c>
       <c r="AQ17" s="11">
-        <v>63564488</v>
+        <v>68511046</v>
       </c>
       <c r="AR17" s="11">
-        <v>71700772</v>
+        <v>33023836</v>
       </c>
       <c r="AS17" s="11">
-        <v>68511046</v>
+        <v>75815345</v>
       </c>
       <c r="AT17" s="11">
-        <v>33023836</v>
+        <v>72793455</v>
       </c>
       <c r="AU17" s="11">
-        <v>75815345</v>
+        <v>76651136</v>
       </c>
       <c r="AV17" s="11">
-        <v>72793455</v>
+        <v>79735871</v>
       </c>
       <c r="AW17" s="11">
-        <v>76651136</v>
+        <v>85031644</v>
       </c>
       <c r="AX17" s="11">
-        <v>79735871</v>
+        <v>84095626</v>
       </c>
       <c r="AY17" s="11">
-        <v>85031644</v>
+        <v>88084412</v>
       </c>
       <c r="AZ17" s="11">
-        <v>84095626</v>
+        <v>82860004</v>
       </c>
       <c r="BA17" s="11">
-        <v>88084412</v>
+        <v>79875420</v>
       </c>
       <c r="BB17" s="11">
-        <v>82860004</v>
+        <v>83798511</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
         <v>64</v>
       </c>
@@ -2581,11 +2581,11 @@
       <c r="G18" s="13">
         <v>0</v>
       </c>
-      <c r="H18" s="13">
-        <v>0</v>
-      </c>
-      <c r="I18" s="13">
-        <v>0</v>
+      <c r="H18" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="J18" s="13" t="s">
         <v>57</v>
@@ -2723,7 +2723,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>65</v>
       </c>
@@ -2732,20 +2732,20 @@
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>53393640</v>
+        <v>64980782</v>
       </c>
       <c r="F19" s="11">
-        <v>54033790</v>
+        <v>64431600</v>
       </c>
       <c r="G19" s="11">
-        <v>64980782</v>
-      </c>
-      <c r="H19" s="11">
-        <v>64431600</v>
-      </c>
-      <c r="I19" s="11">
         <v>66137530</v>
       </c>
+      <c r="H19" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="J19" s="11" t="s">
         <v>57</v>
       </c>
@@ -2882,7 +2882,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
         <v>66</v>
       </c>
@@ -2891,20 +2891,20 @@
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="13">
-        <v>76194</v>
+        <v>42302</v>
       </c>
       <c r="F20" s="13">
-        <v>76272</v>
+        <v>84470</v>
       </c>
       <c r="G20" s="13">
-        <v>42302</v>
-      </c>
-      <c r="H20" s="13">
-        <v>84470</v>
-      </c>
-      <c r="I20" s="13">
         <v>76543</v>
       </c>
+      <c r="H20" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="J20" s="13" t="s">
         <v>57</v>
       </c>
@@ -3041,7 +3041,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
         <v>67</v>
       </c>
@@ -3050,20 +3050,20 @@
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11">
-        <v>150262</v>
+        <v>201996</v>
       </c>
       <c r="F21" s="11">
-        <v>220829</v>
+        <v>0</v>
       </c>
       <c r="G21" s="11">
-        <v>201996</v>
-      </c>
-      <c r="H21" s="11">
-        <v>0</v>
-      </c>
-      <c r="I21" s="11">
         <v>31330</v>
       </c>
+      <c r="H21" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="J21" s="11" t="s">
         <v>57</v>
       </c>
@@ -3200,7 +3200,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="12" t="s">
         <v>68</v>
       </c>
@@ -3209,20 +3209,20 @@
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="13">
-        <v>1410143</v>
+        <v>1567001</v>
       </c>
       <c r="F22" s="13">
-        <v>1360736</v>
+        <v>1636043</v>
       </c>
       <c r="G22" s="13">
-        <v>1567001</v>
-      </c>
-      <c r="H22" s="13">
-        <v>1636043</v>
-      </c>
-      <c r="I22" s="13">
         <v>1368224</v>
       </c>
+      <c r="H22" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="J22" s="13" t="s">
         <v>57</v>
       </c>
@@ -3359,7 +3359,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>69</v>
       </c>
@@ -3368,20 +3368,20 @@
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11">
-        <v>1530010</v>
+        <v>2342792</v>
       </c>
       <c r="F23" s="11">
-        <v>82550</v>
+        <v>896980</v>
       </c>
       <c r="G23" s="11">
-        <v>2342792</v>
-      </c>
-      <c r="H23" s="11">
-        <v>896980</v>
-      </c>
-      <c r="I23" s="11">
         <v>496980</v>
       </c>
+      <c r="H23" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="J23" s="11" t="s">
         <v>57</v>
       </c>
@@ -3518,7 +3518,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="12" t="s">
         <v>70</v>
       </c>
@@ -3527,20 +3527,20 @@
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="13">
-        <v>1649460</v>
+        <v>1783248</v>
       </c>
       <c r="F24" s="13">
-        <v>1881432</v>
+        <v>2015840</v>
       </c>
       <c r="G24" s="13">
-        <v>1783248</v>
-      </c>
-      <c r="H24" s="13">
-        <v>2015840</v>
-      </c>
-      <c r="I24" s="13">
         <v>1493094</v>
       </c>
+      <c r="H24" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="J24" s="13" t="s">
         <v>57</v>
       </c>
@@ -3677,7 +3677,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
         <v>71</v>
       </c>
@@ -3686,20 +3686,20 @@
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11">
-        <v>4370150</v>
+        <v>1748243</v>
       </c>
       <c r="F25" s="11">
-        <v>7196354</v>
+        <v>10524101</v>
       </c>
       <c r="G25" s="11">
-        <v>1748243</v>
-      </c>
-      <c r="H25" s="11">
-        <v>10524101</v>
-      </c>
-      <c r="I25" s="11">
         <v>19907678</v>
       </c>
+      <c r="H25" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="J25" s="11" t="s">
         <v>57</v>
       </c>
@@ -3836,7 +3836,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="12" t="s">
         <v>72</v>
       </c>
@@ -3845,20 +3845,20 @@
       </c>
       <c r="D26" s="13"/>
       <c r="E26" s="13">
-        <v>280967</v>
+        <v>232133</v>
       </c>
       <c r="F26" s="13">
-        <v>292335</v>
+        <v>308236</v>
       </c>
       <c r="G26" s="13">
-        <v>232133</v>
-      </c>
-      <c r="H26" s="13">
-        <v>308236</v>
-      </c>
-      <c r="I26" s="13">
         <v>273857</v>
       </c>
+      <c r="H26" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="J26" s="13" t="s">
         <v>57</v>
       </c>
@@ -3995,7 +3995,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
         <v>73</v>
       </c>
@@ -4012,11 +4012,11 @@
       <c r="G27" s="11">
         <v>0</v>
       </c>
-      <c r="H27" s="11">
-        <v>0</v>
-      </c>
-      <c r="I27" s="11">
-        <v>0</v>
+      <c r="H27" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="J27" s="11" t="s">
         <v>57</v>
@@ -4154,7 +4154,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
         <v>74</v>
       </c>
@@ -4171,11 +4171,11 @@
       <c r="G28" s="13">
         <v>0</v>
       </c>
-      <c r="H28" s="13">
-        <v>0</v>
-      </c>
-      <c r="I28" s="13">
-        <v>0</v>
+      <c r="H28" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="J28" s="13" t="s">
         <v>57</v>
@@ -4313,7 +4313,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>75</v>
       </c>
@@ -4322,20 +4322,20 @@
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11">
-        <v>219685</v>
+        <v>220556</v>
       </c>
       <c r="F29" s="11">
-        <v>200071</v>
+        <v>401096</v>
       </c>
       <c r="G29" s="11">
-        <v>220556</v>
-      </c>
-      <c r="H29" s="11">
-        <v>401096</v>
-      </c>
-      <c r="I29" s="11">
         <v>84019</v>
       </c>
+      <c r="H29" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="J29" s="11" t="s">
         <v>57</v>
       </c>
@@ -4472,7 +4472,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="12" t="s">
         <v>76</v>
       </c>
@@ -4489,149 +4489,149 @@
       <c r="G30" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="H30" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="I30" s="13" t="s">
-        <v>57</v>
+      <c r="H30" s="13">
+        <v>6317116</v>
+      </c>
+      <c r="I30" s="13">
+        <v>12238384</v>
       </c>
       <c r="J30" s="13">
-        <v>6317116</v>
+        <v>9759419</v>
       </c>
       <c r="K30" s="13">
-        <v>12238384</v>
+        <v>10731310</v>
       </c>
       <c r="L30" s="13">
-        <v>9759419</v>
+        <v>11733550</v>
       </c>
       <c r="M30" s="13">
-        <v>10731310</v>
+        <v>11029457</v>
       </c>
       <c r="N30" s="13">
-        <v>11733550</v>
+        <v>11327600</v>
       </c>
       <c r="O30" s="13">
-        <v>11029457</v>
+        <v>10557982</v>
       </c>
       <c r="P30" s="13">
-        <v>11327600</v>
+        <v>11038502</v>
       </c>
       <c r="Q30" s="13">
-        <v>10557982</v>
+        <v>11195690</v>
       </c>
       <c r="R30" s="13">
-        <v>11038502</v>
+        <v>15815469</v>
       </c>
       <c r="S30" s="13">
-        <v>11195690</v>
+        <v>10907274</v>
       </c>
       <c r="T30" s="13">
-        <v>15815469</v>
+        <v>7694227</v>
       </c>
       <c r="U30" s="13">
-        <v>10907274</v>
+        <v>14313567</v>
       </c>
       <c r="V30" s="13">
-        <v>7694227</v>
+        <v>13336673</v>
       </c>
       <c r="W30" s="13">
-        <v>14313567</v>
+        <v>13370821</v>
       </c>
       <c r="X30" s="13">
-        <v>13336673</v>
+        <v>11709648</v>
       </c>
       <c r="Y30" s="13">
-        <v>13370821</v>
+        <v>13639675</v>
       </c>
       <c r="Z30" s="13">
-        <v>11709648</v>
+        <v>12390576</v>
       </c>
       <c r="AA30" s="13">
-        <v>13639675</v>
+        <v>11844518</v>
       </c>
       <c r="AB30" s="13">
-        <v>12390576</v>
+        <v>14322973</v>
       </c>
       <c r="AC30" s="13">
-        <v>11844518</v>
+        <v>12652859</v>
       </c>
       <c r="AD30" s="13">
-        <v>14322973</v>
+        <v>13670884</v>
       </c>
       <c r="AE30" s="13">
-        <v>12652859</v>
+        <v>12347667</v>
       </c>
       <c r="AF30" s="13">
-        <v>13670884</v>
+        <v>7963607</v>
       </c>
       <c r="AG30" s="13">
-        <v>12347667</v>
+        <v>12384325</v>
       </c>
       <c r="AH30" s="13">
-        <v>7963607</v>
+        <v>13227849</v>
       </c>
       <c r="AI30" s="13">
-        <v>12384325</v>
+        <v>12524508</v>
       </c>
       <c r="AJ30" s="13">
-        <v>13227849</v>
+        <v>12514670</v>
       </c>
       <c r="AK30" s="13">
-        <v>12524508</v>
+        <v>13206109</v>
       </c>
       <c r="AL30" s="13">
-        <v>12514670</v>
+        <v>14356210</v>
       </c>
       <c r="AM30" s="13">
-        <v>13206109</v>
+        <v>14996510</v>
       </c>
       <c r="AN30" s="13">
-        <v>14356210</v>
+        <v>14432572</v>
       </c>
       <c r="AO30" s="13">
-        <v>14996510</v>
+        <v>13841913</v>
       </c>
       <c r="AP30" s="13">
-        <v>14432572</v>
+        <v>12478300</v>
       </c>
       <c r="AQ30" s="13">
-        <v>13841913</v>
+        <v>11728916</v>
       </c>
       <c r="AR30" s="13">
-        <v>12478300</v>
+        <v>7848151</v>
       </c>
       <c r="AS30" s="13">
-        <v>11728916</v>
+        <v>11202335</v>
       </c>
       <c r="AT30" s="13">
-        <v>7848151</v>
+        <v>12721308</v>
       </c>
       <c r="AU30" s="13">
-        <v>11202335</v>
+        <v>13954153</v>
       </c>
       <c r="AV30" s="13">
-        <v>12721308</v>
+        <v>17471173</v>
       </c>
       <c r="AW30" s="13">
-        <v>13954153</v>
+        <v>12582761</v>
       </c>
       <c r="AX30" s="13">
-        <v>17471173</v>
+        <v>13023070</v>
       </c>
       <c r="AY30" s="13">
-        <v>12582761</v>
+        <v>13669989</v>
       </c>
       <c r="AZ30" s="13">
-        <v>13023070</v>
+        <v>13365405</v>
       </c>
       <c r="BA30" s="13">
-        <v>13669989</v>
+        <v>12289872</v>
       </c>
       <c r="BB30" s="13">
-        <v>13365405</v>
+        <v>12113941</v>
       </c>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
         <v>77</v>
       </c>
@@ -4648,149 +4648,149 @@
       <c r="G31" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="H31" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="I31" s="11" t="s">
-        <v>57</v>
+      <c r="H31" s="11">
+        <v>2523673</v>
+      </c>
+      <c r="I31" s="11">
+        <v>4501720</v>
       </c>
       <c r="J31" s="11">
-        <v>2523673</v>
+        <v>4253252</v>
       </c>
       <c r="K31" s="11">
-        <v>4501720</v>
+        <v>4308643</v>
       </c>
       <c r="L31" s="11">
-        <v>4253252</v>
+        <v>3083489</v>
       </c>
       <c r="M31" s="11">
-        <v>4308643</v>
+        <v>3465059</v>
       </c>
       <c r="N31" s="11">
-        <v>3083489</v>
+        <v>2145956</v>
       </c>
       <c r="O31" s="11">
-        <v>3465059</v>
+        <v>5551545</v>
       </c>
       <c r="P31" s="11">
-        <v>2145956</v>
+        <v>5354057</v>
       </c>
       <c r="Q31" s="11">
-        <v>5551545</v>
+        <v>3942091</v>
       </c>
       <c r="R31" s="11">
-        <v>5354057</v>
+        <v>2792162</v>
       </c>
       <c r="S31" s="11">
-        <v>3942091</v>
+        <v>4175178</v>
       </c>
       <c r="T31" s="11">
-        <v>2792162</v>
+        <v>602726</v>
       </c>
       <c r="U31" s="11">
-        <v>4175178</v>
+        <v>2732245</v>
       </c>
       <c r="V31" s="11">
-        <v>602726</v>
+        <v>6024365</v>
       </c>
       <c r="W31" s="11">
-        <v>2732245</v>
+        <v>8333339</v>
       </c>
       <c r="X31" s="11">
-        <v>6024365</v>
+        <v>8843594</v>
       </c>
       <c r="Y31" s="11">
-        <v>8333339</v>
+        <v>7767387</v>
       </c>
       <c r="Z31" s="11">
-        <v>8843594</v>
+        <v>7781926</v>
       </c>
       <c r="AA31" s="11">
-        <v>7767387</v>
+        <v>8711310</v>
       </c>
       <c r="AB31" s="11">
-        <v>7781926</v>
+        <v>7566414</v>
       </c>
       <c r="AC31" s="11">
-        <v>8711310</v>
+        <v>9022814</v>
       </c>
       <c r="AD31" s="11">
-        <v>7566414</v>
+        <v>7999982</v>
       </c>
       <c r="AE31" s="11">
-        <v>9022814</v>
+        <v>6491212</v>
       </c>
       <c r="AF31" s="11">
-        <v>7999982</v>
+        <v>2045460</v>
       </c>
       <c r="AG31" s="11">
-        <v>6491212</v>
+        <v>3493264</v>
       </c>
       <c r="AH31" s="11">
-        <v>2045460</v>
+        <v>2965508</v>
       </c>
       <c r="AI31" s="11">
-        <v>3493264</v>
+        <v>2794776</v>
       </c>
       <c r="AJ31" s="11">
-        <v>2965508</v>
+        <v>2915364</v>
       </c>
       <c r="AK31" s="11">
-        <v>2794776</v>
+        <v>5594052</v>
       </c>
       <c r="AL31" s="11">
-        <v>2915364</v>
+        <v>7494588</v>
       </c>
       <c r="AM31" s="11">
-        <v>5594052</v>
+        <v>6344326</v>
       </c>
       <c r="AN31" s="11">
-        <v>7494588</v>
+        <v>7042486</v>
       </c>
       <c r="AO31" s="11">
-        <v>6344326</v>
+        <v>7807766</v>
       </c>
       <c r="AP31" s="11">
-        <v>7042486</v>
+        <v>6800187</v>
       </c>
       <c r="AQ31" s="11">
-        <v>7807766</v>
+        <v>5366712</v>
       </c>
       <c r="AR31" s="11">
-        <v>6800187</v>
+        <v>5561848</v>
       </c>
       <c r="AS31" s="11">
-        <v>5366712</v>
+        <v>6511955</v>
       </c>
       <c r="AT31" s="11">
-        <v>5561848</v>
+        <v>7078623</v>
       </c>
       <c r="AU31" s="11">
-        <v>6511955</v>
+        <v>7107963</v>
       </c>
       <c r="AV31" s="11">
-        <v>7078623</v>
+        <v>6400400</v>
       </c>
       <c r="AW31" s="11">
-        <v>7107963</v>
+        <v>6879516</v>
       </c>
       <c r="AX31" s="11">
-        <v>6400400</v>
+        <v>6425871</v>
       </c>
       <c r="AY31" s="11">
-        <v>6879516</v>
+        <v>7108659</v>
       </c>
       <c r="AZ31" s="11">
-        <v>6425871</v>
+        <v>5147786</v>
       </c>
       <c r="BA31" s="11">
-        <v>7108659</v>
+        <v>6343244</v>
       </c>
       <c r="BB31" s="11">
-        <v>5147786</v>
+        <v>8793717</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
         <v>78</v>
       </c>
@@ -4847,7 +4847,7 @@
       <c r="BA32" s="9"/>
       <c r="BB32" s="9"/>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
         <v>61</v>
       </c>
@@ -4909,39 +4909,39 @@
       <c r="V33" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W33" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X33" s="11" t="s">
-        <v>57</v>
+      <c r="W33" s="11">
+        <v>799608</v>
+      </c>
+      <c r="X33" s="11">
+        <v>1879355</v>
       </c>
       <c r="Y33" s="11">
-        <v>799608</v>
+        <v>539024</v>
       </c>
       <c r="Z33" s="11">
-        <v>1879355</v>
+        <v>551798</v>
       </c>
       <c r="AA33" s="11">
-        <v>539024</v>
+        <v>341418</v>
       </c>
       <c r="AB33" s="11">
-        <v>551798</v>
+        <v>820763</v>
       </c>
       <c r="AC33" s="11">
-        <v>341418</v>
+        <v>707060</v>
       </c>
       <c r="AD33" s="11">
-        <v>820763</v>
+        <v>507103</v>
       </c>
       <c r="AE33" s="11">
-        <v>707060</v>
-      </c>
-      <c r="AF33" s="11">
-        <v>507103</v>
-      </c>
-      <c r="AG33" s="11">
         <v>945971</v>
       </c>
+      <c r="AF33" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG33" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AH33" s="11" t="s">
         <v>57</v>
       </c>
@@ -5006,7 +5006,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
         <v>62</v>
       </c>
@@ -5095,77 +5095,77 @@
       <c r="AE34" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AF34" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG34" s="13" t="s">
-        <v>57</v>
+      <c r="AF34" s="13">
+        <v>89222</v>
+      </c>
+      <c r="AG34" s="13">
+        <v>254964</v>
       </c>
       <c r="AH34" s="13">
-        <v>89222</v>
+        <v>666379</v>
       </c>
       <c r="AI34" s="13">
-        <v>254964</v>
+        <v>1232473</v>
       </c>
       <c r="AJ34" s="13">
-        <v>666379</v>
+        <v>1897120</v>
       </c>
       <c r="AK34" s="13">
-        <v>1232473</v>
-      </c>
-      <c r="AL34" s="13">
-        <v>1897120</v>
+        <v>849974</v>
+      </c>
+      <c r="AL34" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AM34" s="13">
-        <v>849974</v>
-      </c>
-      <c r="AN34" s="13" t="s">
-        <v>57</v>
+        <v>522027</v>
+      </c>
+      <c r="AN34" s="13">
+        <v>1325855</v>
       </c>
       <c r="AO34" s="13">
-        <v>522027</v>
+        <v>3175929</v>
       </c>
       <c r="AP34" s="13">
-        <v>1325855</v>
+        <v>1978891</v>
       </c>
       <c r="AQ34" s="13">
-        <v>3175929</v>
+        <v>748266</v>
       </c>
       <c r="AR34" s="13">
-        <v>1978891</v>
+        <v>783428</v>
       </c>
       <c r="AS34" s="13">
-        <v>748266</v>
+        <v>854958</v>
       </c>
       <c r="AT34" s="13">
-        <v>783428</v>
+        <v>457734</v>
       </c>
       <c r="AU34" s="13">
-        <v>854958</v>
+        <v>185615</v>
       </c>
       <c r="AV34" s="13">
-        <v>457734</v>
+        <v>2410875</v>
       </c>
       <c r="AW34" s="13">
-        <v>185615</v>
+        <v>847593</v>
       </c>
       <c r="AX34" s="13">
-        <v>2410875</v>
+        <v>3455788</v>
       </c>
       <c r="AY34" s="13">
-        <v>847593</v>
+        <v>1383392</v>
       </c>
       <c r="AZ34" s="13">
-        <v>3455788</v>
+        <v>875164</v>
       </c>
       <c r="BA34" s="13">
-        <v>1383392</v>
+        <v>232944</v>
       </c>
       <c r="BB34" s="13">
-        <v>875164</v>
+        <v>495735</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="14" t="s">
         <v>79</v>
       </c>
@@ -5225,11 +5225,11 @@
       <c r="V35" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="W35" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="X35" s="15" t="s">
-        <v>57</v>
+      <c r="W35" s="15">
+        <v>0</v>
+      </c>
+      <c r="X35" s="15">
+        <v>0</v>
       </c>
       <c r="Y35" s="15">
         <v>0</v>
@@ -5322,164 +5322,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="16" t="s">
         <v>80</v>
       </c>
       <c r="C36" s="17"/>
       <c r="D36" s="17"/>
       <c r="E36" s="17">
-        <v>72578330</v>
+        <v>83136679</v>
       </c>
       <c r="F36" s="17">
-        <v>74193714</v>
+        <v>91274560</v>
       </c>
       <c r="G36" s="17">
-        <v>83136679</v>
+        <v>102063722</v>
       </c>
       <c r="H36" s="17">
-        <v>91274560</v>
+        <v>29419801</v>
       </c>
       <c r="I36" s="17">
-        <v>102063722</v>
+        <v>111054114</v>
       </c>
       <c r="J36" s="17">
-        <v>29419801</v>
+        <v>96149642</v>
       </c>
       <c r="K36" s="17">
-        <v>111054114</v>
+        <v>123109884</v>
       </c>
       <c r="L36" s="17">
-        <v>96149642</v>
+        <v>115586179</v>
       </c>
       <c r="M36" s="17">
-        <v>123109884</v>
+        <v>100525416</v>
       </c>
       <c r="N36" s="17">
-        <v>115586179</v>
+        <v>114600867</v>
       </c>
       <c r="O36" s="17">
-        <v>100525416</v>
+        <v>101963839</v>
       </c>
       <c r="P36" s="17">
-        <v>114600867</v>
+        <v>113940720</v>
       </c>
       <c r="Q36" s="17">
-        <v>101963839</v>
+        <v>111516207</v>
       </c>
       <c r="R36" s="17">
-        <v>113940720</v>
+        <v>119045406</v>
       </c>
       <c r="S36" s="17">
-        <v>111516207</v>
+        <v>103279490</v>
       </c>
       <c r="T36" s="17">
-        <v>119045406</v>
+        <v>56602106</v>
       </c>
       <c r="U36" s="17">
-        <v>103279490</v>
+        <v>117577701</v>
       </c>
       <c r="V36" s="17">
-        <v>56602106</v>
+        <v>113930903</v>
       </c>
       <c r="W36" s="17">
-        <v>117577701</v>
+        <v>128877108</v>
       </c>
       <c r="X36" s="17">
-        <v>113930903</v>
+        <v>126678635</v>
       </c>
       <c r="Y36" s="17">
-        <v>128877108</v>
+        <v>119253668</v>
       </c>
       <c r="Z36" s="17">
-        <v>126678635</v>
+        <v>124126354</v>
       </c>
       <c r="AA36" s="17">
-        <v>119253668</v>
+        <v>115848858</v>
       </c>
       <c r="AB36" s="17">
-        <v>124126354</v>
+        <v>113939389</v>
       </c>
       <c r="AC36" s="17">
-        <v>115848858</v>
+        <v>106239098</v>
       </c>
       <c r="AD36" s="17">
-        <v>113939389</v>
+        <v>103147047</v>
       </c>
       <c r="AE36" s="17">
-        <v>106239098</v>
+        <v>106365985</v>
       </c>
       <c r="AF36" s="17">
-        <v>103147047</v>
+        <v>57294183</v>
       </c>
       <c r="AG36" s="17">
-        <v>106365985</v>
+        <v>96963047</v>
       </c>
       <c r="AH36" s="17">
-        <v>57294183</v>
+        <v>84882731</v>
       </c>
       <c r="AI36" s="17">
-        <v>96963047</v>
+        <v>82264568</v>
       </c>
       <c r="AJ36" s="17">
-        <v>84882731</v>
+        <v>83963700</v>
       </c>
       <c r="AK36" s="17">
-        <v>82264568</v>
+        <v>100852758</v>
       </c>
       <c r="AL36" s="17">
-        <v>83963700</v>
+        <v>108562108</v>
       </c>
       <c r="AM36" s="17">
-        <v>100852758</v>
+        <v>114244808</v>
       </c>
       <c r="AN36" s="17">
-        <v>108562108</v>
+        <v>101845595</v>
       </c>
       <c r="AO36" s="17">
-        <v>114244808</v>
+        <v>90398501</v>
       </c>
       <c r="AP36" s="17">
-        <v>101845595</v>
+        <v>94442440</v>
       </c>
       <c r="AQ36" s="17">
-        <v>90398501</v>
+        <v>88041421</v>
       </c>
       <c r="AR36" s="17">
-        <v>94442440</v>
+        <v>48431582</v>
       </c>
       <c r="AS36" s="17">
-        <v>88041421</v>
+        <v>96148250</v>
       </c>
       <c r="AT36" s="17">
-        <v>48431582</v>
+        <v>94851391</v>
       </c>
       <c r="AU36" s="17">
-        <v>96148250</v>
+        <v>99094794</v>
       </c>
       <c r="AV36" s="17">
-        <v>94851391</v>
+        <v>106994390</v>
       </c>
       <c r="AW36" s="17">
-        <v>99094794</v>
+        <v>106011575</v>
       </c>
       <c r="AX36" s="17">
-        <v>106994390</v>
+        <v>107509913</v>
       </c>
       <c r="AY36" s="17">
-        <v>106011575</v>
+        <v>111356804</v>
       </c>
       <c r="AZ36" s="17">
-        <v>107509913</v>
+        <v>103553404</v>
       </c>
       <c r="BA36" s="17">
-        <v>111356804</v>
+        <v>99602425</v>
       </c>
       <c r="BB36" s="17">
-        <v>103553404</v>
+        <v>106567082</v>
       </c>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -5534,7 +5534,7 @@
       <c r="BA37" s="1"/>
       <c r="BB37" s="1"/>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -5589,7 +5589,7 @@
       <c r="BA38" s="1"/>
       <c r="BB38" s="1"/>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -5644,7 +5644,7 @@
       <c r="BA39" s="1"/>
       <c r="BB39" s="1"/>
     </row>
-    <row r="40" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B40" s="7" t="s">
         <v>81</v>
       </c>
@@ -5801,7 +5801,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -5856,7 +5856,7 @@
       <c r="BA41" s="1"/>
       <c r="BB41" s="1"/>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="8" t="s">
         <v>81</v>
       </c>
@@ -5913,7 +5913,7 @@
       <c r="BA42" s="9"/>
       <c r="BB42" s="9"/>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
         <v>55</v>
       </c>
@@ -5922,20 +5922,20 @@
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11">
-        <v>796799</v>
+        <v>931292</v>
       </c>
       <c r="F43" s="11">
-        <v>1033094</v>
+        <v>638759</v>
       </c>
       <c r="G43" s="11">
-        <v>931292</v>
-      </c>
-      <c r="H43" s="11">
-        <v>638759</v>
-      </c>
-      <c r="I43" s="11">
         <v>141349</v>
       </c>
+      <c r="H43" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I43" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="J43" s="11" t="s">
         <v>57</v>
       </c>
@@ -6072,7 +6072,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="12" t="s">
         <v>58</v>
       </c>
@@ -6081,20 +6081,20 @@
       </c>
       <c r="D44" s="13"/>
       <c r="E44" s="13">
-        <v>1432700</v>
+        <v>1154540</v>
       </c>
       <c r="F44" s="13">
-        <v>1364300</v>
+        <v>2023100</v>
       </c>
       <c r="G44" s="13">
-        <v>1154540</v>
-      </c>
-      <c r="H44" s="13">
-        <v>2023100</v>
-      </c>
-      <c r="I44" s="13">
         <v>1662150</v>
       </c>
+      <c r="H44" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I44" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="J44" s="13" t="s">
         <v>57</v>
       </c>
@@ -6231,7 +6231,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
         <v>59</v>
       </c>
@@ -6240,20 +6240,20 @@
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11">
-        <v>5390606</v>
+        <v>4646422</v>
       </c>
       <c r="F45" s="11">
-        <v>6212096</v>
+        <v>4623673</v>
       </c>
       <c r="G45" s="11">
-        <v>4646422</v>
-      </c>
-      <c r="H45" s="11">
-        <v>4623673</v>
-      </c>
-      <c r="I45" s="11">
         <v>1356561</v>
       </c>
+      <c r="H45" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I45" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="J45" s="11" t="s">
         <v>57</v>
       </c>
@@ -6390,7 +6390,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="12" t="s">
         <v>60</v>
       </c>
@@ -6407,149 +6407,149 @@
       <c r="G46" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="H46" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="I46" s="13" t="s">
-        <v>57</v>
+      <c r="H46" s="13">
+        <v>1135705</v>
+      </c>
+      <c r="I46" s="13">
+        <v>1106105</v>
       </c>
       <c r="J46" s="13">
-        <v>1135705</v>
+        <v>1211956</v>
       </c>
       <c r="K46" s="13">
-        <v>1106105</v>
+        <v>725235</v>
       </c>
       <c r="L46" s="13">
-        <v>1211956</v>
+        <v>1325629</v>
       </c>
       <c r="M46" s="13">
-        <v>725235</v>
+        <v>1258690</v>
       </c>
       <c r="N46" s="13">
-        <v>1325629</v>
+        <v>340200</v>
       </c>
       <c r="O46" s="13">
-        <v>1258690</v>
+        <v>3248112</v>
       </c>
       <c r="P46" s="13">
-        <v>340200</v>
+        <v>1807329</v>
       </c>
       <c r="Q46" s="13">
-        <v>3248112</v>
+        <v>1822094</v>
       </c>
       <c r="R46" s="13">
-        <v>1807329</v>
+        <v>1228145</v>
       </c>
       <c r="S46" s="13">
-        <v>1822094</v>
+        <v>789009</v>
       </c>
       <c r="T46" s="13">
-        <v>1228145</v>
+        <v>1577765</v>
       </c>
       <c r="U46" s="13">
-        <v>789009</v>
+        <v>1593689</v>
       </c>
       <c r="V46" s="13">
-        <v>1577765</v>
+        <v>1607020</v>
       </c>
       <c r="W46" s="13">
-        <v>1593689</v>
+        <v>1149850</v>
       </c>
       <c r="X46" s="13">
-        <v>1607020</v>
+        <v>995772</v>
       </c>
       <c r="Y46" s="13">
-        <v>1149850</v>
+        <v>1449389</v>
       </c>
       <c r="Z46" s="13">
-        <v>995772</v>
+        <v>1547251</v>
       </c>
       <c r="AA46" s="13">
-        <v>1449389</v>
+        <v>1714266</v>
       </c>
       <c r="AB46" s="13">
-        <v>1547251</v>
+        <v>1058662</v>
       </c>
       <c r="AC46" s="13">
-        <v>1714266</v>
+        <v>872460</v>
       </c>
       <c r="AD46" s="13">
-        <v>1058662</v>
+        <v>548094</v>
       </c>
       <c r="AE46" s="13">
-        <v>872460</v>
+        <v>321354</v>
       </c>
       <c r="AF46" s="13">
-        <v>548094</v>
+        <v>833159</v>
       </c>
       <c r="AG46" s="13">
-        <v>321354</v>
+        <v>1135427</v>
       </c>
       <c r="AH46" s="13">
-        <v>833159</v>
+        <v>923578</v>
       </c>
       <c r="AI46" s="13">
-        <v>1135427</v>
+        <v>1092812</v>
       </c>
       <c r="AJ46" s="13">
-        <v>923578</v>
+        <v>967241</v>
       </c>
       <c r="AK46" s="13">
-        <v>1092812</v>
+        <v>1726604</v>
       </c>
       <c r="AL46" s="13">
-        <v>967241</v>
+        <v>1243067</v>
       </c>
       <c r="AM46" s="13">
-        <v>1726604</v>
+        <v>1808156</v>
       </c>
       <c r="AN46" s="13">
-        <v>1243067</v>
+        <v>1991344</v>
       </c>
       <c r="AO46" s="13">
-        <v>1808156</v>
+        <v>1560966</v>
       </c>
       <c r="AP46" s="13">
-        <v>1991344</v>
+        <v>1884139</v>
       </c>
       <c r="AQ46" s="13">
-        <v>1560966</v>
+        <v>525095</v>
       </c>
       <c r="AR46" s="13">
-        <v>1884139</v>
+        <v>2021660</v>
       </c>
       <c r="AS46" s="13">
-        <v>525095</v>
+        <v>2939623</v>
       </c>
       <c r="AT46" s="13">
-        <v>2021660</v>
+        <v>2225525</v>
       </c>
       <c r="AU46" s="13">
-        <v>2939623</v>
+        <v>1867326</v>
       </c>
       <c r="AV46" s="13">
-        <v>2225525</v>
+        <v>1189093</v>
       </c>
       <c r="AW46" s="13">
-        <v>1867326</v>
+        <v>855110</v>
       </c>
       <c r="AX46" s="13">
-        <v>1189093</v>
+        <v>559049</v>
       </c>
       <c r="AY46" s="13">
-        <v>855110</v>
+        <v>1012406</v>
       </c>
       <c r="AZ46" s="13">
-        <v>559049</v>
+        <v>1073057</v>
       </c>
       <c r="BA46" s="13">
-        <v>1012406</v>
+        <v>1284410</v>
       </c>
       <c r="BB46" s="13">
-        <v>1073057</v>
+        <v>953200</v>
       </c>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
         <v>61</v>
       </c>
@@ -6572,51 +6572,51 @@
       <c r="I47" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="J47" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="K47" s="11" t="s">
-        <v>57</v>
+      <c r="J47" s="11">
+        <v>344389</v>
+      </c>
+      <c r="K47" s="11">
+        <v>0</v>
       </c>
       <c r="L47" s="11">
-        <v>344389</v>
+        <v>194848</v>
       </c>
       <c r="M47" s="11">
-        <v>0</v>
+        <v>588336</v>
       </c>
       <c r="N47" s="11">
-        <v>194848</v>
+        <v>951431</v>
       </c>
       <c r="O47" s="11">
-        <v>588336</v>
+        <v>175200</v>
       </c>
       <c r="P47" s="11">
-        <v>951431</v>
+        <v>952288</v>
       </c>
       <c r="Q47" s="11">
-        <v>175200</v>
+        <v>495047</v>
       </c>
       <c r="R47" s="11">
-        <v>952288</v>
+        <v>332510</v>
       </c>
       <c r="S47" s="11">
-        <v>495047</v>
+        <v>496784</v>
       </c>
       <c r="T47" s="11">
-        <v>332510</v>
+        <v>467424</v>
       </c>
       <c r="U47" s="11">
-        <v>496784</v>
+        <v>733425</v>
       </c>
       <c r="V47" s="11">
-        <v>467424</v>
-      </c>
-      <c r="W47" s="11">
-        <v>733425</v>
-      </c>
-      <c r="X47" s="11">
         <v>253956</v>
       </c>
+      <c r="W47" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="X47" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="Y47" s="11" t="s">
         <v>57</v>
       </c>
@@ -6708,7 +6708,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="12" t="s">
         <v>62</v>
       </c>
@@ -6720,17 +6720,17 @@
         <v>0</v>
       </c>
       <c r="F48" s="13">
-        <v>159474</v>
+        <v>0</v>
       </c>
       <c r="G48" s="13">
-        <v>0</v>
-      </c>
-      <c r="H48" s="13">
-        <v>0</v>
-      </c>
-      <c r="I48" s="13">
         <v>488338</v>
       </c>
+      <c r="H48" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I48" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="J48" s="13" t="s">
         <v>57</v>
       </c>
@@ -6867,7 +6867,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
         <v>63</v>
       </c>
@@ -6884,149 +6884,149 @@
       <c r="G49" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="H49" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="I49" s="11" t="s">
-        <v>57</v>
+      <c r="H49" s="11">
+        <v>88628338</v>
+      </c>
+      <c r="I49" s="11">
+        <v>88223616</v>
       </c>
       <c r="J49" s="11">
-        <v>88628338</v>
+        <v>91584261</v>
       </c>
       <c r="K49" s="11">
-        <v>88223616</v>
+        <v>77487993</v>
       </c>
       <c r="L49" s="11">
-        <v>91584261</v>
+        <v>88359485</v>
       </c>
       <c r="M49" s="11">
-        <v>77487993</v>
+        <v>91070051</v>
       </c>
       <c r="N49" s="11">
-        <v>88359485</v>
+        <v>94484339</v>
       </c>
       <c r="O49" s="11">
-        <v>91070051</v>
+        <v>116907540</v>
       </c>
       <c r="P49" s="11">
-        <v>94484339</v>
+        <v>72352429</v>
       </c>
       <c r="Q49" s="11">
-        <v>116907540</v>
+        <v>96630907</v>
       </c>
       <c r="R49" s="11">
-        <v>72352429</v>
+        <v>84476275</v>
       </c>
       <c r="S49" s="11">
-        <v>96630907</v>
+        <v>28724589</v>
       </c>
       <c r="T49" s="11">
-        <v>84476275</v>
+        <v>101872756</v>
       </c>
       <c r="U49" s="11">
-        <v>28724589</v>
+        <v>120424057</v>
       </c>
       <c r="V49" s="11">
-        <v>101872756</v>
+        <v>106285603</v>
       </c>
       <c r="W49" s="11">
-        <v>120424057</v>
+        <v>105702500</v>
       </c>
       <c r="X49" s="11">
-        <v>106285603</v>
+        <v>110022225</v>
       </c>
       <c r="Y49" s="11">
-        <v>105702500</v>
+        <v>89632100</v>
       </c>
       <c r="Z49" s="11">
-        <v>110022225</v>
+        <v>91255663</v>
       </c>
       <c r="AA49" s="11">
-        <v>89632100</v>
+        <v>91106475</v>
       </c>
       <c r="AB49" s="11">
-        <v>91255663</v>
+        <v>72434090</v>
       </c>
       <c r="AC49" s="11">
-        <v>91106475</v>
+        <v>69621569</v>
       </c>
       <c r="AD49" s="11">
-        <v>72434090</v>
+        <v>69521338</v>
       </c>
       <c r="AE49" s="11">
-        <v>69621569</v>
+        <v>15646612</v>
       </c>
       <c r="AF49" s="11">
-        <v>69521338</v>
+        <v>74710418</v>
       </c>
       <c r="AG49" s="11">
-        <v>15646612</v>
+        <v>66939112</v>
       </c>
       <c r="AH49" s="11">
-        <v>74710418</v>
+        <v>47213754</v>
       </c>
       <c r="AI49" s="11">
-        <v>66939112</v>
+        <v>65735626</v>
       </c>
       <c r="AJ49" s="11">
-        <v>47213754</v>
+        <v>79313020</v>
       </c>
       <c r="AK49" s="11">
-        <v>65735626</v>
+        <v>91134372</v>
       </c>
       <c r="AL49" s="11">
-        <v>79313020</v>
+        <v>115369648</v>
       </c>
       <c r="AM49" s="11">
-        <v>91134372</v>
+        <v>106308184</v>
       </c>
       <c r="AN49" s="11">
-        <v>115369648</v>
+        <v>131847277</v>
       </c>
       <c r="AO49" s="11">
-        <v>106308184</v>
+        <v>90698024</v>
       </c>
       <c r="AP49" s="11">
-        <v>131847277</v>
+        <v>48754995</v>
       </c>
       <c r="AQ49" s="11">
-        <v>90698024</v>
+        <v>16285301</v>
       </c>
       <c r="AR49" s="11">
-        <v>48754995</v>
+        <v>76954001</v>
       </c>
       <c r="AS49" s="11">
-        <v>16285301</v>
+        <v>104714257</v>
       </c>
       <c r="AT49" s="11">
-        <v>76954001</v>
+        <v>74573196</v>
       </c>
       <c r="AU49" s="11">
-        <v>104714257</v>
+        <v>91958141</v>
       </c>
       <c r="AV49" s="11">
-        <v>74573196</v>
+        <v>65965253</v>
       </c>
       <c r="AW49" s="11">
-        <v>91958141</v>
+        <v>85172184</v>
       </c>
       <c r="AX49" s="11">
-        <v>65965253</v>
+        <v>76924175</v>
       </c>
       <c r="AY49" s="11">
-        <v>85172184</v>
+        <v>99076094</v>
       </c>
       <c r="AZ49" s="11">
-        <v>76924175</v>
+        <v>89451700</v>
       </c>
       <c r="BA49" s="11">
-        <v>99076094</v>
+        <v>73842822</v>
       </c>
       <c r="BB49" s="11">
-        <v>89451700</v>
+        <v>67838445</v>
       </c>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B50" s="12" t="s">
         <v>64</v>
       </c>
@@ -7035,19 +7035,19 @@
       </c>
       <c r="D50" s="13"/>
       <c r="E50" s="13">
-        <v>249120</v>
+        <v>19700</v>
       </c>
       <c r="F50" s="13">
+        <v>340920</v>
+      </c>
+      <c r="G50" s="13">
         <v>0</v>
       </c>
-      <c r="G50" s="13">
-        <v>19700</v>
-      </c>
-      <c r="H50" s="13">
-        <v>340920</v>
-      </c>
-      <c r="I50" s="13">
-        <v>0</v>
+      <c r="H50" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I50" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="J50" s="13" t="s">
         <v>57</v>
@@ -7185,7 +7185,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
         <v>65</v>
       </c>
@@ -7194,20 +7194,20 @@
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11">
-        <v>44147260</v>
+        <v>49653257</v>
       </c>
       <c r="F51" s="11">
-        <v>52372990</v>
+        <v>45155898</v>
       </c>
       <c r="G51" s="11">
-        <v>49653257</v>
-      </c>
-      <c r="H51" s="11">
-        <v>45155898</v>
-      </c>
-      <c r="I51" s="11">
         <v>17137122</v>
       </c>
+      <c r="H51" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I51" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="J51" s="11" t="s">
         <v>57</v>
       </c>
@@ -7344,7 +7344,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B52" s="12" t="s">
         <v>66</v>
       </c>
@@ -7353,20 +7353,20 @@
       </c>
       <c r="D52" s="13"/>
       <c r="E52" s="13">
-        <v>0</v>
+        <v>56808</v>
       </c>
       <c r="F52" s="13">
-        <v>9868</v>
+        <v>49699</v>
       </c>
       <c r="G52" s="13">
-        <v>56808</v>
-      </c>
-      <c r="H52" s="13">
-        <v>49699</v>
-      </c>
-      <c r="I52" s="13">
         <v>19995</v>
       </c>
+      <c r="H52" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I52" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="J52" s="13" t="s">
         <v>57</v>
       </c>
@@ -7503,7 +7503,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
         <v>67</v>
       </c>
@@ -7512,20 +7512,20 @@
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="11">
-        <v>286075</v>
+        <v>126347</v>
       </c>
       <c r="F53" s="11">
-        <v>233095</v>
+        <v>28278</v>
       </c>
       <c r="G53" s="11">
-        <v>126347</v>
-      </c>
-      <c r="H53" s="11">
-        <v>28278</v>
-      </c>
-      <c r="I53" s="11">
         <v>0</v>
       </c>
+      <c r="H53" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I53" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="J53" s="11" t="s">
         <v>57</v>
       </c>
@@ -7662,7 +7662,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="12" t="s">
         <v>68</v>
       </c>
@@ -7671,20 +7671,20 @@
       </c>
       <c r="D54" s="13"/>
       <c r="E54" s="13">
-        <v>1175299</v>
+        <v>1004486</v>
       </c>
       <c r="F54" s="13">
-        <v>1401395</v>
+        <v>1098511</v>
       </c>
       <c r="G54" s="13">
-        <v>1004486</v>
-      </c>
-      <c r="H54" s="13">
-        <v>1098511</v>
-      </c>
-      <c r="I54" s="13">
         <v>336438</v>
       </c>
+      <c r="H54" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I54" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="J54" s="13" t="s">
         <v>57</v>
       </c>
@@ -7821,7 +7821,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
         <v>69</v>
       </c>
@@ -7830,20 +7830,20 @@
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11">
-        <v>1475556</v>
+        <v>523712</v>
       </c>
       <c r="F55" s="11">
-        <v>917000</v>
+        <v>1846910</v>
       </c>
       <c r="G55" s="11">
-        <v>523712</v>
-      </c>
-      <c r="H55" s="11">
-        <v>1846910</v>
-      </c>
-      <c r="I55" s="11">
         <v>199620</v>
       </c>
+      <c r="H55" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I55" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="J55" s="11" t="s">
         <v>57</v>
       </c>
@@ -7980,7 +7980,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="12" t="s">
         <v>70</v>
       </c>
@@ -7989,20 +7989,20 @@
       </c>
       <c r="D56" s="13"/>
       <c r="E56" s="13">
-        <v>1479086</v>
+        <v>1733730</v>
       </c>
       <c r="F56" s="13">
-        <v>1377752</v>
+        <v>1431378</v>
       </c>
       <c r="G56" s="13">
-        <v>1733730</v>
-      </c>
-      <c r="H56" s="13">
-        <v>1431378</v>
-      </c>
-      <c r="I56" s="13">
         <v>1218214</v>
       </c>
+      <c r="H56" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I56" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="J56" s="13" t="s">
         <v>57</v>
       </c>
@@ -8139,7 +8139,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
         <v>71</v>
       </c>
@@ -8148,20 +8148,20 @@
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11">
-        <v>4807628</v>
+        <v>9012273</v>
       </c>
       <c r="F57" s="11">
-        <v>5474352</v>
+        <v>3834145</v>
       </c>
       <c r="G57" s="11">
-        <v>9012273</v>
-      </c>
-      <c r="H57" s="11">
-        <v>3834145</v>
-      </c>
-      <c r="I57" s="11">
         <v>4435755</v>
       </c>
+      <c r="H57" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I57" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="J57" s="11" t="s">
         <v>57</v>
       </c>
@@ -8298,7 +8298,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B58" s="12" t="s">
         <v>72</v>
       </c>
@@ -8307,20 +8307,20 @@
       </c>
       <c r="D58" s="13"/>
       <c r="E58" s="13">
-        <v>272962</v>
+        <v>155770</v>
       </c>
       <c r="F58" s="13">
-        <v>187684</v>
+        <v>74910</v>
       </c>
       <c r="G58" s="13">
-        <v>155770</v>
-      </c>
-      <c r="H58" s="13">
-        <v>74910</v>
-      </c>
-      <c r="I58" s="13">
         <v>0</v>
       </c>
+      <c r="H58" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I58" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="J58" s="13" t="s">
         <v>57</v>
       </c>
@@ -8457,7 +8457,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
         <v>73</v>
       </c>
@@ -8466,20 +8466,20 @@
       </c>
       <c r="D59" s="11"/>
       <c r="E59" s="11">
-        <v>3220</v>
+        <v>60180</v>
       </c>
       <c r="F59" s="11">
         <v>0</v>
       </c>
       <c r="G59" s="11">
-        <v>60180</v>
-      </c>
-      <c r="H59" s="11">
-        <v>0</v>
-      </c>
-      <c r="I59" s="11">
         <v>5100</v>
       </c>
+      <c r="H59" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I59" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="J59" s="11" t="s">
         <v>57</v>
       </c>
@@ -8616,7 +8616,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="12" t="s">
         <v>74</v>
       </c>
@@ -8633,11 +8633,11 @@
       <c r="G60" s="13">
         <v>0</v>
       </c>
-      <c r="H60" s="13">
-        <v>0</v>
-      </c>
-      <c r="I60" s="13">
-        <v>0</v>
+      <c r="H60" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I60" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="J60" s="13" t="s">
         <v>57</v>
@@ -8775,7 +8775,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B61" s="10" t="s">
         <v>75</v>
       </c>
@@ -8784,20 +8784,20 @@
       </c>
       <c r="D61" s="11"/>
       <c r="E61" s="11">
-        <v>192190</v>
+        <v>114145</v>
       </c>
       <c r="F61" s="11">
-        <v>201696</v>
+        <v>139840</v>
       </c>
       <c r="G61" s="11">
-        <v>114145</v>
-      </c>
-      <c r="H61" s="11">
-        <v>139840</v>
-      </c>
-      <c r="I61" s="11">
         <v>31958</v>
       </c>
+      <c r="H61" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I61" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="J61" s="11" t="s">
         <v>57</v>
       </c>
@@ -8934,7 +8934,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B62" s="12" t="s">
         <v>76</v>
       </c>
@@ -8951,149 +8951,149 @@
       <c r="G62" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="H62" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="I62" s="13" t="s">
-        <v>57</v>
+      <c r="H62" s="13">
+        <v>11740338</v>
+      </c>
+      <c r="I62" s="13">
+        <v>11295978</v>
       </c>
       <c r="J62" s="13">
-        <v>11740338</v>
+        <v>10795850</v>
       </c>
       <c r="K62" s="13">
-        <v>11295978</v>
+        <v>12501784</v>
       </c>
       <c r="L62" s="13">
-        <v>10795850</v>
+        <v>13080024</v>
       </c>
       <c r="M62" s="13">
-        <v>12501784</v>
+        <v>9696293</v>
       </c>
       <c r="N62" s="13">
-        <v>13080024</v>
+        <v>13390179</v>
       </c>
       <c r="O62" s="13">
-        <v>9696293</v>
+        <v>10632582</v>
       </c>
       <c r="P62" s="13">
-        <v>13390179</v>
+        <v>12178328</v>
       </c>
       <c r="Q62" s="13">
-        <v>10632582</v>
+        <v>12502663</v>
       </c>
       <c r="R62" s="13">
-        <v>12178328</v>
+        <v>14035566</v>
       </c>
       <c r="S62" s="13">
-        <v>12502663</v>
+        <v>8428291</v>
       </c>
       <c r="T62" s="13">
-        <v>14035566</v>
+        <v>12042223</v>
       </c>
       <c r="U62" s="13">
-        <v>8428291</v>
+        <v>11707954</v>
       </c>
       <c r="V62" s="13">
-        <v>12042223</v>
+        <v>12069916</v>
       </c>
       <c r="W62" s="13">
-        <v>11707954</v>
+        <v>12343704</v>
       </c>
       <c r="X62" s="13">
-        <v>12069916</v>
+        <v>13641453</v>
       </c>
       <c r="Y62" s="13">
-        <v>12343704</v>
+        <v>8922630</v>
       </c>
       <c r="Z62" s="13">
-        <v>13641453</v>
+        <v>13269692</v>
       </c>
       <c r="AA62" s="13">
-        <v>8922630</v>
+        <v>12249185</v>
       </c>
       <c r="AB62" s="13">
-        <v>13269692</v>
+        <v>11523303</v>
       </c>
       <c r="AC62" s="13">
-        <v>12249185</v>
+        <v>8429445</v>
       </c>
       <c r="AD62" s="13">
-        <v>11523303</v>
+        <v>13218104</v>
       </c>
       <c r="AE62" s="13">
-        <v>8429445</v>
+        <v>4908388</v>
       </c>
       <c r="AF62" s="13">
-        <v>13218104</v>
+        <v>10284501</v>
       </c>
       <c r="AG62" s="13">
-        <v>4908388</v>
+        <v>15919855</v>
       </c>
       <c r="AH62" s="13">
-        <v>10284501</v>
+        <v>13965169</v>
       </c>
       <c r="AI62" s="13">
-        <v>15919855</v>
+        <v>16134297</v>
       </c>
       <c r="AJ62" s="13">
-        <v>13965169</v>
+        <v>17228757</v>
       </c>
       <c r="AK62" s="13">
-        <v>16134297</v>
+        <v>12894538</v>
       </c>
       <c r="AL62" s="13">
-        <v>17228757</v>
+        <v>17081837</v>
       </c>
       <c r="AM62" s="13">
-        <v>12894538</v>
+        <v>17267469</v>
       </c>
       <c r="AN62" s="13">
-        <v>17081837</v>
+        <v>16094830</v>
       </c>
       <c r="AO62" s="13">
-        <v>17267469</v>
+        <v>14425240</v>
       </c>
       <c r="AP62" s="13">
-        <v>16094830</v>
+        <v>14281929</v>
       </c>
       <c r="AQ62" s="13">
-        <v>14425240</v>
+        <v>5011451</v>
       </c>
       <c r="AR62" s="13">
-        <v>14281929</v>
+        <v>10885341</v>
       </c>
       <c r="AS62" s="13">
-        <v>5011451</v>
+        <v>16565908</v>
       </c>
       <c r="AT62" s="13">
-        <v>10885341</v>
+        <v>13118429</v>
       </c>
       <c r="AU62" s="13">
-        <v>16565908</v>
+        <v>12501207</v>
       </c>
       <c r="AV62" s="13">
-        <v>13118429</v>
+        <v>12947494</v>
       </c>
       <c r="AW62" s="13">
-        <v>12501207</v>
+        <v>10889677</v>
       </c>
       <c r="AX62" s="13">
-        <v>12947494</v>
+        <v>19307595</v>
       </c>
       <c r="AY62" s="13">
-        <v>10889677</v>
+        <v>16608828</v>
       </c>
       <c r="AZ62" s="13">
-        <v>19307595</v>
+        <v>11920603</v>
       </c>
       <c r="BA62" s="13">
-        <v>16608828</v>
+        <v>12074890</v>
       </c>
       <c r="BB62" s="13">
-        <v>11920603</v>
+        <v>10593232</v>
       </c>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
         <v>77</v>
       </c>
@@ -9110,149 +9110,149 @@
       <c r="G63" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="H63" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="I63" s="11" t="s">
-        <v>57</v>
+      <c r="H63" s="11">
+        <v>2899911</v>
+      </c>
+      <c r="I63" s="11">
+        <v>4544149</v>
       </c>
       <c r="J63" s="11">
-        <v>2899911</v>
+        <v>3812094</v>
       </c>
       <c r="K63" s="11">
-        <v>4544149</v>
+        <v>4713372</v>
       </c>
       <c r="L63" s="11">
-        <v>3812094</v>
+        <v>3916723</v>
       </c>
       <c r="M63" s="11">
-        <v>4713372</v>
+        <v>4485020</v>
       </c>
       <c r="N63" s="11">
-        <v>3916723</v>
+        <v>2792719</v>
       </c>
       <c r="O63" s="11">
-        <v>4485020</v>
+        <v>1836885</v>
       </c>
       <c r="P63" s="11">
-        <v>2792719</v>
+        <v>3807452</v>
       </c>
       <c r="Q63" s="11">
-        <v>1836885</v>
+        <v>5121624</v>
       </c>
       <c r="R63" s="11">
-        <v>3807452</v>
+        <v>4112945</v>
       </c>
       <c r="S63" s="11">
-        <v>5121624</v>
+        <v>1588490</v>
       </c>
       <c r="T63" s="11">
-        <v>4112945</v>
+        <v>5359259</v>
       </c>
       <c r="U63" s="11">
-        <v>1588490</v>
+        <v>1397038</v>
       </c>
       <c r="V63" s="11">
-        <v>5359259</v>
+        <v>3909372</v>
       </c>
       <c r="W63" s="11">
-        <v>1397038</v>
+        <v>6121454</v>
       </c>
       <c r="X63" s="11">
-        <v>3909372</v>
+        <v>7565337</v>
       </c>
       <c r="Y63" s="11">
-        <v>6121454</v>
+        <v>6985499</v>
       </c>
       <c r="Z63" s="11">
-        <v>7565337</v>
+        <v>7600674</v>
       </c>
       <c r="AA63" s="11">
-        <v>6985499</v>
+        <v>8552918</v>
       </c>
       <c r="AB63" s="11">
-        <v>7600674</v>
+        <v>6414569</v>
       </c>
       <c r="AC63" s="11">
-        <v>8552918</v>
+        <v>5833481</v>
       </c>
       <c r="AD63" s="11">
-        <v>6414569</v>
+        <v>7534059</v>
       </c>
       <c r="AE63" s="11">
-        <v>5833481</v>
+        <v>2054804</v>
       </c>
       <c r="AF63" s="11">
-        <v>7534059</v>
+        <v>3318248</v>
       </c>
       <c r="AG63" s="11">
-        <v>2054804</v>
+        <v>4072564</v>
       </c>
       <c r="AH63" s="11">
-        <v>3318248</v>
+        <v>4010244</v>
       </c>
       <c r="AI63" s="11">
-        <v>4072564</v>
+        <v>5985340</v>
       </c>
       <c r="AJ63" s="11">
-        <v>4010244</v>
+        <v>3973041</v>
       </c>
       <c r="AK63" s="11">
-        <v>5985340</v>
+        <v>7661587</v>
       </c>
       <c r="AL63" s="11">
-        <v>3973041</v>
+        <v>9436434</v>
       </c>
       <c r="AM63" s="11">
-        <v>7661587</v>
+        <v>10620610</v>
       </c>
       <c r="AN63" s="11">
-        <v>9436434</v>
+        <v>4869715</v>
       </c>
       <c r="AO63" s="11">
-        <v>10620610</v>
+        <v>7038284</v>
       </c>
       <c r="AP63" s="11">
-        <v>4869715</v>
+        <v>8724002</v>
       </c>
       <c r="AQ63" s="11">
-        <v>7038284</v>
+        <v>3379147</v>
       </c>
       <c r="AR63" s="11">
-        <v>8724002</v>
+        <v>5238658</v>
       </c>
       <c r="AS63" s="11">
-        <v>3379147</v>
+        <v>7513926</v>
       </c>
       <c r="AT63" s="11">
-        <v>5238658</v>
+        <v>10468801</v>
       </c>
       <c r="AU63" s="11">
-        <v>7513926</v>
+        <v>7816110</v>
       </c>
       <c r="AV63" s="11">
-        <v>10468801</v>
+        <v>3954361</v>
       </c>
       <c r="AW63" s="11">
-        <v>7816110</v>
+        <v>7369879</v>
       </c>
       <c r="AX63" s="11">
-        <v>3954361</v>
+        <v>7609561</v>
       </c>
       <c r="AY63" s="11">
-        <v>7369879</v>
+        <v>4994872</v>
       </c>
       <c r="AZ63" s="11">
-        <v>7609561</v>
+        <v>5683212</v>
       </c>
       <c r="BA63" s="11">
-        <v>4994872</v>
+        <v>5219587</v>
       </c>
       <c r="BB63" s="11">
-        <v>5683212</v>
+        <v>4743284</v>
       </c>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B64" s="8" t="s">
         <v>78</v>
       </c>
@@ -9309,7 +9309,7 @@
       <c r="BA64" s="9"/>
       <c r="BB64" s="9"/>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
         <v>61</v>
       </c>
@@ -9371,39 +9371,39 @@
       <c r="V65" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W65" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X65" s="11" t="s">
-        <v>57</v>
+      <c r="W65" s="11">
+        <v>1679201</v>
+      </c>
+      <c r="X65" s="11">
+        <v>315431</v>
       </c>
       <c r="Y65" s="11">
-        <v>1679201</v>
+        <v>986143</v>
       </c>
       <c r="Z65" s="11">
-        <v>315431</v>
+        <v>368723</v>
       </c>
       <c r="AA65" s="11">
-        <v>986143</v>
+        <v>514656</v>
       </c>
       <c r="AB65" s="11">
-        <v>368723</v>
+        <v>619470</v>
       </c>
       <c r="AC65" s="11">
-        <v>514656</v>
+        <v>822088</v>
       </c>
       <c r="AD65" s="11">
-        <v>619470</v>
+        <v>234739</v>
       </c>
       <c r="AE65" s="11">
-        <v>822088</v>
-      </c>
-      <c r="AF65" s="11">
-        <v>234739</v>
-      </c>
-      <c r="AG65" s="11">
         <v>584756</v>
       </c>
+      <c r="AF65" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG65" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AH65" s="11" t="s">
         <v>57</v>
       </c>
@@ -9468,7 +9468,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B66" s="12" t="s">
         <v>62</v>
       </c>
@@ -9557,77 +9557,77 @@
       <c r="AE66" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AF66" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG66" s="13" t="s">
-        <v>57</v>
+      <c r="AF66" s="13">
+        <v>374101</v>
+      </c>
+      <c r="AG66" s="13">
+        <v>584737</v>
       </c>
       <c r="AH66" s="13">
-        <v>374101</v>
+        <v>644586</v>
       </c>
       <c r="AI66" s="13">
-        <v>584737</v>
+        <v>568972</v>
       </c>
       <c r="AJ66" s="13">
-        <v>644586</v>
+        <v>1405274</v>
       </c>
       <c r="AK66" s="13">
-        <v>568972</v>
+        <v>728740</v>
       </c>
       <c r="AL66" s="13">
-        <v>1405274</v>
+        <v>1242397</v>
       </c>
       <c r="AM66" s="13">
-        <v>728740</v>
+        <v>569647</v>
       </c>
       <c r="AN66" s="13">
-        <v>1242397</v>
+        <v>519360</v>
       </c>
       <c r="AO66" s="13">
-        <v>569647</v>
+        <v>2462251</v>
       </c>
       <c r="AP66" s="13">
-        <v>519360</v>
+        <v>2608103</v>
       </c>
       <c r="AQ66" s="13">
-        <v>2462251</v>
+        <v>98684</v>
       </c>
       <c r="AR66" s="13">
-        <v>2608103</v>
+        <v>148058</v>
       </c>
       <c r="AS66" s="13">
-        <v>98684</v>
+        <v>1929941</v>
       </c>
       <c r="AT66" s="13">
-        <v>148058</v>
+        <v>1199060</v>
       </c>
       <c r="AU66" s="13">
-        <v>1929941</v>
+        <v>509673</v>
       </c>
       <c r="AV66" s="13">
-        <v>1199060</v>
+        <v>626548</v>
       </c>
       <c r="AW66" s="13">
-        <v>509673</v>
+        <v>2191321</v>
       </c>
       <c r="AX66" s="13">
-        <v>626548</v>
+        <v>2124537</v>
       </c>
       <c r="AY66" s="13">
-        <v>2191321</v>
+        <v>433844</v>
       </c>
       <c r="AZ66" s="13">
-        <v>2124537</v>
+        <v>2275483</v>
       </c>
       <c r="BA66" s="13">
-        <v>433844</v>
+        <v>246925</v>
       </c>
       <c r="BB66" s="13">
-        <v>2275483</v>
+        <v>1922726</v>
       </c>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B67" s="14" t="s">
         <v>79</v>
       </c>
@@ -9687,104 +9687,104 @@
       <c r="V67" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="W67" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="X67" s="15" t="s">
-        <v>57</v>
+      <c r="W67" s="15">
+        <v>1679201</v>
+      </c>
+      <c r="X67" s="15">
+        <v>315431</v>
       </c>
       <c r="Y67" s="15">
-        <v>1679201</v>
+        <v>986143</v>
       </c>
       <c r="Z67" s="15">
-        <v>315431</v>
+        <v>368723</v>
       </c>
       <c r="AA67" s="15">
-        <v>986143</v>
+        <v>514656</v>
       </c>
       <c r="AB67" s="15">
-        <v>368723</v>
+        <v>619470</v>
       </c>
       <c r="AC67" s="15">
-        <v>514656</v>
+        <v>822088</v>
       </c>
       <c r="AD67" s="15">
-        <v>619470</v>
+        <v>234739</v>
       </c>
       <c r="AE67" s="15">
-        <v>822088</v>
+        <v>584756</v>
       </c>
       <c r="AF67" s="15">
-        <v>234739</v>
+        <v>374101</v>
       </c>
       <c r="AG67" s="15">
-        <v>584756</v>
+        <v>584737</v>
       </c>
       <c r="AH67" s="15">
-        <v>374101</v>
+        <v>644586</v>
       </c>
       <c r="AI67" s="15">
-        <v>584737</v>
+        <v>568972</v>
       </c>
       <c r="AJ67" s="15">
-        <v>644586</v>
+        <v>1405274</v>
       </c>
       <c r="AK67" s="15">
-        <v>568972</v>
+        <v>728740</v>
       </c>
       <c r="AL67" s="15">
-        <v>1405274</v>
+        <v>1242397</v>
       </c>
       <c r="AM67" s="15">
-        <v>728740</v>
+        <v>569647</v>
       </c>
       <c r="AN67" s="15">
-        <v>1242397</v>
+        <v>519360</v>
       </c>
       <c r="AO67" s="15">
-        <v>569647</v>
+        <v>2462251</v>
       </c>
       <c r="AP67" s="15">
-        <v>519360</v>
+        <v>2608103</v>
       </c>
       <c r="AQ67" s="15">
-        <v>2462251</v>
+        <v>98684</v>
       </c>
       <c r="AR67" s="15">
-        <v>2608103</v>
+        <v>148058</v>
       </c>
       <c r="AS67" s="15">
-        <v>98684</v>
+        <v>1929941</v>
       </c>
       <c r="AT67" s="15">
-        <v>148058</v>
+        <v>1199060</v>
       </c>
       <c r="AU67" s="15">
-        <v>1929941</v>
+        <v>509673</v>
       </c>
       <c r="AV67" s="15">
-        <v>1199060</v>
+        <v>626548</v>
       </c>
       <c r="AW67" s="15">
-        <v>509673</v>
+        <v>2191321</v>
       </c>
       <c r="AX67" s="15">
-        <v>626548</v>
+        <v>2124537</v>
       </c>
       <c r="AY67" s="15">
-        <v>2191321</v>
+        <v>433844</v>
       </c>
       <c r="AZ67" s="15">
-        <v>2124537</v>
+        <v>2275483</v>
       </c>
       <c r="BA67" s="15">
-        <v>433844</v>
+        <v>246925</v>
       </c>
       <c r="BB67" s="15">
-        <v>2275483</v>
+        <v>1922726</v>
       </c>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B68" s="18" t="s">
         <v>82</v>
       </c>
@@ -9841,7 +9841,7 @@
       <c r="BA68" s="19"/>
       <c r="BB68" s="19"/>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B69" s="14" t="s">
         <v>83</v>
       </c>
@@ -9901,11 +9901,11 @@
       <c r="V69" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="W69" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="X69" s="15" t="s">
-        <v>57</v>
+      <c r="W69" s="15">
+        <v>0</v>
+      </c>
+      <c r="X69" s="15">
+        <v>0</v>
       </c>
       <c r="Y69" s="15">
         <v>0</v>
@@ -9998,164 +9998,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B70" s="16" t="s">
         <v>80</v>
       </c>
       <c r="C70" s="17"/>
       <c r="D70" s="17"/>
       <c r="E70" s="17">
-        <v>61708501</v>
+        <v>69192662</v>
       </c>
       <c r="F70" s="17">
-        <v>70944796</v>
+        <v>61286021</v>
       </c>
       <c r="G70" s="17">
-        <v>69192662</v>
+        <v>27032600</v>
       </c>
       <c r="H70" s="17">
-        <v>61286021</v>
+        <v>104404292</v>
       </c>
       <c r="I70" s="17">
-        <v>27032600</v>
+        <v>105169848</v>
       </c>
       <c r="J70" s="17">
-        <v>104404292</v>
+        <v>107748550</v>
       </c>
       <c r="K70" s="17">
-        <v>105169848</v>
+        <v>95428384</v>
       </c>
       <c r="L70" s="17">
-        <v>107748550</v>
+        <v>106876709</v>
       </c>
       <c r="M70" s="17">
-        <v>95428384</v>
+        <v>107098390</v>
       </c>
       <c r="N70" s="17">
-        <v>106876709</v>
+        <v>111958868</v>
       </c>
       <c r="O70" s="17">
-        <v>107098390</v>
+        <v>132800319</v>
       </c>
       <c r="P70" s="17">
-        <v>111958868</v>
+        <v>91097826</v>
       </c>
       <c r="Q70" s="17">
-        <v>132800319</v>
+        <v>116572335</v>
       </c>
       <c r="R70" s="17">
-        <v>91097826</v>
+        <v>104185441</v>
       </c>
       <c r="S70" s="17">
-        <v>116572335</v>
+        <v>40027163</v>
       </c>
       <c r="T70" s="17">
-        <v>104185441</v>
+        <v>121319427</v>
       </c>
       <c r="U70" s="17">
-        <v>40027163</v>
+        <v>135856163</v>
       </c>
       <c r="V70" s="17">
-        <v>121319427</v>
+        <v>124125867</v>
       </c>
       <c r="W70" s="17">
-        <v>135856163</v>
+        <v>126996709</v>
       </c>
       <c r="X70" s="17">
-        <v>124125867</v>
+        <v>132540218</v>
       </c>
       <c r="Y70" s="17">
-        <v>126996709</v>
+        <v>107975761</v>
       </c>
       <c r="Z70" s="17">
-        <v>132540218</v>
+        <v>114042003</v>
       </c>
       <c r="AA70" s="17">
-        <v>107975761</v>
+        <v>114137500</v>
       </c>
       <c r="AB70" s="17">
-        <v>114042003</v>
+        <v>92050094</v>
       </c>
       <c r="AC70" s="17">
-        <v>114137500</v>
+        <v>85579043</v>
       </c>
       <c r="AD70" s="17">
-        <v>92050094</v>
+        <v>91056334</v>
       </c>
       <c r="AE70" s="17">
-        <v>85579043</v>
+        <v>23515914</v>
       </c>
       <c r="AF70" s="17">
-        <v>91056334</v>
+        <v>89520427</v>
       </c>
       <c r="AG70" s="17">
-        <v>23515914</v>
+        <v>88651695</v>
       </c>
       <c r="AH70" s="17">
-        <v>89520427</v>
+        <v>66757331</v>
       </c>
       <c r="AI70" s="17">
-        <v>88651695</v>
+        <v>89517047</v>
       </c>
       <c r="AJ70" s="17">
-        <v>66757331</v>
+        <v>102887333</v>
       </c>
       <c r="AK70" s="17">
-        <v>89517047</v>
+        <v>114145841</v>
       </c>
       <c r="AL70" s="17">
-        <v>102887333</v>
+        <v>144373383</v>
       </c>
       <c r="AM70" s="17">
-        <v>114145841</v>
+        <v>136574066</v>
       </c>
       <c r="AN70" s="17">
-        <v>144373383</v>
+        <v>155322526</v>
       </c>
       <c r="AO70" s="17">
-        <v>136574066</v>
+        <v>116184765</v>
       </c>
       <c r="AP70" s="17">
-        <v>155322526</v>
+        <v>76253168</v>
       </c>
       <c r="AQ70" s="17">
-        <v>116184765</v>
+        <v>25299678</v>
       </c>
       <c r="AR70" s="17">
-        <v>76253168</v>
+        <v>95247718</v>
       </c>
       <c r="AS70" s="17">
-        <v>25299678</v>
+        <v>133663655</v>
       </c>
       <c r="AT70" s="17">
-        <v>95247718</v>
+        <v>101585011</v>
       </c>
       <c r="AU70" s="17">
-        <v>133663655</v>
+        <v>114652457</v>
       </c>
       <c r="AV70" s="17">
-        <v>101585011</v>
+        <v>84682749</v>
       </c>
       <c r="AW70" s="17">
-        <v>114652457</v>
+        <v>106478171</v>
       </c>
       <c r="AX70" s="17">
-        <v>84682749</v>
+        <v>106524917</v>
       </c>
       <c r="AY70" s="17">
-        <v>106478171</v>
+        <v>122126044</v>
       </c>
       <c r="AZ70" s="17">
-        <v>106524917</v>
+        <v>110404055</v>
       </c>
       <c r="BA70" s="17">
-        <v>122126044</v>
+        <v>92668634</v>
       </c>
       <c r="BB70" s="17">
-        <v>110404055</v>
+        <v>86050887</v>
       </c>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -10210,7 +10210,7 @@
       <c r="BA71" s="1"/>
       <c r="BB71" s="1"/>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -10265,7 +10265,7 @@
       <c r="BA72" s="1"/>
       <c r="BB72" s="1"/>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -10320,7 +10320,7 @@
       <c r="BA73" s="1"/>
       <c r="BB73" s="1"/>
     </row>
-    <row r="74" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B74" s="7" t="s">
         <v>84</v>
       </c>
@@ -10477,7 +10477,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -10532,7 +10532,7 @@
       <c r="BA75" s="1"/>
       <c r="BB75" s="1"/>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B76" s="8" t="s">
         <v>84</v>
       </c>
@@ -10589,7 +10589,7 @@
       <c r="BA76" s="9"/>
       <c r="BB76" s="9"/>
     </row>
-    <row r="77" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B77" s="10" t="s">
         <v>55</v>
       </c>
@@ -10598,20 +10598,20 @@
       </c>
       <c r="D77" s="11"/>
       <c r="E77" s="11">
-        <v>25768</v>
+        <v>34958</v>
       </c>
       <c r="F77" s="11">
-        <v>29423</v>
+        <v>29510</v>
       </c>
       <c r="G77" s="11">
-        <v>34958</v>
-      </c>
-      <c r="H77" s="11">
-        <v>29510</v>
-      </c>
-      <c r="I77" s="11">
         <v>11625</v>
       </c>
+      <c r="H77" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I77" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="J77" s="11" t="s">
         <v>57</v>
       </c>
@@ -10748,7 +10748,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="78" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B78" s="12" t="s">
         <v>58</v>
       </c>
@@ -10757,20 +10757,20 @@
       </c>
       <c r="D78" s="13"/>
       <c r="E78" s="13">
-        <v>16335</v>
+        <v>10337</v>
       </c>
       <c r="F78" s="13">
-        <v>9600</v>
+        <v>22526</v>
       </c>
       <c r="G78" s="13">
-        <v>10337</v>
-      </c>
-      <c r="H78" s="13">
-        <v>22526</v>
-      </c>
-      <c r="I78" s="13">
         <v>20212</v>
       </c>
+      <c r="H78" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I78" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="J78" s="13" t="s">
         <v>57</v>
       </c>
@@ -10907,7 +10907,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="79" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B79" s="10" t="s">
         <v>59</v>
       </c>
@@ -10916,20 +10916,20 @@
       </c>
       <c r="D79" s="11"/>
       <c r="E79" s="11">
-        <v>94056</v>
+        <v>92992</v>
       </c>
       <c r="F79" s="11">
-        <v>100553</v>
+        <v>87212</v>
       </c>
       <c r="G79" s="11">
-        <v>92992</v>
-      </c>
-      <c r="H79" s="11">
-        <v>87212</v>
-      </c>
-      <c r="I79" s="11">
         <v>38524</v>
       </c>
+      <c r="H79" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I79" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="J79" s="11" t="s">
         <v>57</v>
       </c>
@@ -11066,7 +11066,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="80" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B80" s="12" t="s">
         <v>60</v>
       </c>
@@ -11083,149 +11083,149 @@
       <c r="G80" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="H80" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="I80" s="13" t="s">
-        <v>57</v>
+      <c r="H80" s="13">
+        <v>51649</v>
+      </c>
+      <c r="I80" s="13">
+        <v>51956</v>
       </c>
       <c r="J80" s="13">
-        <v>51649</v>
+        <v>70781</v>
       </c>
       <c r="K80" s="13">
-        <v>51956</v>
+        <v>52790</v>
       </c>
       <c r="L80" s="13">
-        <v>70781</v>
+        <v>57833</v>
       </c>
       <c r="M80" s="13">
-        <v>52790</v>
+        <v>88232</v>
       </c>
       <c r="N80" s="13">
-        <v>57833</v>
+        <v>100166</v>
       </c>
       <c r="O80" s="13">
-        <v>88232</v>
+        <v>158197</v>
       </c>
       <c r="P80" s="13">
-        <v>100166</v>
+        <v>113436</v>
       </c>
       <c r="Q80" s="13">
-        <v>158197</v>
+        <v>124878</v>
       </c>
       <c r="R80" s="13">
-        <v>113436</v>
+        <v>87185</v>
       </c>
       <c r="S80" s="13">
-        <v>124878</v>
+        <v>55905</v>
       </c>
       <c r="T80" s="13">
-        <v>87185</v>
+        <v>115012</v>
       </c>
       <c r="U80" s="13">
-        <v>55905</v>
+        <v>128324</v>
       </c>
       <c r="V80" s="13">
-        <v>115012</v>
+        <v>96742</v>
       </c>
       <c r="W80" s="13">
-        <v>128324</v>
+        <v>89417</v>
       </c>
       <c r="X80" s="13">
-        <v>96742</v>
+        <v>77603</v>
       </c>
       <c r="Y80" s="13">
-        <v>89417</v>
+        <v>114180</v>
       </c>
       <c r="Z80" s="13">
-        <v>77603</v>
+        <v>141849</v>
       </c>
       <c r="AA80" s="13">
-        <v>114180</v>
+        <v>160116</v>
       </c>
       <c r="AB80" s="13">
-        <v>141849</v>
+        <v>113437</v>
       </c>
       <c r="AC80" s="13">
-        <v>160116</v>
+        <v>148716</v>
       </c>
       <c r="AD80" s="13">
-        <v>113437</v>
+        <v>73461</v>
       </c>
       <c r="AE80" s="13">
-        <v>148716</v>
+        <v>1519</v>
       </c>
       <c r="AF80" s="13">
-        <v>73461</v>
+        <v>91554</v>
       </c>
       <c r="AG80" s="13">
-        <v>1519</v>
+        <v>113105</v>
       </c>
       <c r="AH80" s="13">
-        <v>91554</v>
+        <v>125879</v>
       </c>
       <c r="AI80" s="13">
-        <v>113105</v>
+        <v>129749</v>
       </c>
       <c r="AJ80" s="13">
-        <v>125879</v>
+        <v>110606</v>
       </c>
       <c r="AK80" s="13">
-        <v>129749</v>
+        <v>208562</v>
       </c>
       <c r="AL80" s="13">
-        <v>110606</v>
+        <v>120356</v>
       </c>
       <c r="AM80" s="13">
-        <v>208562</v>
+        <v>169647</v>
       </c>
       <c r="AN80" s="13">
-        <v>120356</v>
+        <v>187696</v>
       </c>
       <c r="AO80" s="13">
-        <v>169647</v>
+        <v>161783</v>
       </c>
       <c r="AP80" s="13">
-        <v>187696</v>
+        <v>168046</v>
       </c>
       <c r="AQ80" s="13">
-        <v>161783</v>
+        <v>80720</v>
       </c>
       <c r="AR80" s="13">
-        <v>168046</v>
+        <v>196582</v>
       </c>
       <c r="AS80" s="13">
-        <v>80720</v>
+        <v>330206</v>
       </c>
       <c r="AT80" s="13">
-        <v>196582</v>
+        <v>235238</v>
       </c>
       <c r="AU80" s="13">
-        <v>330206</v>
+        <v>227255</v>
       </c>
       <c r="AV80" s="13">
-        <v>235238</v>
+        <v>200261</v>
       </c>
       <c r="AW80" s="13">
-        <v>394822</v>
+        <v>153220</v>
       </c>
       <c r="AX80" s="13">
-        <v>200261</v>
+        <v>107415</v>
       </c>
       <c r="AY80" s="13">
-        <v>153220</v>
+        <v>209790</v>
       </c>
       <c r="AZ80" s="13">
-        <v>107415</v>
+        <v>198022</v>
       </c>
       <c r="BA80" s="13">
-        <v>209790</v>
+        <v>292849</v>
       </c>
       <c r="BB80" s="13">
-        <v>198022</v>
+        <v>215479</v>
       </c>
     </row>
-    <row r="81" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B81" s="10" t="s">
         <v>61</v>
       </c>
@@ -11248,51 +11248,51 @@
       <c r="I81" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="J81" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="K81" s="11" t="s">
-        <v>57</v>
+      <c r="J81" s="11">
+        <v>6543</v>
+      </c>
+      <c r="K81" s="11">
+        <v>0</v>
       </c>
       <c r="L81" s="11">
-        <v>6543</v>
+        <v>3702</v>
       </c>
       <c r="M81" s="11">
-        <v>0</v>
+        <v>9478</v>
       </c>
       <c r="N81" s="11">
-        <v>3702</v>
+        <v>15623</v>
       </c>
       <c r="O81" s="11">
-        <v>9478</v>
+        <v>4818</v>
       </c>
       <c r="P81" s="11">
-        <v>15623</v>
+        <v>22969</v>
       </c>
       <c r="Q81" s="11">
-        <v>4818</v>
+        <v>9823</v>
       </c>
       <c r="R81" s="11">
-        <v>22969</v>
+        <v>12046</v>
       </c>
       <c r="S81" s="11">
-        <v>9823</v>
+        <v>12082</v>
       </c>
       <c r="T81" s="11">
-        <v>12046</v>
+        <v>15979</v>
       </c>
       <c r="U81" s="11">
-        <v>12082</v>
+        <v>19301</v>
       </c>
       <c r="V81" s="11">
-        <v>15979</v>
-      </c>
-      <c r="W81" s="11">
-        <v>19301</v>
-      </c>
-      <c r="X81" s="11">
         <v>6857</v>
       </c>
+      <c r="W81" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="X81" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="Y81" s="11" t="s">
         <v>57</v>
       </c>
@@ -11384,7 +11384,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="82" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B82" s="12" t="s">
         <v>62</v>
       </c>
@@ -11396,17 +11396,17 @@
         <v>0</v>
       </c>
       <c r="F82" s="13">
-        <v>3030</v>
+        <v>0</v>
       </c>
       <c r="G82" s="13">
-        <v>0</v>
-      </c>
-      <c r="H82" s="13">
-        <v>0</v>
-      </c>
-      <c r="I82" s="13">
         <v>12257</v>
       </c>
+      <c r="H82" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I82" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="J82" s="13" t="s">
         <v>57</v>
       </c>
@@ -11543,7 +11543,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="83" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B83" s="10" t="s">
         <v>63</v>
       </c>
@@ -11560,149 +11560,149 @@
       <c r="G83" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="H83" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="I83" s="11" t="s">
-        <v>57</v>
+      <c r="H83" s="11">
+        <v>130741</v>
+      </c>
+      <c r="I83" s="11">
+        <v>133074</v>
       </c>
       <c r="J83" s="11">
-        <v>130741</v>
+        <v>135886</v>
       </c>
       <c r="K83" s="11">
-        <v>133074</v>
+        <v>141726</v>
       </c>
       <c r="L83" s="11">
-        <v>135886</v>
+        <v>141215</v>
       </c>
       <c r="M83" s="11">
-        <v>141726</v>
+        <v>194268</v>
       </c>
       <c r="N83" s="11">
-        <v>141215</v>
+        <v>176355</v>
       </c>
       <c r="O83" s="11">
-        <v>194268</v>
+        <v>210017</v>
       </c>
       <c r="P83" s="11">
-        <v>176355</v>
+        <v>155506</v>
       </c>
       <c r="Q83" s="11">
-        <v>210017</v>
+        <v>163635</v>
       </c>
       <c r="R83" s="11">
-        <v>155506</v>
+        <v>172738</v>
       </c>
       <c r="S83" s="11">
-        <v>163635</v>
+        <v>53198</v>
       </c>
       <c r="T83" s="11">
-        <v>172738</v>
+        <v>190763</v>
       </c>
       <c r="U83" s="11">
-        <v>53198</v>
+        <v>227519</v>
       </c>
       <c r="V83" s="11">
-        <v>190763</v>
+        <v>230978</v>
       </c>
       <c r="W83" s="11">
-        <v>227519</v>
+        <v>190023</v>
       </c>
       <c r="X83" s="11">
-        <v>230978</v>
+        <v>176990</v>
       </c>
       <c r="Y83" s="11">
-        <v>190023</v>
+        <v>193908</v>
       </c>
       <c r="Z83" s="11">
-        <v>176990</v>
+        <v>238425</v>
       </c>
       <c r="AA83" s="11">
-        <v>193908</v>
+        <v>240334</v>
       </c>
       <c r="AB83" s="11">
-        <v>238425</v>
+        <v>232410</v>
       </c>
       <c r="AC83" s="11">
-        <v>240334</v>
+        <v>206651</v>
       </c>
       <c r="AD83" s="11">
-        <v>232410</v>
+        <v>214765</v>
       </c>
       <c r="AE83" s="11">
-        <v>206651</v>
+        <v>13081</v>
       </c>
       <c r="AF83" s="11">
-        <v>214765</v>
+        <v>216354</v>
       </c>
       <c r="AG83" s="11">
-        <v>13081</v>
+        <v>206864</v>
       </c>
       <c r="AH83" s="11">
-        <v>216354</v>
+        <v>160548</v>
       </c>
       <c r="AI83" s="11">
-        <v>206864</v>
+        <v>191395</v>
       </c>
       <c r="AJ83" s="11">
-        <v>160548</v>
+        <v>263204</v>
       </c>
       <c r="AK83" s="11">
-        <v>191395</v>
+        <v>261459</v>
       </c>
       <c r="AL83" s="11">
-        <v>263204</v>
+        <v>425732</v>
       </c>
       <c r="AM83" s="11">
-        <v>261459</v>
+        <v>348516</v>
       </c>
       <c r="AN83" s="11">
-        <v>425732</v>
+        <v>512385</v>
       </c>
       <c r="AO83" s="11">
-        <v>348516</v>
+        <v>314728</v>
       </c>
       <c r="AP83" s="11">
-        <v>512385</v>
+        <v>178973</v>
       </c>
       <c r="AQ83" s="11">
-        <v>314728</v>
+        <v>-24848</v>
       </c>
       <c r="AR83" s="11">
-        <v>178973</v>
+        <v>337881</v>
       </c>
       <c r="AS83" s="11">
-        <v>-24848</v>
+        <v>378831</v>
       </c>
       <c r="AT83" s="11">
-        <v>337881</v>
+        <v>261115</v>
       </c>
       <c r="AU83" s="11">
-        <v>378831</v>
+        <v>329432</v>
       </c>
       <c r="AV83" s="11">
-        <v>261115</v>
+        <v>494380</v>
       </c>
       <c r="AW83" s="11">
-        <v>707344</v>
+        <v>550101</v>
       </c>
       <c r="AX83" s="11">
-        <v>494380</v>
+        <v>496347</v>
       </c>
       <c r="AY83" s="11">
-        <v>550101</v>
+        <v>605543</v>
       </c>
       <c r="AZ83" s="11">
-        <v>496347</v>
+        <v>663465</v>
       </c>
       <c r="BA83" s="11">
-        <v>605543</v>
+        <v>463971</v>
       </c>
       <c r="BB83" s="11">
-        <v>663465</v>
+        <v>533698</v>
       </c>
     </row>
-    <row r="84" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B84" s="12" t="s">
         <v>64</v>
       </c>
@@ -11711,19 +11711,19 @@
       </c>
       <c r="D84" s="13"/>
       <c r="E84" s="13">
-        <v>1116</v>
+        <v>111</v>
       </c>
       <c r="F84" s="13">
+        <v>1996</v>
+      </c>
+      <c r="G84" s="13">
         <v>0</v>
       </c>
-      <c r="G84" s="13">
-        <v>111</v>
-      </c>
-      <c r="H84" s="13">
-        <v>1996</v>
-      </c>
-      <c r="I84" s="13">
-        <v>0</v>
+      <c r="H84" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I84" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="J84" s="13" t="s">
         <v>57</v>
@@ -11861,7 +11861,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="85" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B85" s="10" t="s">
         <v>65</v>
       </c>
@@ -11870,20 +11870,20 @@
       </c>
       <c r="D85" s="11"/>
       <c r="E85" s="11">
-        <v>50792</v>
+        <v>48430</v>
       </c>
       <c r="F85" s="11">
-        <v>60411</v>
+        <v>55115</v>
       </c>
       <c r="G85" s="11">
-        <v>48430</v>
-      </c>
-      <c r="H85" s="11">
-        <v>55115</v>
-      </c>
-      <c r="I85" s="11">
         <v>41265</v>
       </c>
+      <c r="H85" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I85" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="J85" s="11" t="s">
         <v>57</v>
       </c>
@@ -12020,7 +12020,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="86" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B86" s="12" t="s">
         <v>66</v>
       </c>
@@ -12029,20 +12029,20 @@
       </c>
       <c r="D86" s="13"/>
       <c r="E86" s="13">
-        <v>0</v>
+        <v>19411</v>
       </c>
       <c r="F86" s="13">
-        <v>3302</v>
+        <v>16982</v>
       </c>
       <c r="G86" s="13">
-        <v>19411</v>
-      </c>
-      <c r="H86" s="13">
-        <v>16982</v>
-      </c>
-      <c r="I86" s="13">
         <v>6310</v>
       </c>
+      <c r="H86" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I86" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="J86" s="13" t="s">
         <v>57</v>
       </c>
@@ -12179,7 +12179,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="87" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B87" s="10" t="s">
         <v>67</v>
       </c>
@@ -12188,20 +12188,20 @@
       </c>
       <c r="D87" s="11"/>
       <c r="E87" s="11">
-        <v>11780</v>
+        <v>8894</v>
       </c>
       <c r="F87" s="11">
-        <v>10088</v>
+        <v>2740</v>
       </c>
       <c r="G87" s="11">
-        <v>8894</v>
-      </c>
-      <c r="H87" s="11">
-        <v>2740</v>
-      </c>
-      <c r="I87" s="11">
         <v>0</v>
       </c>
+      <c r="H87" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I87" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="J87" s="11" t="s">
         <v>57</v>
       </c>
@@ -12338,7 +12338,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="88" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B88" s="12" t="s">
         <v>68</v>
       </c>
@@ -12347,20 +12347,20 @@
       </c>
       <c r="D88" s="13"/>
       <c r="E88" s="13">
-        <v>62658</v>
+        <v>39152</v>
       </c>
       <c r="F88" s="13">
-        <v>53925</v>
+        <v>42331</v>
       </c>
       <c r="G88" s="13">
-        <v>39152</v>
-      </c>
-      <c r="H88" s="13">
-        <v>42331</v>
-      </c>
-      <c r="I88" s="13">
         <v>16289</v>
       </c>
+      <c r="H88" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I88" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="J88" s="13" t="s">
         <v>57</v>
       </c>
@@ -12497,7 +12497,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="89" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B89" s="10" t="s">
         <v>69</v>
       </c>
@@ -12506,20 +12506,20 @@
       </c>
       <c r="D89" s="11"/>
       <c r="E89" s="11">
-        <v>10217</v>
+        <v>12327</v>
       </c>
       <c r="F89" s="11">
-        <v>2740</v>
+        <v>8449</v>
       </c>
       <c r="G89" s="11">
-        <v>12327</v>
-      </c>
-      <c r="H89" s="11">
-        <v>8449</v>
-      </c>
-      <c r="I89" s="11">
         <v>1322</v>
       </c>
+      <c r="H89" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I89" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="J89" s="11" t="s">
         <v>57</v>
       </c>
@@ -12656,7 +12656,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="90" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B90" s="12" t="s">
         <v>70</v>
       </c>
@@ -12665,20 +12665,20 @@
       </c>
       <c r="D90" s="13"/>
       <c r="E90" s="13">
-        <v>63310</v>
+        <v>78103</v>
       </c>
       <c r="F90" s="13">
-        <v>49614</v>
+        <v>65714</v>
       </c>
       <c r="G90" s="13">
-        <v>78103</v>
-      </c>
-      <c r="H90" s="13">
-        <v>65714</v>
-      </c>
-      <c r="I90" s="13">
         <v>56124</v>
       </c>
+      <c r="H90" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I90" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="J90" s="13" t="s">
         <v>57</v>
       </c>
@@ -12815,7 +12815,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="91" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B91" s="10" t="s">
         <v>71</v>
       </c>
@@ -12824,20 +12824,20 @@
       </c>
       <c r="D91" s="11"/>
       <c r="E91" s="11">
-        <v>12294</v>
+        <v>23251</v>
       </c>
       <c r="F91" s="11">
-        <v>15426</v>
+        <v>9847</v>
       </c>
       <c r="G91" s="11">
-        <v>23251</v>
-      </c>
-      <c r="H91" s="11">
-        <v>9847</v>
-      </c>
-      <c r="I91" s="11">
         <v>29160</v>
       </c>
+      <c r="H91" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I91" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="J91" s="11" t="s">
         <v>57</v>
       </c>
@@ -12974,7 +12974,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="92" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B92" s="12" t="s">
         <v>72</v>
       </c>
@@ -12983,20 +12983,20 @@
       </c>
       <c r="D92" s="13"/>
       <c r="E92" s="13">
-        <v>42288</v>
+        <v>22211</v>
       </c>
       <c r="F92" s="13">
-        <v>25223</v>
+        <v>10894</v>
       </c>
       <c r="G92" s="13">
-        <v>22211</v>
-      </c>
-      <c r="H92" s="13">
-        <v>10894</v>
-      </c>
-      <c r="I92" s="13">
         <v>0</v>
       </c>
+      <c r="H92" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I92" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="J92" s="13" t="s">
         <v>57</v>
       </c>
@@ -13133,7 +13133,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="93" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B93" s="10" t="s">
         <v>73</v>
       </c>
@@ -13142,20 +13142,20 @@
       </c>
       <c r="D93" s="11"/>
       <c r="E93" s="11">
-        <v>15</v>
+        <v>415</v>
       </c>
       <c r="F93" s="11">
         <v>0</v>
       </c>
       <c r="G93" s="11">
-        <v>415</v>
-      </c>
-      <c r="H93" s="11">
-        <v>0</v>
-      </c>
-      <c r="I93" s="11">
         <v>222</v>
       </c>
+      <c r="H93" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I93" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="J93" s="11" t="s">
         <v>57</v>
       </c>
@@ -13292,7 +13292,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="94" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B94" s="12" t="s">
         <v>74</v>
       </c>
@@ -13301,7 +13301,7 @@
       </c>
       <c r="D94" s="13"/>
       <c r="E94" s="13">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F94" s="13">
         <v>0</v>
@@ -13309,11 +13309,11 @@
       <c r="G94" s="13">
         <v>0</v>
       </c>
-      <c r="H94" s="13">
-        <v>0</v>
-      </c>
-      <c r="I94" s="13">
-        <v>0</v>
+      <c r="H94" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I94" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="J94" s="13" t="s">
         <v>57</v>
@@ -13451,7 +13451,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="95" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B95" s="10" t="s">
         <v>75</v>
       </c>
@@ -13460,20 +13460,20 @@
       </c>
       <c r="D95" s="11"/>
       <c r="E95" s="11">
-        <v>7861</v>
+        <v>4206</v>
       </c>
       <c r="F95" s="11">
-        <v>6694</v>
+        <v>5033</v>
       </c>
       <c r="G95" s="11">
-        <v>4206</v>
-      </c>
-      <c r="H95" s="11">
-        <v>5033</v>
-      </c>
-      <c r="I95" s="11">
         <v>2626</v>
       </c>
+      <c r="H95" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I95" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="J95" s="11" t="s">
         <v>57</v>
       </c>
@@ -13610,7 +13610,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="96" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B96" s="12" t="s">
         <v>76</v>
       </c>
@@ -13627,149 +13627,149 @@
       <c r="G96" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="H96" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="I96" s="13" t="s">
-        <v>57</v>
+      <c r="H96" s="13">
+        <v>347579</v>
+      </c>
+      <c r="I96" s="13">
+        <v>285401</v>
       </c>
       <c r="J96" s="13">
-        <v>347579</v>
+        <v>294192</v>
       </c>
       <c r="K96" s="13">
-        <v>285401</v>
+        <v>325347</v>
       </c>
       <c r="L96" s="13">
-        <v>294192</v>
+        <v>373636</v>
       </c>
       <c r="M96" s="13">
-        <v>325347</v>
+        <v>266910</v>
       </c>
       <c r="N96" s="13">
-        <v>373636</v>
+        <v>354918</v>
       </c>
       <c r="O96" s="13">
-        <v>266910</v>
+        <v>279757</v>
       </c>
       <c r="P96" s="13">
-        <v>354918</v>
+        <v>342383</v>
       </c>
       <c r="Q96" s="13">
-        <v>279757</v>
+        <v>325512</v>
       </c>
       <c r="R96" s="13">
-        <v>342383</v>
+        <v>331244</v>
       </c>
       <c r="S96" s="13">
-        <v>325512</v>
+        <v>186845</v>
       </c>
       <c r="T96" s="13">
-        <v>331244</v>
+        <v>340525</v>
       </c>
       <c r="U96" s="13">
-        <v>186845</v>
+        <v>313496</v>
       </c>
       <c r="V96" s="13">
-        <v>340525</v>
+        <v>405139</v>
       </c>
       <c r="W96" s="13">
-        <v>313496</v>
+        <v>427638</v>
       </c>
       <c r="X96" s="13">
-        <v>405139</v>
+        <v>450268</v>
       </c>
       <c r="Y96" s="13">
-        <v>427638</v>
+        <v>350718</v>
       </c>
       <c r="Z96" s="13">
-        <v>450268</v>
+        <v>414798</v>
       </c>
       <c r="AA96" s="13">
-        <v>350718</v>
+        <v>413467</v>
       </c>
       <c r="AB96" s="13">
-        <v>414798</v>
+        <v>476446</v>
       </c>
       <c r="AC96" s="13">
-        <v>413467</v>
+        <v>369697</v>
       </c>
       <c r="AD96" s="13">
-        <v>476446</v>
+        <v>496081</v>
       </c>
       <c r="AE96" s="13">
-        <v>369697</v>
+        <v>293611</v>
       </c>
       <c r="AF96" s="13">
-        <v>496081</v>
+        <v>533303</v>
       </c>
       <c r="AG96" s="13">
-        <v>293611</v>
+        <v>547005</v>
       </c>
       <c r="AH96" s="13">
-        <v>533303</v>
+        <v>624517</v>
       </c>
       <c r="AI96" s="13">
-        <v>547005</v>
+        <v>1495359</v>
       </c>
       <c r="AJ96" s="13">
-        <v>624517</v>
+        <v>2800037</v>
       </c>
       <c r="AK96" s="13">
-        <v>1495359</v>
+        <v>2088288</v>
       </c>
       <c r="AL96" s="13">
-        <v>2800037</v>
+        <v>1344582</v>
       </c>
       <c r="AM96" s="13">
-        <v>2088288</v>
+        <v>1426342</v>
       </c>
       <c r="AN96" s="13">
-        <v>1344582</v>
+        <v>798935</v>
       </c>
       <c r="AO96" s="13">
-        <v>1426342</v>
+        <v>735967</v>
       </c>
       <c r="AP96" s="13">
-        <v>798935</v>
+        <v>689438</v>
       </c>
       <c r="AQ96" s="13">
-        <v>735967</v>
+        <v>310155</v>
       </c>
       <c r="AR96" s="13">
-        <v>689438</v>
+        <v>827959</v>
       </c>
       <c r="AS96" s="13">
-        <v>310155</v>
+        <v>1063585</v>
       </c>
       <c r="AT96" s="13">
-        <v>827959</v>
+        <v>988425</v>
       </c>
       <c r="AU96" s="13">
-        <v>1063585</v>
+        <v>753497</v>
       </c>
       <c r="AV96" s="13">
-        <v>988425</v>
+        <v>1348861</v>
       </c>
       <c r="AW96" s="13">
-        <v>801431</v>
+        <v>1161887</v>
       </c>
       <c r="AX96" s="13">
-        <v>1348861</v>
+        <v>1208729</v>
       </c>
       <c r="AY96" s="13">
-        <v>1161887</v>
+        <v>1259071</v>
       </c>
       <c r="AZ96" s="13">
-        <v>1208729</v>
+        <v>1167539</v>
       </c>
       <c r="BA96" s="13">
-        <v>1259071</v>
+        <v>1178906</v>
       </c>
       <c r="BB96" s="13">
-        <v>1167539</v>
+        <v>1294391</v>
       </c>
     </row>
-    <row r="97" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B97" s="10" t="s">
         <v>77</v>
       </c>
@@ -13786,149 +13786,149 @@
       <c r="G97" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="H97" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="I97" s="11" t="s">
-        <v>57</v>
+      <c r="H97" s="11">
+        <v>83787</v>
+      </c>
+      <c r="I97" s="11">
+        <v>99153</v>
       </c>
       <c r="J97" s="11">
-        <v>83787</v>
+        <v>128476</v>
       </c>
       <c r="K97" s="11">
-        <v>99153</v>
+        <v>122654</v>
       </c>
       <c r="L97" s="11">
-        <v>128476</v>
+        <v>106965</v>
       </c>
       <c r="M97" s="11">
-        <v>122654</v>
+        <v>138835</v>
       </c>
       <c r="N97" s="11">
-        <v>106965</v>
+        <v>89328</v>
       </c>
       <c r="O97" s="11">
-        <v>138835</v>
+        <v>76523</v>
       </c>
       <c r="P97" s="11">
-        <v>89328</v>
+        <v>99239</v>
       </c>
       <c r="Q97" s="11">
-        <v>76523</v>
+        <v>105327</v>
       </c>
       <c r="R97" s="11">
-        <v>99239</v>
+        <v>121071</v>
       </c>
       <c r="S97" s="11">
-        <v>105327</v>
+        <v>56733</v>
       </c>
       <c r="T97" s="11">
-        <v>121071</v>
+        <v>137902</v>
       </c>
       <c r="U97" s="11">
-        <v>56733</v>
+        <v>82483</v>
       </c>
       <c r="V97" s="11">
-        <v>137902</v>
+        <v>61113</v>
       </c>
       <c r="W97" s="11">
-        <v>82483</v>
+        <v>118843</v>
       </c>
       <c r="X97" s="11">
-        <v>61113</v>
+        <v>248477</v>
       </c>
       <c r="Y97" s="11">
-        <v>118843</v>
+        <v>237570</v>
       </c>
       <c r="Z97" s="11">
-        <v>248477</v>
+        <v>111157</v>
       </c>
       <c r="AA97" s="11">
-        <v>237570</v>
+        <v>175137</v>
       </c>
       <c r="AB97" s="11">
-        <v>111157</v>
+        <v>123440</v>
       </c>
       <c r="AC97" s="11">
-        <v>175137</v>
+        <v>189892</v>
       </c>
       <c r="AD97" s="11">
-        <v>123440</v>
+        <v>168463</v>
       </c>
       <c r="AE97" s="11">
-        <v>189892</v>
+        <v>104334</v>
       </c>
       <c r="AF97" s="11">
-        <v>168463</v>
+        <v>105777</v>
       </c>
       <c r="AG97" s="11">
-        <v>104334</v>
+        <v>137709</v>
       </c>
       <c r="AH97" s="11">
-        <v>105777</v>
+        <v>266323</v>
       </c>
       <c r="AI97" s="11">
-        <v>137709</v>
+        <v>397272</v>
       </c>
       <c r="AJ97" s="11">
-        <v>266323</v>
+        <v>187619</v>
       </c>
       <c r="AK97" s="11">
-        <v>397272</v>
+        <v>217358</v>
       </c>
       <c r="AL97" s="11">
-        <v>187619</v>
+        <v>338686</v>
       </c>
       <c r="AM97" s="11">
-        <v>217358</v>
+        <v>246719</v>
       </c>
       <c r="AN97" s="11">
-        <v>338686</v>
+        <v>179218</v>
       </c>
       <c r="AO97" s="11">
-        <v>246719</v>
+        <v>210097</v>
       </c>
       <c r="AP97" s="11">
-        <v>179218</v>
+        <v>339082</v>
       </c>
       <c r="AQ97" s="11">
-        <v>210097</v>
+        <v>113660</v>
       </c>
       <c r="AR97" s="11">
-        <v>339082</v>
+        <v>161820</v>
       </c>
       <c r="AS97" s="11">
-        <v>113660</v>
+        <v>298304</v>
       </c>
       <c r="AT97" s="11">
-        <v>161820</v>
+        <v>466111</v>
       </c>
       <c r="AU97" s="11">
-        <v>298304</v>
+        <v>376545</v>
       </c>
       <c r="AV97" s="11">
-        <v>466111</v>
+        <v>390981</v>
       </c>
       <c r="AW97" s="11">
-        <v>376545</v>
+        <v>387480</v>
       </c>
       <c r="AX97" s="11">
-        <v>390981</v>
+        <v>409426</v>
       </c>
       <c r="AY97" s="11">
-        <v>387480</v>
+        <v>406862</v>
       </c>
       <c r="AZ97" s="11">
-        <v>409426</v>
+        <v>421988</v>
       </c>
       <c r="BA97" s="11">
-        <v>406862</v>
+        <v>582715</v>
       </c>
       <c r="BB97" s="11">
-        <v>421988</v>
+        <v>473962</v>
       </c>
     </row>
-    <row r="98" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B98" s="8" t="s">
         <v>86</v>
       </c>
@@ -13985,7 +13985,7 @@
       <c r="BA98" s="9"/>
       <c r="BB98" s="9"/>
     </row>
-    <row r="99" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B99" s="10" t="s">
         <v>61</v>
       </c>
@@ -14047,39 +14047,39 @@
       <c r="V99" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W99" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X99" s="11" t="s">
-        <v>57</v>
+      <c r="W99" s="11">
+        <v>37563</v>
+      </c>
+      <c r="X99" s="11">
+        <v>15636</v>
       </c>
       <c r="Y99" s="11">
-        <v>37563</v>
+        <v>36184</v>
       </c>
       <c r="Z99" s="11">
-        <v>15636</v>
+        <v>14349</v>
       </c>
       <c r="AA99" s="11">
-        <v>36184</v>
+        <v>20172</v>
       </c>
       <c r="AB99" s="11">
-        <v>14349</v>
+        <v>27892</v>
       </c>
       <c r="AC99" s="11">
-        <v>20172</v>
+        <v>35487</v>
       </c>
       <c r="AD99" s="11">
-        <v>27892</v>
+        <v>13113</v>
       </c>
       <c r="AE99" s="11">
-        <v>35487</v>
-      </c>
-      <c r="AF99" s="11">
-        <v>13113</v>
-      </c>
-      <c r="AG99" s="11">
         <v>26133</v>
       </c>
+      <c r="AF99" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG99" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AH99" s="11" t="s">
         <v>57</v>
       </c>
@@ -14144,7 +14144,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="100" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B100" s="12" t="s">
         <v>62</v>
       </c>
@@ -14233,77 +14233,77 @@
       <c r="AE100" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AF100" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG100" s="13" t="s">
-        <v>57</v>
+      <c r="AF100" s="13">
+        <v>16835</v>
+      </c>
+      <c r="AG100" s="13">
+        <v>25555</v>
       </c>
       <c r="AH100" s="13">
-        <v>16835</v>
+        <v>23118</v>
       </c>
       <c r="AI100" s="13">
-        <v>25555</v>
+        <v>27026</v>
       </c>
       <c r="AJ100" s="13">
-        <v>23118</v>
+        <v>42487</v>
       </c>
       <c r="AK100" s="13">
-        <v>27026</v>
+        <v>34406</v>
       </c>
       <c r="AL100" s="13">
-        <v>42487</v>
+        <v>20814</v>
       </c>
       <c r="AM100" s="13">
-        <v>34406</v>
+        <v>30599</v>
       </c>
       <c r="AN100" s="13">
-        <v>20814</v>
+        <v>22294</v>
       </c>
       <c r="AO100" s="13">
-        <v>30599</v>
+        <v>31228</v>
       </c>
       <c r="AP100" s="13">
-        <v>22294</v>
+        <v>26866</v>
       </c>
       <c r="AQ100" s="13">
-        <v>31228</v>
+        <v>14049</v>
       </c>
       <c r="AR100" s="13">
-        <v>26866</v>
+        <v>6434</v>
       </c>
       <c r="AS100" s="13">
-        <v>14049</v>
+        <v>27838</v>
       </c>
       <c r="AT100" s="13">
-        <v>6434</v>
+        <v>49216</v>
       </c>
       <c r="AU100" s="13">
-        <v>27838</v>
+        <v>29314</v>
       </c>
       <c r="AV100" s="13">
-        <v>49216</v>
+        <v>30759</v>
       </c>
       <c r="AW100" s="13">
-        <v>29314</v>
+        <v>20870</v>
       </c>
       <c r="AX100" s="13">
-        <v>30759</v>
+        <v>30697</v>
       </c>
       <c r="AY100" s="13">
-        <v>20870</v>
+        <v>31248</v>
       </c>
       <c r="AZ100" s="13">
-        <v>30697</v>
+        <v>37941</v>
       </c>
       <c r="BA100" s="13">
-        <v>31248</v>
+        <v>19923</v>
       </c>
       <c r="BB100" s="13">
-        <v>37941</v>
+        <v>41113</v>
       </c>
     </row>
-    <row r="101" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B101" s="14" t="s">
         <v>79</v>
       </c>
@@ -14365,104 +14365,104 @@
       <c r="V101" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="W101" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="X101" s="15" t="s">
-        <v>57</v>
+      <c r="W101" s="15">
+        <v>37563</v>
+      </c>
+      <c r="X101" s="15">
+        <v>15636</v>
       </c>
       <c r="Y101" s="15">
-        <v>37563</v>
+        <v>36184</v>
       </c>
       <c r="Z101" s="15">
-        <v>15636</v>
+        <v>14349</v>
       </c>
       <c r="AA101" s="15">
-        <v>36184</v>
+        <v>20172</v>
       </c>
       <c r="AB101" s="15">
-        <v>14349</v>
+        <v>27892</v>
       </c>
       <c r="AC101" s="15">
-        <v>20172</v>
+        <v>35487</v>
       </c>
       <c r="AD101" s="15">
-        <v>27892</v>
+        <v>13113</v>
       </c>
       <c r="AE101" s="15">
-        <v>35487</v>
+        <v>26133</v>
       </c>
       <c r="AF101" s="15">
-        <v>13113</v>
+        <v>16835</v>
       </c>
       <c r="AG101" s="15">
-        <v>26133</v>
+        <v>25555</v>
       </c>
       <c r="AH101" s="15">
-        <v>16835</v>
+        <v>23118</v>
       </c>
       <c r="AI101" s="15">
-        <v>25555</v>
+        <v>27026</v>
       </c>
       <c r="AJ101" s="15">
-        <v>23118</v>
+        <v>42487</v>
       </c>
       <c r="AK101" s="15">
-        <v>27026</v>
+        <v>34406</v>
       </c>
       <c r="AL101" s="15">
-        <v>42487</v>
+        <v>20814</v>
       </c>
       <c r="AM101" s="15">
-        <v>34406</v>
+        <v>30599</v>
       </c>
       <c r="AN101" s="15">
-        <v>20814</v>
+        <v>22294</v>
       </c>
       <c r="AO101" s="15">
-        <v>30599</v>
+        <v>31228</v>
       </c>
       <c r="AP101" s="15">
-        <v>22294</v>
+        <v>26866</v>
       </c>
       <c r="AQ101" s="15">
-        <v>31228</v>
+        <v>14049</v>
       </c>
       <c r="AR101" s="15">
-        <v>26866</v>
+        <v>6434</v>
       </c>
       <c r="AS101" s="15">
-        <v>14049</v>
+        <v>27838</v>
       </c>
       <c r="AT101" s="15">
-        <v>6434</v>
+        <v>49216</v>
       </c>
       <c r="AU101" s="15">
-        <v>27838</v>
+        <v>29314</v>
       </c>
       <c r="AV101" s="15">
-        <v>49216</v>
+        <v>30759</v>
       </c>
       <c r="AW101" s="15">
-        <v>29314</v>
+        <v>20870</v>
       </c>
       <c r="AX101" s="15">
-        <v>30759</v>
+        <v>30697</v>
       </c>
       <c r="AY101" s="15">
-        <v>20870</v>
+        <v>31248</v>
       </c>
       <c r="AZ101" s="15">
-        <v>30697</v>
+        <v>37941</v>
       </c>
       <c r="BA101" s="15">
-        <v>31248</v>
+        <v>19923</v>
       </c>
       <c r="BB101" s="15">
-        <v>37941</v>
+        <v>41113</v>
       </c>
     </row>
-    <row r="102" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B102" s="18" t="s">
         <v>87</v>
       </c>
@@ -14519,7 +14519,7 @@
       <c r="BA102" s="19"/>
       <c r="BB102" s="19"/>
     </row>
-    <row r="103" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B103" s="14" t="s">
         <v>83</v>
       </c>
@@ -14581,11 +14581,11 @@
       <c r="V103" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="W103" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="X103" s="15" t="s">
-        <v>57</v>
+      <c r="W103" s="15">
+        <v>0</v>
+      </c>
+      <c r="X103" s="15">
+        <v>0</v>
       </c>
       <c r="Y103" s="15">
         <v>0</v>
@@ -14678,7 +14678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B104" s="8" t="s">
         <v>88</v>
       </c>
@@ -14735,7 +14735,7 @@
       <c r="BA104" s="9"/>
       <c r="BB104" s="9"/>
     </row>
-    <row r="105" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B105" s="10" t="s">
         <v>89</v>
       </c>
@@ -14797,11 +14797,11 @@
       <c r="V105" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W105" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X105" s="11" t="s">
-        <v>57</v>
+      <c r="W105" s="11">
+        <v>0</v>
+      </c>
+      <c r="X105" s="11">
+        <v>0</v>
       </c>
       <c r="Y105" s="11">
         <v>0</v>
@@ -14873,185 +14873,185 @@
         <v>0</v>
       </c>
       <c r="AV105" s="11">
-        <v>0</v>
+        <v>-127418</v>
       </c>
       <c r="AW105" s="11">
-        <v>-593413</v>
+        <v>-103821</v>
       </c>
       <c r="AX105" s="11">
-        <v>-127418</v>
+        <v>-65604</v>
       </c>
       <c r="AY105" s="11">
-        <v>-103821</v>
+        <v>-79645</v>
       </c>
       <c r="AZ105" s="11">
-        <v>-65604</v>
+        <v>-81593</v>
       </c>
       <c r="BA105" s="11">
-        <v>-79645</v>
+        <v>-105102</v>
       </c>
       <c r="BB105" s="11">
-        <v>-81593</v>
+        <v>-47133</v>
       </c>
     </row>
-    <row r="106" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B106" s="16" t="s">
         <v>80</v>
       </c>
       <c r="C106" s="17"/>
       <c r="D106" s="17"/>
       <c r="E106" s="17">
-        <v>398520</v>
+        <v>394798</v>
       </c>
       <c r="F106" s="17">
-        <v>370029</v>
+        <v>358349</v>
       </c>
       <c r="G106" s="17">
-        <v>394798</v>
+        <v>235936</v>
       </c>
       <c r="H106" s="17">
-        <v>358349</v>
+        <v>613756</v>
       </c>
       <c r="I106" s="17">
-        <v>235936</v>
+        <v>569584</v>
       </c>
       <c r="J106" s="17">
-        <v>613756</v>
+        <v>635878</v>
       </c>
       <c r="K106" s="17">
-        <v>569584</v>
+        <v>642517</v>
       </c>
       <c r="L106" s="17">
-        <v>635878</v>
+        <v>683351</v>
       </c>
       <c r="M106" s="17">
-        <v>642517</v>
+        <v>697723</v>
       </c>
       <c r="N106" s="17">
-        <v>683351</v>
+        <v>736390</v>
       </c>
       <c r="O106" s="17">
-        <v>697723</v>
+        <v>729312</v>
       </c>
       <c r="P106" s="17">
-        <v>736390</v>
+        <v>733533</v>
       </c>
       <c r="Q106" s="17">
-        <v>729312</v>
+        <v>729175</v>
       </c>
       <c r="R106" s="17">
-        <v>733533</v>
+        <v>724284</v>
       </c>
       <c r="S106" s="17">
-        <v>729175</v>
+        <v>364763</v>
       </c>
       <c r="T106" s="17">
-        <v>724284</v>
+        <v>800181</v>
       </c>
       <c r="U106" s="17">
-        <v>364763</v>
+        <v>771123</v>
       </c>
       <c r="V106" s="17">
-        <v>800181</v>
+        <v>800829</v>
       </c>
       <c r="W106" s="17">
-        <v>771123</v>
+        <v>863484</v>
       </c>
       <c r="X106" s="17">
-        <v>800829</v>
+        <v>968974</v>
       </c>
       <c r="Y106" s="17">
-        <v>863484</v>
+        <v>932560</v>
       </c>
       <c r="Z106" s="17">
-        <v>968974</v>
+        <v>920578</v>
       </c>
       <c r="AA106" s="17">
-        <v>932560</v>
+        <v>1009226</v>
       </c>
       <c r="AB106" s="17">
-        <v>920578</v>
+        <v>973625</v>
       </c>
       <c r="AC106" s="17">
-        <v>1009226</v>
+        <v>950443</v>
       </c>
       <c r="AD106" s="17">
-        <v>973625</v>
+        <v>965883</v>
       </c>
       <c r="AE106" s="17">
-        <v>950443</v>
+        <v>438678</v>
       </c>
       <c r="AF106" s="17">
-        <v>965883</v>
+        <v>963823</v>
       </c>
       <c r="AG106" s="17">
-        <v>438678</v>
+        <v>1030238</v>
       </c>
       <c r="AH106" s="17">
-        <v>963823</v>
+        <v>1200385</v>
       </c>
       <c r="AI106" s="17">
-        <v>1030238</v>
+        <v>2240801</v>
       </c>
       <c r="AJ106" s="17">
-        <v>1200385</v>
+        <v>3403953</v>
       </c>
       <c r="AK106" s="17">
-        <v>2240801</v>
+        <v>2810073</v>
       </c>
       <c r="AL106" s="17">
-        <v>3403953</v>
+        <v>2250170</v>
       </c>
       <c r="AM106" s="17">
-        <v>2810073</v>
+        <v>2221823</v>
       </c>
       <c r="AN106" s="17">
-        <v>2250170</v>
+        <v>1700528</v>
       </c>
       <c r="AO106" s="17">
-        <v>2221823</v>
+        <v>1453803</v>
       </c>
       <c r="AP106" s="17">
-        <v>1700528</v>
+        <v>1402405</v>
       </c>
       <c r="AQ106" s="17">
-        <v>1453803</v>
+        <v>493736</v>
       </c>
       <c r="AR106" s="17">
-        <v>1402405</v>
+        <v>1530676</v>
       </c>
       <c r="AS106" s="17">
-        <v>493736</v>
+        <v>2098764</v>
       </c>
       <c r="AT106" s="17">
-        <v>1530676</v>
+        <v>2000105</v>
       </c>
       <c r="AU106" s="17">
-        <v>2098764</v>
+        <v>1716043</v>
       </c>
       <c r="AV106" s="17">
-        <v>2000105</v>
+        <v>2337824</v>
       </c>
       <c r="AW106" s="17">
-        <v>1716043</v>
+        <v>2169737</v>
       </c>
       <c r="AX106" s="17">
-        <v>2337824</v>
+        <v>2187010</v>
       </c>
       <c r="AY106" s="17">
-        <v>2169737</v>
+        <v>2432869</v>
       </c>
       <c r="AZ106" s="17">
-        <v>2187010</v>
+        <v>2407362</v>
       </c>
       <c r="BA106" s="17">
-        <v>2432869</v>
+        <v>2433262</v>
       </c>
       <c r="BB106" s="17">
-        <v>2407362</v>
+        <v>2511510</v>
       </c>
     </row>
-    <row r="107" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
@@ -15106,7 +15106,7 @@
       <c r="BA107" s="1"/>
       <c r="BB107" s="1"/>
     </row>
-    <row r="108" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -15161,7 +15161,7 @@
       <c r="BA108" s="1"/>
       <c r="BB108" s="1"/>
     </row>
-    <row r="109" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -15216,7 +15216,7 @@
       <c r="BA109" s="1"/>
       <c r="BB109" s="1"/>
     </row>
-    <row r="110" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B110" s="7" t="s">
         <v>90</v>
       </c>
@@ -15373,7 +15373,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="111" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -15428,7 +15428,7 @@
       <c r="BA111" s="1"/>
       <c r="BB111" s="1"/>
     </row>
-    <row r="112" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B112" s="8" t="s">
         <v>91</v>
       </c>
@@ -15485,7 +15485,7 @@
       <c r="BA112" s="9"/>
       <c r="BB112" s="9"/>
     </row>
-    <row r="113" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B113" s="10" t="s">
         <v>55</v>
       </c>
@@ -15494,20 +15494,20 @@
       </c>
       <c r="D113" s="11"/>
       <c r="E113" s="11">
-        <v>32339</v>
+        <v>37537</v>
       </c>
       <c r="F113" s="11">
-        <v>28480</v>
+        <v>46199</v>
       </c>
       <c r="G113" s="11">
-        <v>37537</v>
-      </c>
-      <c r="H113" s="11">
-        <v>46199</v>
-      </c>
-      <c r="I113" s="11">
         <v>82243</v>
       </c>
+      <c r="H113" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I113" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="J113" s="11" t="s">
         <v>57</v>
       </c>
@@ -15644,7 +15644,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="114" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B114" s="12" t="s">
         <v>58</v>
       </c>
@@ -15653,20 +15653,20 @@
       </c>
       <c r="D114" s="13"/>
       <c r="E114" s="13">
-        <v>11402</v>
+        <v>8953</v>
       </c>
       <c r="F114" s="13">
-        <v>7037</v>
+        <v>11134</v>
       </c>
       <c r="G114" s="13">
-        <v>8953</v>
-      </c>
-      <c r="H114" s="13">
-        <v>11134</v>
-      </c>
-      <c r="I114" s="13">
         <v>12160</v>
       </c>
+      <c r="H114" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I114" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="J114" s="13" t="s">
         <v>57</v>
       </c>
@@ -15803,7 +15803,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="115" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B115" s="10" t="s">
         <v>59</v>
       </c>
@@ -15812,20 +15812,20 @@
       </c>
       <c r="D115" s="11"/>
       <c r="E115" s="11">
-        <v>17448</v>
+        <v>20014</v>
       </c>
       <c r="F115" s="11">
-        <v>16187</v>
+        <v>18862</v>
       </c>
       <c r="G115" s="11">
-        <v>20014</v>
-      </c>
-      <c r="H115" s="11">
-        <v>18862</v>
-      </c>
-      <c r="I115" s="11">
         <v>28398</v>
       </c>
+      <c r="H115" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I115" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="J115" s="11" t="s">
         <v>57</v>
       </c>
@@ -15962,7 +15962,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="116" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B116" s="12" t="s">
         <v>60</v>
       </c>
@@ -15979,149 +15979,149 @@
       <c r="G116" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="H116" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="I116" s="13" t="s">
-        <v>57</v>
+      <c r="H116" s="13">
+        <v>45477</v>
+      </c>
+      <c r="I116" s="13">
+        <v>46972</v>
       </c>
       <c r="J116" s="13">
-        <v>45477</v>
+        <v>58402</v>
       </c>
       <c r="K116" s="13">
-        <v>46972</v>
+        <v>72790</v>
       </c>
       <c r="L116" s="13">
-        <v>58402</v>
+        <v>43627</v>
       </c>
       <c r="M116" s="13">
-        <v>72790</v>
+        <v>70098</v>
       </c>
       <c r="N116" s="13">
-        <v>43627</v>
+        <v>294433</v>
       </c>
       <c r="O116" s="13">
-        <v>70098</v>
+        <v>48704</v>
       </c>
       <c r="P116" s="13">
-        <v>294433</v>
+        <v>62764</v>
       </c>
       <c r="Q116" s="13">
-        <v>48704</v>
+        <v>68535</v>
       </c>
       <c r="R116" s="13">
-        <v>62764</v>
+        <v>70989</v>
       </c>
       <c r="S116" s="13">
-        <v>68535</v>
+        <v>70855</v>
       </c>
       <c r="T116" s="13">
-        <v>70989</v>
+        <v>72896</v>
       </c>
       <c r="U116" s="13">
-        <v>70855</v>
+        <v>80520</v>
       </c>
       <c r="V116" s="13">
-        <v>72896</v>
+        <v>60200</v>
       </c>
       <c r="W116" s="13">
-        <v>80520</v>
+        <v>77764</v>
       </c>
       <c r="X116" s="13">
-        <v>60200</v>
+        <v>77933</v>
       </c>
       <c r="Y116" s="13">
-        <v>77764</v>
+        <v>78778</v>
       </c>
       <c r="Z116" s="13">
-        <v>77933</v>
+        <v>91678</v>
       </c>
       <c r="AA116" s="13">
-        <v>78778</v>
+        <v>93402</v>
       </c>
       <c r="AB116" s="13">
-        <v>91678</v>
+        <v>107151</v>
       </c>
       <c r="AC116" s="13">
-        <v>93402</v>
+        <v>170456</v>
       </c>
       <c r="AD116" s="13">
-        <v>107151</v>
+        <v>134030</v>
       </c>
       <c r="AE116" s="13">
-        <v>170456</v>
+        <v>4727</v>
       </c>
       <c r="AF116" s="13">
-        <v>134030</v>
+        <v>109888</v>
       </c>
       <c r="AG116" s="13">
-        <v>4727</v>
+        <v>99615</v>
       </c>
       <c r="AH116" s="13">
-        <v>109888</v>
+        <v>136295</v>
       </c>
       <c r="AI116" s="13">
-        <v>99615</v>
+        <v>118729</v>
       </c>
       <c r="AJ116" s="13">
-        <v>136295</v>
+        <v>114352</v>
       </c>
       <c r="AK116" s="13">
-        <v>118729</v>
+        <v>120793</v>
       </c>
       <c r="AL116" s="13">
-        <v>114352</v>
+        <v>96822</v>
       </c>
       <c r="AM116" s="13">
-        <v>120793</v>
+        <v>93823</v>
       </c>
       <c r="AN116" s="13">
-        <v>96822</v>
+        <v>94256</v>
       </c>
       <c r="AO116" s="13">
-        <v>93823</v>
+        <v>103643</v>
       </c>
       <c r="AP116" s="13">
-        <v>94256</v>
+        <v>89190</v>
       </c>
       <c r="AQ116" s="13">
-        <v>103643</v>
+        <v>153725</v>
       </c>
       <c r="AR116" s="13">
-        <v>89190</v>
+        <v>97238</v>
       </c>
       <c r="AS116" s="13">
-        <v>153725</v>
+        <v>112329</v>
       </c>
       <c r="AT116" s="13">
-        <v>97238</v>
+        <v>105700</v>
       </c>
       <c r="AU116" s="13">
-        <v>112329</v>
+        <v>121701</v>
       </c>
       <c r="AV116" s="13">
-        <v>105700</v>
+        <v>168415</v>
       </c>
       <c r="AW116" s="13">
-        <v>140208</v>
+        <v>179182</v>
       </c>
       <c r="AX116" s="13">
-        <v>168415</v>
+        <v>192139</v>
       </c>
       <c r="AY116" s="13">
-        <v>179182</v>
+        <v>207219</v>
       </c>
       <c r="AZ116" s="13">
-        <v>192139</v>
+        <v>184540</v>
       </c>
       <c r="BA116" s="13">
-        <v>207219</v>
+        <v>228003</v>
       </c>
       <c r="BB116" s="13">
-        <v>184540</v>
+        <v>226059</v>
       </c>
     </row>
-    <row r="117" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B117" s="10" t="s">
         <v>61</v>
       </c>
@@ -16144,51 +16144,51 @@
       <c r="I117" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="J117" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="K117" s="11" t="s">
-        <v>57</v>
+      <c r="J117" s="11">
+        <v>18999</v>
+      </c>
+      <c r="K117" s="11">
+        <v>0</v>
       </c>
       <c r="L117" s="11">
         <v>18999</v>
       </c>
       <c r="M117" s="11">
-        <v>0</v>
+        <v>16110</v>
       </c>
       <c r="N117" s="11">
-        <v>18999</v>
+        <v>16421</v>
       </c>
       <c r="O117" s="11">
-        <v>16110</v>
+        <v>27500</v>
       </c>
       <c r="P117" s="11">
-        <v>16421</v>
+        <v>24120</v>
       </c>
       <c r="Q117" s="11">
-        <v>27500</v>
+        <v>19843</v>
       </c>
       <c r="R117" s="11">
-        <v>24120</v>
+        <v>36227</v>
       </c>
       <c r="S117" s="11">
-        <v>19843</v>
+        <v>24320</v>
       </c>
       <c r="T117" s="11">
-        <v>36227</v>
+        <v>34185</v>
       </c>
       <c r="U117" s="11">
-        <v>24320</v>
+        <v>26316</v>
       </c>
       <c r="V117" s="11">
-        <v>34185</v>
-      </c>
-      <c r="W117" s="11">
-        <v>26316</v>
-      </c>
-      <c r="X117" s="11">
         <v>27001</v>
       </c>
+      <c r="W117" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="X117" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="Y117" s="11" t="s">
         <v>57</v>
       </c>
@@ -16280,7 +16280,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="118" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B118" s="12" t="s">
         <v>62</v>
       </c>
@@ -16292,17 +16292,17 @@
         <v>0</v>
       </c>
       <c r="F118" s="13">
-        <v>19000</v>
+        <v>0</v>
       </c>
       <c r="G118" s="13">
-        <v>0</v>
-      </c>
-      <c r="H118" s="13">
-        <v>0</v>
-      </c>
-      <c r="I118" s="13">
         <v>25099</v>
       </c>
+      <c r="H118" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I118" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="J118" s="13" t="s">
         <v>57</v>
       </c>
@@ -16439,7 +16439,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="119" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B119" s="10" t="s">
         <v>63</v>
       </c>
@@ -16456,149 +16456,149 @@
       <c r="G119" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="H119" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="I119" s="11" t="s">
-        <v>57</v>
+      <c r="H119" s="11">
+        <v>1475</v>
+      </c>
+      <c r="I119" s="11">
+        <v>1508</v>
       </c>
       <c r="J119" s="11">
-        <v>1475</v>
+        <v>1484</v>
       </c>
       <c r="K119" s="11">
-        <v>1508</v>
+        <v>1829</v>
       </c>
       <c r="L119" s="11">
-        <v>1484</v>
+        <v>1598</v>
       </c>
       <c r="M119" s="11">
-        <v>1829</v>
+        <v>2133</v>
       </c>
       <c r="N119" s="11">
-        <v>1598</v>
+        <v>1866</v>
       </c>
       <c r="O119" s="11">
-        <v>2133</v>
+        <v>1796</v>
       </c>
       <c r="P119" s="11">
-        <v>1866</v>
+        <v>2149</v>
       </c>
       <c r="Q119" s="11">
-        <v>1796</v>
+        <v>1693</v>
       </c>
       <c r="R119" s="11">
-        <v>2149</v>
+        <v>2045</v>
       </c>
       <c r="S119" s="11">
-        <v>1693</v>
+        <v>1852</v>
       </c>
       <c r="T119" s="11">
-        <v>2045</v>
+        <v>1873</v>
       </c>
       <c r="U119" s="11">
-        <v>1852</v>
+        <v>1889</v>
       </c>
       <c r="V119" s="11">
-        <v>1873</v>
+        <v>2173</v>
       </c>
       <c r="W119" s="11">
-        <v>1889</v>
+        <v>1798</v>
       </c>
       <c r="X119" s="11">
-        <v>2173</v>
+        <v>1609</v>
       </c>
       <c r="Y119" s="11">
-        <v>1798</v>
+        <v>2163</v>
       </c>
       <c r="Z119" s="11">
-        <v>1609</v>
+        <v>2613</v>
       </c>
       <c r="AA119" s="11">
-        <v>2163</v>
+        <v>2638</v>
       </c>
       <c r="AB119" s="11">
-        <v>2613</v>
+        <v>3209</v>
       </c>
       <c r="AC119" s="11">
-        <v>2638</v>
+        <v>2968</v>
       </c>
       <c r="AD119" s="11">
-        <v>3209</v>
+        <v>3089</v>
       </c>
       <c r="AE119" s="11">
-        <v>2968</v>
+        <v>836</v>
       </c>
       <c r="AF119" s="11">
-        <v>3089</v>
+        <v>2896</v>
       </c>
       <c r="AG119" s="11">
-        <v>836</v>
+        <v>3090</v>
       </c>
       <c r="AH119" s="11">
-        <v>2896</v>
+        <v>3400</v>
       </c>
       <c r="AI119" s="11">
-        <v>3090</v>
+        <v>2912</v>
       </c>
       <c r="AJ119" s="11">
-        <v>3400</v>
+        <v>3319</v>
       </c>
       <c r="AK119" s="11">
-        <v>2912</v>
+        <v>2869</v>
       </c>
       <c r="AL119" s="11">
-        <v>3319</v>
+        <v>3690</v>
       </c>
       <c r="AM119" s="11">
-        <v>2869</v>
+        <v>3278</v>
       </c>
       <c r="AN119" s="11">
-        <v>3690</v>
+        <v>3886</v>
       </c>
       <c r="AO119" s="11">
-        <v>3278</v>
+        <v>3470</v>
       </c>
       <c r="AP119" s="11">
-        <v>3886</v>
+        <v>3671</v>
       </c>
       <c r="AQ119" s="11">
-        <v>3470</v>
+        <v>-1526</v>
       </c>
       <c r="AR119" s="11">
-        <v>3671</v>
+        <v>4391</v>
       </c>
       <c r="AS119" s="11">
-        <v>-1526</v>
+        <v>3618</v>
       </c>
       <c r="AT119" s="11">
-        <v>4391</v>
+        <v>3501</v>
       </c>
       <c r="AU119" s="11">
-        <v>3618</v>
+        <v>3582</v>
       </c>
       <c r="AV119" s="11">
-        <v>3501</v>
+        <v>7495</v>
       </c>
       <c r="AW119" s="11">
-        <v>4668</v>
+        <v>6459</v>
       </c>
       <c r="AX119" s="11">
-        <v>7495</v>
+        <v>6452</v>
       </c>
       <c r="AY119" s="11">
-        <v>6459</v>
+        <v>6112</v>
       </c>
       <c r="AZ119" s="11">
-        <v>6452</v>
+        <v>7417</v>
       </c>
       <c r="BA119" s="11">
-        <v>6112</v>
+        <v>6283</v>
       </c>
       <c r="BB119" s="11">
-        <v>7417</v>
+        <v>7867</v>
       </c>
     </row>
-    <row r="120" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B120" s="12" t="s">
         <v>64</v>
       </c>
@@ -16607,19 +16607,19 @@
       </c>
       <c r="D120" s="13"/>
       <c r="E120" s="13">
-        <v>4480</v>
+        <v>5635</v>
       </c>
       <c r="F120" s="13">
+        <v>5855</v>
+      </c>
+      <c r="G120" s="13">
         <v>0</v>
       </c>
-      <c r="G120" s="13">
-        <v>5635</v>
-      </c>
-      <c r="H120" s="13">
-        <v>5855</v>
-      </c>
-      <c r="I120" s="13">
-        <v>0</v>
+      <c r="H120" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I120" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="J120" s="13" t="s">
         <v>57</v>
@@ -16757,7 +16757,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="121" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B121" s="10" t="s">
         <v>65</v>
       </c>
@@ -16766,20 +16766,20 @@
       </c>
       <c r="D121" s="11"/>
       <c r="E121" s="11">
-        <v>1151</v>
+        <v>975</v>
       </c>
       <c r="F121" s="11">
-        <v>1153</v>
+        <v>1221</v>
       </c>
       <c r="G121" s="11">
-        <v>975</v>
-      </c>
-      <c r="H121" s="11">
-        <v>1221</v>
-      </c>
-      <c r="I121" s="11">
         <v>2408</v>
       </c>
+      <c r="H121" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I121" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="J121" s="11" t="s">
         <v>57</v>
       </c>
@@ -16916,7 +16916,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="122" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B122" s="12" t="s">
         <v>66</v>
       </c>
@@ -16925,20 +16925,20 @@
       </c>
       <c r="D122" s="13"/>
       <c r="E122" s="13">
-        <v>0</v>
+        <v>341695</v>
       </c>
       <c r="F122" s="13">
-        <v>334617</v>
+        <v>341697</v>
       </c>
       <c r="G122" s="13">
-        <v>341695</v>
-      </c>
-      <c r="H122" s="13">
-        <v>341697</v>
-      </c>
-      <c r="I122" s="13">
         <v>315579</v>
       </c>
+      <c r="H122" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I122" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="J122" s="13" t="s">
         <v>57</v>
       </c>
@@ -17075,7 +17075,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="123" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B123" s="10" t="s">
         <v>67</v>
       </c>
@@ -17084,20 +17084,20 @@
       </c>
       <c r="D123" s="11"/>
       <c r="E123" s="11">
-        <v>41178</v>
+        <v>70393</v>
       </c>
       <c r="F123" s="11">
-        <v>43278</v>
+        <v>96895</v>
       </c>
       <c r="G123" s="11">
-        <v>70393</v>
-      </c>
-      <c r="H123" s="11">
-        <v>96895</v>
-      </c>
-      <c r="I123" s="11">
         <v>0</v>
       </c>
+      <c r="H123" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I123" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="J123" s="11" t="s">
         <v>57</v>
       </c>
@@ -17234,7 +17234,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="124" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B124" s="12" t="s">
         <v>68</v>
       </c>
@@ -17243,20 +17243,20 @@
       </c>
       <c r="D124" s="13"/>
       <c r="E124" s="13">
-        <v>53312</v>
+        <v>38977</v>
       </c>
       <c r="F124" s="13">
-        <v>38480</v>
+        <v>38535</v>
       </c>
       <c r="G124" s="13">
-        <v>38977</v>
-      </c>
-      <c r="H124" s="13">
-        <v>38535</v>
-      </c>
-      <c r="I124" s="13">
         <v>48416</v>
       </c>
+      <c r="H124" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I124" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="J124" s="13" t="s">
         <v>57</v>
       </c>
@@ -17393,7 +17393,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="125" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B125" s="10" t="s">
         <v>69</v>
       </c>
@@ -17402,20 +17402,20 @@
       </c>
       <c r="D125" s="11"/>
       <c r="E125" s="11">
-        <v>6924</v>
+        <v>23538</v>
       </c>
       <c r="F125" s="11">
-        <v>2988</v>
+        <v>4575</v>
       </c>
       <c r="G125" s="11">
-        <v>23538</v>
-      </c>
-      <c r="H125" s="11">
-        <v>4575</v>
-      </c>
-      <c r="I125" s="11">
         <v>6623</v>
       </c>
+      <c r="H125" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I125" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="J125" s="11" t="s">
         <v>57</v>
       </c>
@@ -17552,7 +17552,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="126" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B126" s="12" t="s">
         <v>70</v>
       </c>
@@ -17561,20 +17561,20 @@
       </c>
       <c r="D126" s="13"/>
       <c r="E126" s="13">
-        <v>42803</v>
+        <v>45049</v>
       </c>
       <c r="F126" s="13">
-        <v>36011</v>
+        <v>45910</v>
       </c>
       <c r="G126" s="13">
-        <v>45049</v>
-      </c>
-      <c r="H126" s="13">
-        <v>45910</v>
-      </c>
-      <c r="I126" s="13">
         <v>46071</v>
       </c>
+      <c r="H126" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I126" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="J126" s="13" t="s">
         <v>57</v>
       </c>
@@ -17711,7 +17711,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="127" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B127" s="10" t="s">
         <v>71</v>
       </c>
@@ -17720,20 +17720,20 @@
       </c>
       <c r="D127" s="11"/>
       <c r="E127" s="11">
-        <v>2557</v>
+        <v>2580</v>
       </c>
       <c r="F127" s="11">
-        <v>2818</v>
+        <v>2568</v>
       </c>
       <c r="G127" s="11">
-        <v>2580</v>
-      </c>
-      <c r="H127" s="11">
-        <v>2568</v>
-      </c>
-      <c r="I127" s="11">
         <v>6574</v>
       </c>
+      <c r="H127" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I127" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="J127" s="11" t="s">
         <v>57</v>
       </c>
@@ -17870,7 +17870,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="128" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B128" s="12" t="s">
         <v>72</v>
       </c>
@@ -17879,20 +17879,20 @@
       </c>
       <c r="D128" s="13"/>
       <c r="E128" s="13">
-        <v>154923</v>
+        <v>142588</v>
       </c>
       <c r="F128" s="13">
-        <v>134391</v>
+        <v>145428</v>
       </c>
       <c r="G128" s="13">
-        <v>142588</v>
-      </c>
-      <c r="H128" s="13">
-        <v>145428</v>
-      </c>
-      <c r="I128" s="13">
         <v>0</v>
       </c>
+      <c r="H128" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I128" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="J128" s="13" t="s">
         <v>57</v>
       </c>
@@ -18029,7 +18029,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="129" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B129" s="10" t="s">
         <v>73</v>
       </c>
@@ -18038,20 +18038,20 @@
       </c>
       <c r="D129" s="11"/>
       <c r="E129" s="11">
-        <v>4658</v>
+        <v>6896</v>
       </c>
       <c r="F129" s="11">
         <v>0</v>
       </c>
       <c r="G129" s="11">
-        <v>6896</v>
-      </c>
-      <c r="H129" s="11">
-        <v>0</v>
-      </c>
-      <c r="I129" s="11">
         <v>43529</v>
       </c>
+      <c r="H129" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I129" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="J129" s="11" t="s">
         <v>57</v>
       </c>
@@ -18188,7 +18188,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="130" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B130" s="12" t="s">
         <v>74</v>
       </c>
@@ -18205,11 +18205,11 @@
       <c r="G130" s="13">
         <v>0</v>
       </c>
-      <c r="H130" s="13">
-        <v>0</v>
-      </c>
-      <c r="I130" s="13">
-        <v>0</v>
+      <c r="H130" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I130" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="J130" s="13" t="s">
         <v>57</v>
@@ -18347,7 +18347,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="131" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B131" s="10" t="s">
         <v>75</v>
       </c>
@@ -18356,20 +18356,20 @@
       </c>
       <c r="D131" s="11"/>
       <c r="E131" s="11">
-        <v>40902</v>
+        <v>36848</v>
       </c>
       <c r="F131" s="11">
-        <v>33189</v>
+        <v>35991</v>
       </c>
       <c r="G131" s="11">
-        <v>36848</v>
-      </c>
-      <c r="H131" s="11">
-        <v>35991</v>
-      </c>
-      <c r="I131" s="11">
         <v>82170</v>
       </c>
+      <c r="H131" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I131" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="J131" s="11" t="s">
         <v>57</v>
       </c>
@@ -18506,7 +18506,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="132" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B132" s="12" t="s">
         <v>76</v>
       </c>
@@ -18523,149 +18523,149 @@
       <c r="G132" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="H132" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="I132" s="13" t="s">
-        <v>57</v>
+      <c r="H132" s="13">
+        <v>29606</v>
+      </c>
+      <c r="I132" s="13">
+        <v>25266</v>
       </c>
       <c r="J132" s="13">
-        <v>29606</v>
+        <v>27250</v>
       </c>
       <c r="K132" s="13">
-        <v>25266</v>
+        <v>26024</v>
       </c>
       <c r="L132" s="13">
-        <v>27250</v>
+        <v>28565</v>
       </c>
       <c r="M132" s="13">
-        <v>26024</v>
+        <v>27527</v>
       </c>
       <c r="N132" s="13">
-        <v>28565</v>
+        <v>26506</v>
       </c>
       <c r="O132" s="13">
-        <v>27527</v>
+        <v>26311</v>
       </c>
       <c r="P132" s="13">
-        <v>26506</v>
+        <v>28114</v>
       </c>
       <c r="Q132" s="13">
-        <v>26311</v>
+        <v>26035</v>
       </c>
       <c r="R132" s="13">
-        <v>28114</v>
+        <v>23600</v>
       </c>
       <c r="S132" s="13">
-        <v>26035</v>
+        <v>22169</v>
       </c>
       <c r="T132" s="13">
-        <v>23600</v>
+        <v>28278</v>
       </c>
       <c r="U132" s="13">
-        <v>22169</v>
+        <v>26776</v>
       </c>
       <c r="V132" s="13">
-        <v>28278</v>
+        <v>33566</v>
       </c>
       <c r="W132" s="13">
-        <v>26776</v>
+        <v>34644</v>
       </c>
       <c r="X132" s="13">
-        <v>33566</v>
+        <v>33007</v>
       </c>
       <c r="Y132" s="13">
-        <v>34644</v>
+        <v>39307</v>
       </c>
       <c r="Z132" s="13">
-        <v>33007</v>
+        <v>31259</v>
       </c>
       <c r="AA132" s="13">
-        <v>39307</v>
+        <v>33755</v>
       </c>
       <c r="AB132" s="13">
-        <v>31259</v>
+        <v>41346</v>
       </c>
       <c r="AC132" s="13">
-        <v>33755</v>
+        <v>43858</v>
       </c>
       <c r="AD132" s="13">
-        <v>41346</v>
+        <v>37530</v>
       </c>
       <c r="AE132" s="13">
-        <v>43858</v>
+        <v>59818</v>
       </c>
       <c r="AF132" s="13">
-        <v>37530</v>
+        <v>51855</v>
       </c>
       <c r="AG132" s="13">
-        <v>59818</v>
+        <v>34360</v>
       </c>
       <c r="AH132" s="13">
-        <v>51855</v>
+        <v>44720</v>
       </c>
       <c r="AI132" s="13">
-        <v>34360</v>
+        <v>92682</v>
       </c>
       <c r="AJ132" s="13">
-        <v>44720</v>
+        <v>162521</v>
       </c>
       <c r="AK132" s="13">
-        <v>92682</v>
+        <v>161951</v>
       </c>
       <c r="AL132" s="13">
-        <v>162521</v>
+        <v>78714</v>
       </c>
       <c r="AM132" s="13">
-        <v>161951</v>
+        <v>82603</v>
       </c>
       <c r="AN132" s="13">
-        <v>78714</v>
+        <v>49639</v>
       </c>
       <c r="AO132" s="13">
-        <v>82603</v>
+        <v>51019</v>
       </c>
       <c r="AP132" s="13">
-        <v>49639</v>
+        <v>48273</v>
       </c>
       <c r="AQ132" s="13">
-        <v>51019</v>
+        <v>61889</v>
       </c>
       <c r="AR132" s="13">
-        <v>48273</v>
+        <v>76062</v>
       </c>
       <c r="AS132" s="13">
-        <v>61889</v>
+        <v>64203</v>
       </c>
       <c r="AT132" s="13">
-        <v>76062</v>
+        <v>75346</v>
       </c>
       <c r="AU132" s="13">
-        <v>64203</v>
+        <v>60274</v>
       </c>
       <c r="AV132" s="13">
-        <v>75346</v>
+        <v>104179</v>
       </c>
       <c r="AW132" s="13">
-        <v>61177</v>
+        <v>106696</v>
       </c>
       <c r="AX132" s="13">
-        <v>104179</v>
+        <v>62604</v>
       </c>
       <c r="AY132" s="13">
-        <v>106696</v>
+        <v>75807</v>
       </c>
       <c r="AZ132" s="13">
-        <v>62604</v>
+        <v>97943</v>
       </c>
       <c r="BA132" s="13">
-        <v>75807</v>
+        <v>97633</v>
       </c>
       <c r="BB132" s="13">
-        <v>97943</v>
+        <v>122190</v>
       </c>
     </row>
-    <row r="133" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B133" s="10" t="s">
         <v>77</v>
       </c>
@@ -18682,149 +18682,149 @@
       <c r="G133" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="H133" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="I133" s="11" t="s">
-        <v>57</v>
+      <c r="H133" s="11">
+        <v>28893</v>
+      </c>
+      <c r="I133" s="11">
+        <v>21820</v>
       </c>
       <c r="J133" s="11">
-        <v>28893</v>
+        <v>33702</v>
       </c>
       <c r="K133" s="11">
-        <v>21820</v>
+        <v>26023</v>
       </c>
       <c r="L133" s="11">
-        <v>33702</v>
+        <v>27310</v>
       </c>
       <c r="M133" s="11">
-        <v>26023</v>
+        <v>30955</v>
       </c>
       <c r="N133" s="11">
-        <v>27310</v>
+        <v>31986</v>
       </c>
       <c r="O133" s="11">
-        <v>30955</v>
+        <v>41659</v>
       </c>
       <c r="P133" s="11">
-        <v>31986</v>
+        <v>26064</v>
       </c>
       <c r="Q133" s="11">
-        <v>41659</v>
+        <v>20565</v>
       </c>
       <c r="R133" s="11">
-        <v>26064</v>
+        <v>29437</v>
       </c>
       <c r="S133" s="11">
-        <v>20565</v>
+        <v>35715</v>
       </c>
       <c r="T133" s="11">
-        <v>29437</v>
+        <v>25732</v>
       </c>
       <c r="U133" s="11">
-        <v>35715</v>
+        <v>59041</v>
       </c>
       <c r="V133" s="11">
-        <v>25732</v>
+        <v>15632</v>
       </c>
       <c r="W133" s="11">
-        <v>59041</v>
+        <v>19414</v>
       </c>
       <c r="X133" s="11">
-        <v>15632</v>
+        <v>32844</v>
       </c>
       <c r="Y133" s="11">
-        <v>19414</v>
+        <v>34009</v>
       </c>
       <c r="Z133" s="11">
-        <v>32844</v>
+        <v>14625</v>
       </c>
       <c r="AA133" s="11">
-        <v>34009</v>
+        <v>20477</v>
       </c>
       <c r="AB133" s="11">
-        <v>14625</v>
+        <v>19244</v>
       </c>
       <c r="AC133" s="11">
-        <v>20477</v>
+        <v>32552</v>
       </c>
       <c r="AD133" s="11">
-        <v>19244</v>
+        <v>22360</v>
       </c>
       <c r="AE133" s="11">
-        <v>32552</v>
+        <v>50776</v>
       </c>
       <c r="AF133" s="11">
-        <v>22360</v>
+        <v>31877</v>
       </c>
       <c r="AG133" s="11">
-        <v>50776</v>
+        <v>33814</v>
       </c>
       <c r="AH133" s="11">
-        <v>31877</v>
+        <v>66411</v>
       </c>
       <c r="AI133" s="11">
-        <v>33814</v>
+        <v>66374</v>
       </c>
       <c r="AJ133" s="11">
-        <v>66411</v>
+        <v>47223</v>
       </c>
       <c r="AK133" s="11">
-        <v>66374</v>
+        <v>28370</v>
       </c>
       <c r="AL133" s="11">
-        <v>47223</v>
+        <v>35891</v>
       </c>
       <c r="AM133" s="11">
-        <v>28370</v>
+        <v>23230</v>
       </c>
       <c r="AN133" s="11">
-        <v>35891</v>
+        <v>36803</v>
       </c>
       <c r="AO133" s="11">
-        <v>23230</v>
+        <v>29851</v>
       </c>
       <c r="AP133" s="11">
-        <v>36803</v>
+        <v>38868</v>
       </c>
       <c r="AQ133" s="11">
-        <v>29851</v>
+        <v>33636</v>
       </c>
       <c r="AR133" s="11">
-        <v>38868</v>
+        <v>30890</v>
       </c>
       <c r="AS133" s="11">
-        <v>33636</v>
+        <v>39700</v>
       </c>
       <c r="AT133" s="11">
-        <v>30890</v>
+        <v>44524</v>
       </c>
       <c r="AU133" s="11">
-        <v>39700</v>
+        <v>48176</v>
       </c>
       <c r="AV133" s="11">
-        <v>44524</v>
+        <v>98873</v>
       </c>
       <c r="AW133" s="11">
-        <v>48176</v>
+        <v>52576</v>
       </c>
       <c r="AX133" s="11">
-        <v>98873</v>
+        <v>53804</v>
       </c>
       <c r="AY133" s="11">
-        <v>52576</v>
+        <v>81456</v>
       </c>
       <c r="AZ133" s="11">
-        <v>53804</v>
+        <v>74252</v>
       </c>
       <c r="BA133" s="11">
-        <v>81456</v>
+        <v>111640</v>
       </c>
       <c r="BB133" s="11">
-        <v>74252</v>
+        <v>99923</v>
       </c>
     </row>
-    <row r="134" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B134" s="8" t="s">
         <v>93</v>
       </c>
@@ -18881,7 +18881,7 @@
       <c r="BA134" s="9"/>
       <c r="BB134" s="9"/>
     </row>
-    <row r="135" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B135" s="10" t="s">
         <v>61</v>
       </c>
@@ -18943,39 +18943,39 @@
       <c r="V135" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W135" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X135" s="11" t="s">
-        <v>57</v>
+      <c r="W135" s="11">
+        <v>22370</v>
+      </c>
+      <c r="X135" s="11">
+        <v>49570</v>
       </c>
       <c r="Y135" s="11">
-        <v>22370</v>
+        <v>36692</v>
       </c>
       <c r="Z135" s="11">
-        <v>49570</v>
+        <v>38915</v>
       </c>
       <c r="AA135" s="11">
-        <v>36692</v>
+        <v>39195</v>
       </c>
       <c r="AB135" s="11">
-        <v>38915</v>
+        <v>45026</v>
       </c>
       <c r="AC135" s="11">
-        <v>39195</v>
+        <v>43167</v>
       </c>
       <c r="AD135" s="11">
-        <v>45026</v>
+        <v>55862</v>
       </c>
       <c r="AE135" s="11">
-        <v>43167</v>
-      </c>
-      <c r="AF135" s="11">
-        <v>55862</v>
-      </c>
-      <c r="AG135" s="11">
         <v>44690</v>
       </c>
+      <c r="AF135" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG135" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AH135" s="11" t="s">
         <v>57</v>
       </c>
@@ -19040,7 +19040,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="136" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B136" s="12" t="s">
         <v>62</v>
       </c>
@@ -19129,74 +19129,74 @@
       <c r="AE136" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AF136" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AG136" s="13" t="s">
-        <v>57</v>
+      <c r="AF136" s="13">
+        <v>45001</v>
+      </c>
+      <c r="AG136" s="13">
+        <v>43703</v>
       </c>
       <c r="AH136" s="13">
-        <v>45001</v>
+        <v>35865</v>
       </c>
       <c r="AI136" s="13">
-        <v>43703</v>
+        <v>47500</v>
       </c>
       <c r="AJ136" s="13">
-        <v>35865</v>
+        <v>30234</v>
       </c>
       <c r="AK136" s="13">
-        <v>47500</v>
+        <v>47213</v>
       </c>
       <c r="AL136" s="13">
-        <v>30234</v>
+        <v>16753</v>
       </c>
       <c r="AM136" s="13">
-        <v>47213</v>
+        <v>53716</v>
       </c>
       <c r="AN136" s="13">
-        <v>16753</v>
+        <v>42926</v>
       </c>
       <c r="AO136" s="13">
-        <v>53716</v>
+        <v>12683</v>
       </c>
       <c r="AP136" s="13">
-        <v>42926</v>
+        <v>10301</v>
       </c>
       <c r="AQ136" s="13">
-        <v>12683</v>
+        <v>142364</v>
       </c>
       <c r="AR136" s="13">
-        <v>10301</v>
+        <v>43456</v>
       </c>
       <c r="AS136" s="13">
-        <v>142364</v>
+        <v>14424</v>
       </c>
       <c r="AT136" s="13">
-        <v>43456</v>
+        <v>41045</v>
       </c>
       <c r="AU136" s="13">
-        <v>14424</v>
+        <v>57515</v>
       </c>
       <c r="AV136" s="13">
-        <v>41045</v>
+        <v>49093</v>
       </c>
       <c r="AW136" s="13">
-        <v>57515</v>
+        <v>9524</v>
       </c>
       <c r="AX136" s="13">
-        <v>49093</v>
+        <v>14449</v>
       </c>
       <c r="AY136" s="13">
-        <v>9524</v>
+        <v>72026</v>
       </c>
       <c r="AZ136" s="13">
-        <v>14449</v>
+        <v>16674</v>
       </c>
       <c r="BA136" s="13">
-        <v>72026</v>
+        <v>80684</v>
       </c>
       <c r="BB136" s="13">
-        <v>16674</v>
+        <v>21383</v>
       </c>
     </row>
   </sheetData>
